--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Points'!$A$1:$N$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Points'!$A$1:$O$278</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N260"/>
+  <dimension ref="A1:O278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -472,11 +472,12 @@
     <col width="31" customWidth="1" min="7" max="7"/>
     <col width="40" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="18" customWidth="1" min="12" max="12"/>
     <col width="16" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="21" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -547,6 +548,11 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Entity Category</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Available in Modbus</t>
         </is>
       </c>
@@ -617,7 +623,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -685,7 +692,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr">
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -753,7 +761,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -821,7 +830,8 @@
           <t>frequency</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -893,7 +903,8 @@
           <t>power_factor</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -965,7 +976,8 @@
           <t>reactive_power</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr">
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1037,7 +1049,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1109,7 +1122,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr">
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1181,7 +1195,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -1249,7 +1264,8 @@
           <t>temperature</t>
         </is>
       </c>
-      <c r="N11" s="2" t="inlineStr">
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1321,7 +1337,8 @@
           <t>temperature</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1385,7 +1402,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N13" s="2" t="inlineStr">
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1453,7 +1471,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1521,7 +1540,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N15" s="2" t="inlineStr">
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1593,7 +1613,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1661,7 +1682,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1729,7 +1751,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1801,7 +1824,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1869,7 +1893,8 @@
           <t>battery</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr">
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -1941,7 +1966,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N21" s="2" t="inlineStr">
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2009,7 +2035,8 @@
           <t>battery</t>
         </is>
       </c>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2073,7 +2100,8 @@
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr">
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2141,7 +2169,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N24" s="2" t="inlineStr">
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2209,7 +2238,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N25" s="2" t="inlineStr">
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2277,7 +2307,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N26" s="2" t="inlineStr">
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2345,7 +2376,8 @@
           <t>temperature</t>
         </is>
       </c>
-      <c r="N27" s="2" t="inlineStr">
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2405,7 +2437,8 @@
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr">
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2473,7 +2506,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N29" s="2" t="inlineStr">
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2541,7 +2575,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N30" s="2" t="inlineStr">
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2609,7 +2644,8 @@
           <t>temperature</t>
         </is>
       </c>
-      <c r="N31" s="2" t="inlineStr">
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2677,7 +2713,8 @@
           <t>temperature</t>
         </is>
       </c>
-      <c r="N32" s="2" t="inlineStr">
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2745,7 +2782,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N33" s="2" t="inlineStr">
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2813,7 +2851,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N34" s="2" t="inlineStr">
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2873,7 +2912,8 @@
       </c>
       <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr">
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -2941,7 +2981,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N36" s="2" t="inlineStr">
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3009,7 +3050,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N37" s="2" t="inlineStr">
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3065,7 +3107,8 @@
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr"/>
       <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr">
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3137,7 +3180,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N39" s="2" t="inlineStr">
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3205,7 +3249,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N40" s="2" t="inlineStr">
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3273,7 +3318,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N41" s="2" t="inlineStr">
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3341,7 +3387,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N42" s="2" t="inlineStr">
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3409,7 +3456,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N43" s="2" t="inlineStr">
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3477,7 +3525,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N44" s="2" t="inlineStr">
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3545,7 +3594,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N45" s="2" t="inlineStr">
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3613,7 +3663,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N46" s="2" t="inlineStr">
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3681,7 +3732,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N47" s="2" t="inlineStr">
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3749,7 +3801,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N48" s="2" t="inlineStr">
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3817,7 +3870,8 @@
           <t>reactive_power</t>
         </is>
       </c>
-      <c r="N49" s="2" t="inlineStr">
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3885,7 +3939,8 @@
           <t>reactive_power</t>
         </is>
       </c>
-      <c r="N50" s="2" t="inlineStr">
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -3953,7 +4008,8 @@
           <t>reactive_power</t>
         </is>
       </c>
-      <c r="N51" s="2" t="inlineStr">
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -4021,7 +4077,8 @@
           <t>reactive_power</t>
         </is>
       </c>
-      <c r="N52" s="2" t="inlineStr">
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -4089,7 +4146,8 @@
           <t>frequency</t>
         </is>
       </c>
-      <c r="N53" s="2" t="inlineStr">
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -4161,7 +4219,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N54" s="2" t="inlineStr">
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -4233,7 +4292,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N55" s="2" t="inlineStr">
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -4305,7 +4365,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N56" s="3" t="inlineStr">
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -4377,7 +4438,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N57" s="3" t="inlineStr">
+      <c r="N57" s="3" t="inlineStr"/>
+      <c r="O57" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -4449,7 +4511,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N58" s="3" t="inlineStr">
+      <c r="N58" s="3" t="inlineStr"/>
+      <c r="O58" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -4521,7 +4584,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N59" s="3" t="inlineStr">
+      <c r="N59" s="3" t="inlineStr"/>
+      <c r="O59" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -4593,7 +4657,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N60" s="3" t="inlineStr">
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -4665,7 +4730,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N61" s="3" t="inlineStr">
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -4737,7 +4803,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N62" s="3" t="inlineStr">
+      <c r="N62" s="3" t="inlineStr"/>
+      <c r="O62" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -4809,7 +4876,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N63" s="3" t="inlineStr">
+      <c r="N63" s="3" t="inlineStr"/>
+      <c r="O63" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -4881,7 +4949,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N64" s="3" t="inlineStr">
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -4953,7 +5022,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N65" s="3" t="inlineStr">
+      <c r="N65" s="3" t="inlineStr"/>
+      <c r="O65" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5025,7 +5095,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N66" s="3" t="inlineStr">
+      <c r="N66" s="3" t="inlineStr"/>
+      <c r="O66" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5097,7 +5168,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N67" s="3" t="inlineStr">
+      <c r="N67" s="3" t="inlineStr"/>
+      <c r="O67" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5169,7 +5241,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N68" s="3" t="inlineStr">
+      <c r="N68" s="3" t="inlineStr"/>
+      <c r="O68" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5241,7 +5314,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N69" s="3" t="inlineStr">
+      <c r="N69" s="3" t="inlineStr"/>
+      <c r="O69" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5313,7 +5387,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N70" s="3" t="inlineStr">
+      <c r="N70" s="3" t="inlineStr"/>
+      <c r="O70" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5385,7 +5460,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N71" s="3" t="inlineStr">
+      <c r="N71" s="3" t="inlineStr"/>
+      <c r="O71" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5453,7 +5529,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N72" s="3" t="inlineStr">
+      <c r="N72" s="3" t="inlineStr"/>
+      <c r="O72" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5521,7 +5598,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N73" s="3" t="inlineStr">
+      <c r="N73" s="3" t="inlineStr"/>
+      <c r="O73" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5589,7 +5667,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N74" s="3" t="inlineStr">
+      <c r="N74" s="3" t="inlineStr"/>
+      <c r="O74" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5657,7 +5736,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N75" s="3" t="inlineStr">
+      <c r="N75" s="3" t="inlineStr"/>
+      <c r="O75" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5725,7 +5805,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N76" s="3" t="inlineStr">
+      <c r="N76" s="3" t="inlineStr"/>
+      <c r="O76" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5793,7 +5874,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N77" s="3" t="inlineStr">
+      <c r="N77" s="3" t="inlineStr"/>
+      <c r="O77" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5865,7 +5947,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N78" s="3" t="inlineStr">
+      <c r="N78" s="3" t="inlineStr"/>
+      <c r="O78" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -5937,7 +6020,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N79" s="3" t="inlineStr">
+      <c r="N79" s="3" t="inlineStr"/>
+      <c r="O79" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6009,7 +6093,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N80" s="3" t="inlineStr">
+      <c r="N80" s="3" t="inlineStr"/>
+      <c r="O80" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6081,7 +6166,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N81" s="3" t="inlineStr">
+      <c r="N81" s="3" t="inlineStr"/>
+      <c r="O81" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6153,7 +6239,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N82" s="3" t="inlineStr">
+      <c r="N82" s="3" t="inlineStr"/>
+      <c r="O82" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6225,7 +6312,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N83" s="3" t="inlineStr">
+      <c r="N83" s="3" t="inlineStr"/>
+      <c r="O83" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6297,7 +6385,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N84" s="3" t="inlineStr">
+      <c r="N84" s="3" t="inlineStr"/>
+      <c r="O84" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6369,7 +6458,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N85" s="3" t="inlineStr">
+      <c r="N85" s="3" t="inlineStr"/>
+      <c r="O85" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6441,7 +6531,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N86" s="3" t="inlineStr">
+      <c r="N86" s="3" t="inlineStr"/>
+      <c r="O86" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6513,7 +6604,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N87" s="3" t="inlineStr">
+      <c r="N87" s="3" t="inlineStr"/>
+      <c r="O87" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6585,7 +6677,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N88" s="3" t="inlineStr">
+      <c r="N88" s="3" t="inlineStr"/>
+      <c r="O88" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6657,7 +6750,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N89" s="3" t="inlineStr">
+      <c r="N89" s="3" t="inlineStr"/>
+      <c r="O89" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6729,7 +6823,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N90" s="3" t="inlineStr">
+      <c r="N90" s="3" t="inlineStr"/>
+      <c r="O90" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6801,7 +6896,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N91" s="3" t="inlineStr">
+      <c r="N91" s="3" t="inlineStr"/>
+      <c r="O91" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6873,7 +6969,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N92" s="3" t="inlineStr">
+      <c r="N92" s="3" t="inlineStr"/>
+      <c r="O92" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -6945,7 +7042,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N93" s="3" t="inlineStr">
+      <c r="N93" s="3" t="inlineStr"/>
+      <c r="O93" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7017,7 +7115,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N94" s="3" t="inlineStr">
+      <c r="N94" s="3" t="inlineStr"/>
+      <c r="O94" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7089,7 +7188,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N95" s="3" t="inlineStr">
+      <c r="N95" s="3" t="inlineStr"/>
+      <c r="O95" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7161,7 +7261,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N96" s="3" t="inlineStr">
+      <c r="N96" s="3" t="inlineStr"/>
+      <c r="O96" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7233,7 +7334,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N97" s="3" t="inlineStr">
+      <c r="N97" s="3" t="inlineStr"/>
+      <c r="O97" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7305,7 +7407,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N98" s="3" t="inlineStr">
+      <c r="N98" s="3" t="inlineStr"/>
+      <c r="O98" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7377,7 +7480,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N99" s="3" t="inlineStr">
+      <c r="N99" s="3" t="inlineStr"/>
+      <c r="O99" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7449,7 +7553,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N100" s="3" t="inlineStr">
+      <c r="N100" s="3" t="inlineStr"/>
+      <c r="O100" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7521,7 +7626,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N101" s="3" t="inlineStr">
+      <c r="N101" s="3" t="inlineStr"/>
+      <c r="O101" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7581,7 +7687,8 @@
         </is>
       </c>
       <c r="M102" s="3" t="inlineStr"/>
-      <c r="N102" s="3" t="inlineStr">
+      <c r="N102" s="3" t="inlineStr"/>
+      <c r="O102" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7641,7 +7748,8 @@
         </is>
       </c>
       <c r="M103" s="3" t="inlineStr"/>
-      <c r="N103" s="3" t="inlineStr">
+      <c r="N103" s="3" t="inlineStr"/>
+      <c r="O103" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7701,7 +7809,8 @@
         </is>
       </c>
       <c r="M104" s="3" t="inlineStr"/>
-      <c r="N104" s="3" t="inlineStr">
+      <c r="N104" s="3" t="inlineStr"/>
+      <c r="O104" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7761,7 +7870,8 @@
         </is>
       </c>
       <c r="M105" s="3" t="inlineStr"/>
-      <c r="N105" s="3" t="inlineStr">
+      <c r="N105" s="3" t="inlineStr"/>
+      <c r="O105" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7821,7 +7931,8 @@
         </is>
       </c>
       <c r="M106" s="3" t="inlineStr"/>
-      <c r="N106" s="3" t="inlineStr">
+      <c r="N106" s="3" t="inlineStr"/>
+      <c r="O106" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7885,7 +7996,8 @@
         </is>
       </c>
       <c r="M107" s="3" t="inlineStr"/>
-      <c r="N107" s="3" t="inlineStr">
+      <c r="N107" s="3" t="inlineStr"/>
+      <c r="O107" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -7949,7 +8061,8 @@
         </is>
       </c>
       <c r="M108" s="3" t="inlineStr"/>
-      <c r="N108" s="3" t="inlineStr">
+      <c r="N108" s="3" t="inlineStr"/>
+      <c r="O108" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -8009,7 +8122,8 @@
         </is>
       </c>
       <c r="M109" s="3" t="inlineStr"/>
-      <c r="N109" s="3" t="inlineStr">
+      <c r="N109" s="3" t="inlineStr"/>
+      <c r="O109" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -8069,7 +8183,8 @@
         </is>
       </c>
       <c r="M110" s="3" t="inlineStr"/>
-      <c r="N110" s="3" t="inlineStr">
+      <c r="N110" s="3" t="inlineStr"/>
+      <c r="O110" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -8129,7 +8244,8 @@
         </is>
       </c>
       <c r="M111" s="3" t="inlineStr"/>
-      <c r="N111" s="3" t="inlineStr">
+      <c r="N111" s="3" t="inlineStr"/>
+      <c r="O111" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -8189,7 +8305,8 @@
         </is>
       </c>
       <c r="M112" s="3" t="inlineStr"/>
-      <c r="N112" s="3" t="inlineStr">
+      <c r="N112" s="3" t="inlineStr"/>
+      <c r="O112" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -8249,7 +8366,8 @@
         </is>
       </c>
       <c r="M113" s="3" t="inlineStr"/>
-      <c r="N113" s="3" t="inlineStr">
+      <c r="N113" s="3" t="inlineStr"/>
+      <c r="O113" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -8317,7 +8435,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N114" s="3" t="inlineStr">
+      <c r="N114" s="3" t="inlineStr"/>
+      <c r="O114" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -8385,7 +8504,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N115" s="3" t="inlineStr">
+      <c r="N115" s="3" t="inlineStr"/>
+      <c r="O115" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -8453,7 +8573,8 @@
           <t>voltage</t>
         </is>
       </c>
-      <c r="N116" s="3" t="inlineStr">
+      <c r="N116" s="3" t="inlineStr"/>
+      <c r="O116" s="3" t="inlineStr">
         <is>
           <t>MAYBE</t>
         </is>
@@ -8513,7 +8634,8 @@
         </is>
       </c>
       <c r="M117" s="4" t="inlineStr"/>
-      <c r="N117" s="4" t="inlineStr">
+      <c r="N117" s="4" t="inlineStr"/>
+      <c r="O117" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -8573,7 +8695,8 @@
         </is>
       </c>
       <c r="M118" s="4" t="inlineStr"/>
-      <c r="N118" s="4" t="inlineStr">
+      <c r="N118" s="4" t="inlineStr"/>
+      <c r="O118" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -8633,7 +8756,8 @@
         </is>
       </c>
       <c r="M119" s="4" t="inlineStr"/>
-      <c r="N119" s="4" t="inlineStr">
+      <c r="N119" s="4" t="inlineStr"/>
+      <c r="O119" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -8693,7 +8817,8 @@
         </is>
       </c>
       <c r="M120" s="4" t="inlineStr"/>
-      <c r="N120" s="4" t="inlineStr">
+      <c r="N120" s="4" t="inlineStr"/>
+      <c r="O120" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -8753,7 +8878,8 @@
         </is>
       </c>
       <c r="M121" s="4" t="inlineStr"/>
-      <c r="N121" s="4" t="inlineStr">
+      <c r="N121" s="4" t="inlineStr"/>
+      <c r="O121" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -8813,7 +8939,8 @@
         </is>
       </c>
       <c r="M122" s="4" t="inlineStr"/>
-      <c r="N122" s="4" t="inlineStr">
+      <c r="N122" s="4" t="inlineStr"/>
+      <c r="O122" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -8873,7 +9000,8 @@
         </is>
       </c>
       <c r="M123" s="4" t="inlineStr"/>
-      <c r="N123" s="4" t="inlineStr">
+      <c r="N123" s="4" t="inlineStr"/>
+      <c r="O123" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -8933,7 +9061,8 @@
         </is>
       </c>
       <c r="M124" s="4" t="inlineStr"/>
-      <c r="N124" s="4" t="inlineStr">
+      <c r="N124" s="4" t="inlineStr"/>
+      <c r="O124" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -8993,7 +9122,8 @@
         </is>
       </c>
       <c r="M125" s="4" t="inlineStr"/>
-      <c r="N125" s="4" t="inlineStr">
+      <c r="N125" s="4" t="inlineStr"/>
+      <c r="O125" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9053,7 +9183,8 @@
         </is>
       </c>
       <c r="M126" s="4" t="inlineStr"/>
-      <c r="N126" s="4" t="inlineStr">
+      <c r="N126" s="4" t="inlineStr"/>
+      <c r="O126" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9113,7 +9244,8 @@
         </is>
       </c>
       <c r="M127" s="4" t="inlineStr"/>
-      <c r="N127" s="4" t="inlineStr">
+      <c r="N127" s="4" t="inlineStr"/>
+      <c r="O127" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9173,7 +9305,8 @@
         </is>
       </c>
       <c r="M128" s="4" t="inlineStr"/>
-      <c r="N128" s="4" t="inlineStr">
+      <c r="N128" s="4" t="inlineStr"/>
+      <c r="O128" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9233,7 +9366,8 @@
         </is>
       </c>
       <c r="M129" s="4" t="inlineStr"/>
-      <c r="N129" s="4" t="inlineStr">
+      <c r="N129" s="4" t="inlineStr"/>
+      <c r="O129" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9293,7 +9427,8 @@
         </is>
       </c>
       <c r="M130" s="4" t="inlineStr"/>
-      <c r="N130" s="4" t="inlineStr">
+      <c r="N130" s="4" t="inlineStr"/>
+      <c r="O130" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9353,7 +9488,8 @@
         </is>
       </c>
       <c r="M131" s="4" t="inlineStr"/>
-      <c r="N131" s="4" t="inlineStr">
+      <c r="N131" s="4" t="inlineStr"/>
+      <c r="O131" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9413,7 +9549,8 @@
         </is>
       </c>
       <c r="M132" s="4" t="inlineStr"/>
-      <c r="N132" s="4" t="inlineStr">
+      <c r="N132" s="4" t="inlineStr"/>
+      <c r="O132" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9473,7 +9610,8 @@
         </is>
       </c>
       <c r="M133" s="4" t="inlineStr"/>
-      <c r="N133" s="4" t="inlineStr">
+      <c r="N133" s="4" t="inlineStr"/>
+      <c r="O133" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9533,7 +9671,8 @@
         </is>
       </c>
       <c r="M134" s="4" t="inlineStr"/>
-      <c r="N134" s="4" t="inlineStr">
+      <c r="N134" s="4" t="inlineStr"/>
+      <c r="O134" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9593,7 +9732,8 @@
         </is>
       </c>
       <c r="M135" s="4" t="inlineStr"/>
-      <c r="N135" s="4" t="inlineStr">
+      <c r="N135" s="4" t="inlineStr"/>
+      <c r="O135" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9653,7 +9793,8 @@
         </is>
       </c>
       <c r="M136" s="4" t="inlineStr"/>
-      <c r="N136" s="4" t="inlineStr">
+      <c r="N136" s="4" t="inlineStr"/>
+      <c r="O136" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9713,7 +9854,8 @@
         </is>
       </c>
       <c r="M137" s="4" t="inlineStr"/>
-      <c r="N137" s="4" t="inlineStr">
+      <c r="N137" s="4" t="inlineStr"/>
+      <c r="O137" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9773,7 +9915,8 @@
         </is>
       </c>
       <c r="M138" s="4" t="inlineStr"/>
-      <c r="N138" s="4" t="inlineStr">
+      <c r="N138" s="4" t="inlineStr"/>
+      <c r="O138" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9833,7 +9976,8 @@
         </is>
       </c>
       <c r="M139" s="4" t="inlineStr"/>
-      <c r="N139" s="4" t="inlineStr">
+      <c r="N139" s="4" t="inlineStr"/>
+      <c r="O139" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9893,7 +10037,8 @@
         </is>
       </c>
       <c r="M140" s="4" t="inlineStr"/>
-      <c r="N140" s="4" t="inlineStr">
+      <c r="N140" s="4" t="inlineStr"/>
+      <c r="O140" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -9953,7 +10098,8 @@
         </is>
       </c>
       <c r="M141" s="4" t="inlineStr"/>
-      <c r="N141" s="4" t="inlineStr">
+      <c r="N141" s="4" t="inlineStr"/>
+      <c r="O141" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10013,7 +10159,8 @@
         </is>
       </c>
       <c r="M142" s="4" t="inlineStr"/>
-      <c r="N142" s="4" t="inlineStr">
+      <c r="N142" s="4" t="inlineStr"/>
+      <c r="O142" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10081,7 +10228,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N143" s="4" t="inlineStr">
+      <c r="N143" s="4" t="inlineStr"/>
+      <c r="O143" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10149,7 +10297,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N144" s="4" t="inlineStr">
+      <c r="N144" s="4" t="inlineStr"/>
+      <c r="O144" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10217,7 +10366,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N145" s="4" t="inlineStr">
+      <c r="N145" s="4" t="inlineStr"/>
+      <c r="O145" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10281,7 +10431,8 @@
         </is>
       </c>
       <c r="M146" s="4" t="inlineStr"/>
-      <c r="N146" s="4" t="inlineStr">
+      <c r="N146" s="4" t="inlineStr"/>
+      <c r="O146" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10349,7 +10500,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N147" s="4" t="inlineStr">
+      <c r="N147" s="4" t="inlineStr"/>
+      <c r="O147" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10417,7 +10569,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N148" s="4" t="inlineStr">
+      <c r="N148" s="4" t="inlineStr"/>
+      <c r="O148" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10485,7 +10638,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N149" s="4" t="inlineStr">
+      <c r="N149" s="4" t="inlineStr"/>
+      <c r="O149" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10557,7 +10711,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N150" s="4" t="inlineStr">
+      <c r="N150" s="4" t="inlineStr"/>
+      <c r="O150" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10617,7 +10772,8 @@
         </is>
       </c>
       <c r="M151" s="4" t="inlineStr"/>
-      <c r="N151" s="4" t="inlineStr">
+      <c r="N151" s="4" t="inlineStr"/>
+      <c r="O151" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10677,7 +10833,8 @@
         </is>
       </c>
       <c r="M152" s="4" t="inlineStr"/>
-      <c r="N152" s="4" t="inlineStr">
+      <c r="N152" s="4" t="inlineStr"/>
+      <c r="O152" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10737,7 +10894,8 @@
         </is>
       </c>
       <c r="M153" s="4" t="inlineStr"/>
-      <c r="N153" s="4" t="inlineStr">
+      <c r="N153" s="4" t="inlineStr"/>
+      <c r="O153" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10797,7 +10955,8 @@
         </is>
       </c>
       <c r="M154" s="4" t="inlineStr"/>
-      <c r="N154" s="4" t="inlineStr">
+      <c r="N154" s="4" t="inlineStr"/>
+      <c r="O154" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10865,7 +11024,8 @@
           <t>power</t>
         </is>
       </c>
-      <c r="N155" s="4" t="inlineStr">
+      <c r="N155" s="4" t="inlineStr"/>
+      <c r="O155" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10925,7 +11085,8 @@
         </is>
       </c>
       <c r="M156" s="4" t="inlineStr"/>
-      <c r="N156" s="4" t="inlineStr">
+      <c r="N156" s="4" t="inlineStr"/>
+      <c r="O156" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -10985,7 +11146,8 @@
         </is>
       </c>
       <c r="M157" s="4" t="inlineStr"/>
-      <c r="N157" s="4" t="inlineStr">
+      <c r="N157" s="4" t="inlineStr"/>
+      <c r="O157" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11045,7 +11207,8 @@
         </is>
       </c>
       <c r="M158" s="4" t="inlineStr"/>
-      <c r="N158" s="4" t="inlineStr">
+      <c r="N158" s="4" t="inlineStr"/>
+      <c r="O158" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11105,7 +11268,8 @@
         </is>
       </c>
       <c r="M159" s="4" t="inlineStr"/>
-      <c r="N159" s="4" t="inlineStr">
+      <c r="N159" s="4" t="inlineStr"/>
+      <c r="O159" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11165,7 +11329,8 @@
         </is>
       </c>
       <c r="M160" s="4" t="inlineStr"/>
-      <c r="N160" s="4" t="inlineStr">
+      <c r="N160" s="4" t="inlineStr"/>
+      <c r="O160" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11225,7 +11390,8 @@
         </is>
       </c>
       <c r="M161" s="4" t="inlineStr"/>
-      <c r="N161" s="4" t="inlineStr">
+      <c r="N161" s="4" t="inlineStr"/>
+      <c r="O161" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11285,7 +11451,8 @@
         </is>
       </c>
       <c r="M162" s="4" t="inlineStr"/>
-      <c r="N162" s="4" t="inlineStr">
+      <c r="N162" s="4" t="inlineStr"/>
+      <c r="O162" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11345,7 +11512,8 @@
         </is>
       </c>
       <c r="M163" s="4" t="inlineStr"/>
-      <c r="N163" s="4" t="inlineStr">
+      <c r="N163" s="4" t="inlineStr"/>
+      <c r="O163" s="4" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11359,17 +11527,17 @@
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>CountryStd</t>
+          <t>C_DA</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>CountryStd</t>
+          <t>C_DA</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_countrystd</t>
+          <t>abb_vsn_c_da</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
@@ -11380,22 +11548,22 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Country Std</t>
+          <t>Da</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>Country Std</t>
+          <t>Da</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>VSN300-only</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J164" s="2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Device Info</t>
         </is>
       </c>
       <c r="K164" s="2" t="inlineStr"/>
@@ -11407,7 +11575,12 @@
       <c r="M164" s="2" t="inlineStr"/>
       <c r="N164" s="2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O164" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -11419,43 +11592,43 @@
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>E0_1Y</t>
+          <t>C_Md</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>E0_1Y</t>
+          <t>C_Md</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_1y</t>
-        </is>
-      </c>
-      <c r="E165" s="2" t="inlineStr"/>
-      <c r="F165" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_c_md</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>E0 Energy Yearly</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>E0 - Inverter Produced Energy - 1Y</t>
+          <t>Md</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>VSN300-only</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J165" s="2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Device Info</t>
         </is>
       </c>
       <c r="K165" s="2" t="inlineStr"/>
@@ -11467,7 +11640,12 @@
       <c r="M165" s="2" t="inlineStr"/>
       <c r="N165" s="2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O165" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -11479,43 +11657,43 @@
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>E0_30D</t>
+          <t>C_Mn</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>E0_30D</t>
+          <t>C_Mn</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_30d</t>
-        </is>
-      </c>
-      <c r="E166" s="2" t="inlineStr"/>
-      <c r="F166" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_c_mn</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>E0 Energy 30 Day</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>E0 - Inverter Produced Energy - 30D</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>VSN300-only</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J166" s="2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Device Info</t>
         </is>
       </c>
       <c r="K166" s="2" t="inlineStr"/>
@@ -11527,7 +11705,12 @@
       <c r="M166" s="2" t="inlineStr"/>
       <c r="N166" s="2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O166" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -11539,43 +11722,43 @@
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>E0_7D</t>
+          <t>C_Opt</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>E0_7D</t>
+          <t>C_Opt</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_7d</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="inlineStr"/>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_c_opt</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>E0 Energy 7 Day</t>
+          <t>Opt</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>E0 - Inverter Produced Energy - 7D</t>
+          <t>Opt</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
         <is>
-          <t>VSN300-only</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J167" s="2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Device Info</t>
         </is>
       </c>
       <c r="K167" s="2" t="inlineStr"/>
@@ -11587,7 +11770,12 @@
       <c r="M167" s="2" t="inlineStr"/>
       <c r="N167" s="2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O167" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -11599,43 +11787,43 @@
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>E0_runtime</t>
+          <t>C_SN</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>E0_runtime</t>
+          <t>C_SN</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_runtime</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr"/>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_c_sn</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>E0 Energy Lifetime</t>
+          <t>Sn</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>E0 - Inverter Produced Energy - runtime</t>
+          <t>Sn</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
         <is>
-          <t>VSN300-only</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J168" s="2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Device Info</t>
         </is>
       </c>
       <c r="K168" s="2" t="inlineStr"/>
@@ -11647,7 +11835,12 @@
       <c r="M168" s="2" t="inlineStr"/>
       <c r="N168" s="2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O168" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -11659,43 +11852,43 @@
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>E15_30D</t>
+          <t>C_Vr</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>E15_30D</t>
+          <t>C_Vr</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e15_30d</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr"/>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_c_vr</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>E15 Energy 30 Day</t>
+          <t>Vr</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>E15 - Inverter Backup Output Energy - 30D</t>
+          <t>Vr</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
         <is>
-          <t>VSN300-only</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="J169" s="2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Device Info</t>
         </is>
       </c>
       <c r="K169" s="2" t="inlineStr"/>
@@ -11707,7 +11900,12 @@
       <c r="M169" s="2" t="inlineStr"/>
       <c r="N169" s="2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O169" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -11719,33 +11917,33 @@
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>E15_7D</t>
+          <t>CountryStd</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>E15_7D</t>
+          <t>CountryStd</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e15_7d</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr"/>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_countrystd</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>E15 Energy 7 Day</t>
+          <t>Country Std</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>E15 - Inverter Backup Output Energy - 7D</t>
+          <t>Country Std</t>
         </is>
       </c>
       <c r="I170" s="2" t="inlineStr">
@@ -11765,7 +11963,8 @@
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr"/>
-      <c r="N170" s="2" t="inlineStr">
+      <c r="N170" s="2" t="inlineStr"/>
+      <c r="O170" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11779,17 +11978,17 @@
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>E15_runtime</t>
+          <t>E0_1Y</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>E15_runtime</t>
+          <t>E0_1Y</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e15_runtime</t>
+          <t>abb_vsn_e0_1y</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -11800,12 +11999,12 @@
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>E15 Energy Lifetime</t>
+          <t>E0 Energy Yearly</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>E15 - Inverter Backup Output Energy - runtime</t>
+          <t>E0 - Inverter Produced Energy - 1Y</t>
         </is>
       </c>
       <c r="I171" s="2" t="inlineStr">
@@ -11825,7 +12024,8 @@
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr"/>
-      <c r="N171" s="2" t="inlineStr">
+      <c r="N171" s="2" t="inlineStr"/>
+      <c r="O171" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11839,17 +12039,17 @@
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>E1_30D</t>
+          <t>E0_30D</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>E1_30D</t>
+          <t>E0_30D</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e1_30d</t>
+          <t>abb_vsn_e0_30d</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -11860,12 +12060,12 @@
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>E1 Energy 30 Day</t>
+          <t>E0 Energy 30 Day</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>E1 - Inverter Absorbed AC Energy - 30D</t>
+          <t>E0 - Inverter Produced Energy - 30D</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
@@ -11885,7 +12085,8 @@
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr"/>
-      <c r="N172" s="2" t="inlineStr">
+      <c r="N172" s="2" t="inlineStr"/>
+      <c r="O172" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11899,17 +12100,17 @@
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>E1_7D</t>
+          <t>E0_7D</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>E1_7D</t>
+          <t>E0_7D</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e1_7d</t>
+          <t>abb_vsn_e0_7d</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
@@ -11920,12 +12121,12 @@
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>E1 Energy 7 Day</t>
+          <t>E0 Energy 7 Day</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>E1 - Inverter Absorbed AC Energy - 7D</t>
+          <t>E0 - Inverter Produced Energy - 7D</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -11945,7 +12146,8 @@
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr"/>
-      <c r="N173" s="2" t="inlineStr">
+      <c r="N173" s="2" t="inlineStr"/>
+      <c r="O173" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -11959,17 +12161,17 @@
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>E1_runtime</t>
+          <t>E0_runtime</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>E1_runtime</t>
+          <t>E0_runtime</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e1_runtime</t>
+          <t>abb_vsn_e0_runtime</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
@@ -11980,12 +12182,12 @@
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>E1 Energy Lifetime</t>
+          <t>E0 Energy Lifetime</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>E1 - Inverter Absorbed AC Energy - runtime</t>
+          <t>E0 - Inverter Produced Energy - runtime</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
@@ -12005,7 +12207,8 @@
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr"/>
-      <c r="N174" s="2" t="inlineStr">
+      <c r="N174" s="2" t="inlineStr"/>
+      <c r="O174" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12019,17 +12222,17 @@
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>E2_30D</t>
+          <t>E15_30D</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>E2_30D</t>
+          <t>E15_30D</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e2_30d</t>
+          <t>abb_vsn_e15_30d</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
@@ -12040,12 +12243,12 @@
       </c>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>E2 Energy 30 Day</t>
+          <t>E15 Energy 30 Day</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>E2 - Inverter Apparent AC Energy - 30D</t>
+          <t>E15 - Inverter Backup Output Energy - 30D</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
@@ -12065,7 +12268,8 @@
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr"/>
-      <c r="N175" s="2" t="inlineStr">
+      <c r="N175" s="2" t="inlineStr"/>
+      <c r="O175" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12079,17 +12283,17 @@
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>E2_7D</t>
+          <t>E15_7D</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>E2_7D</t>
+          <t>E15_7D</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e2_7d</t>
+          <t>abb_vsn_e15_7d</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
@@ -12100,12 +12304,12 @@
       </c>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>E2 Energy 7 Day</t>
+          <t>E15 Energy 7 Day</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>E2 - Inverter Apparent AC Energy - 7D</t>
+          <t>E15 - Inverter Backup Output Energy - 7D</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
@@ -12125,7 +12329,8 @@
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr"/>
-      <c r="N176" s="2" t="inlineStr">
+      <c r="N176" s="2" t="inlineStr"/>
+      <c r="O176" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12139,17 +12344,17 @@
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>E2_runtime</t>
+          <t>E15_runtime</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>E2_runtime</t>
+          <t>E15_runtime</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e2_runtime</t>
+          <t>abb_vsn_e15_runtime</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
@@ -12160,12 +12365,12 @@
       </c>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>E2 Energy Lifetime</t>
+          <t>E15 Energy Lifetime</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>E2 - Inverter Apparent AC Energy - runtime</t>
+          <t>E15 - Inverter Backup Output Energy - runtime</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
@@ -12185,7 +12390,8 @@
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr"/>
-      <c r="N177" s="2" t="inlineStr">
+      <c r="N177" s="2" t="inlineStr"/>
+      <c r="O177" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12199,17 +12405,17 @@
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>E3_30D</t>
+          <t>E1_30D</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>E3_30D</t>
+          <t>E1_30D</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e3_30d</t>
+          <t>abb_vsn_e1_30d</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
@@ -12220,12 +12426,12 @@
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>E3 Energy 30 Day</t>
+          <t>E1 Energy 30 Day</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>E3 - Energy to the Grid - 30D</t>
+          <t>E1 - Inverter Absorbed AC Energy - 30D</t>
         </is>
       </c>
       <c r="I178" s="2" t="inlineStr">
@@ -12245,7 +12451,8 @@
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr"/>
-      <c r="N178" s="2" t="inlineStr">
+      <c r="N178" s="2" t="inlineStr"/>
+      <c r="O178" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12259,17 +12466,17 @@
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>E3_7D</t>
+          <t>E1_7D</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>E3_7D</t>
+          <t>E1_7D</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e3_7d</t>
+          <t>abb_vsn_e1_7d</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -12280,12 +12487,12 @@
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>E3 Energy 7 Day</t>
+          <t>E1 Energy 7 Day</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>E3 - Energy to the Grid - 7D</t>
+          <t>E1 - Inverter Absorbed AC Energy - 7D</t>
         </is>
       </c>
       <c r="I179" s="2" t="inlineStr">
@@ -12305,7 +12512,8 @@
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr"/>
-      <c r="N179" s="2" t="inlineStr">
+      <c r="N179" s="2" t="inlineStr"/>
+      <c r="O179" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12319,17 +12527,17 @@
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>E3_runtime</t>
+          <t>E1_runtime</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>E3_runtime</t>
+          <t>E1_runtime</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e3_runtime</t>
+          <t>abb_vsn_e1_runtime</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -12340,12 +12548,12 @@
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>E3 Energy Lifetime</t>
+          <t>E1 Energy Lifetime</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
         <is>
-          <t>E3 - Energy to the Grid - runtime</t>
+          <t>E1 - Inverter Absorbed AC Energy - runtime</t>
         </is>
       </c>
       <c r="I180" s="2" t="inlineStr">
@@ -12365,7 +12573,8 @@
         </is>
       </c>
       <c r="M180" s="2" t="inlineStr"/>
-      <c r="N180" s="2" t="inlineStr">
+      <c r="N180" s="2" t="inlineStr"/>
+      <c r="O180" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12379,17 +12588,17 @@
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>E6_30D</t>
+          <t>E2_30D</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>E6_30D</t>
+          <t>E2_30D</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_30d</t>
+          <t>abb_vsn_e2_30d</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
@@ -12400,12 +12609,12 @@
       </c>
       <c r="G181" s="2" t="inlineStr">
         <is>
-          <t>E6 Energy 30 Day</t>
+          <t>E2 Energy 30 Day</t>
         </is>
       </c>
       <c r="H181" s="2" t="inlineStr">
         <is>
-          <t>E6 - Consumed Energy from Inverter - 30D</t>
+          <t>E2 - Inverter Apparent AC Energy - 30D</t>
         </is>
       </c>
       <c r="I181" s="2" t="inlineStr">
@@ -12425,7 +12634,8 @@
         </is>
       </c>
       <c r="M181" s="2" t="inlineStr"/>
-      <c r="N181" s="2" t="inlineStr">
+      <c r="N181" s="2" t="inlineStr"/>
+      <c r="O181" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12439,17 +12649,17 @@
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>E6_7D</t>
+          <t>E2_7D</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>E6_7D</t>
+          <t>E2_7D</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_7d</t>
+          <t>abb_vsn_e2_7d</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -12460,12 +12670,12 @@
       </c>
       <c r="G182" s="2" t="inlineStr">
         <is>
-          <t>E6 Energy 7 Day</t>
+          <t>E2 Energy 7 Day</t>
         </is>
       </c>
       <c r="H182" s="2" t="inlineStr">
         <is>
-          <t>E6 - Consumed Energy from Inverter - 7D</t>
+          <t>E2 - Inverter Apparent AC Energy - 7D</t>
         </is>
       </c>
       <c r="I182" s="2" t="inlineStr">
@@ -12485,7 +12695,8 @@
         </is>
       </c>
       <c r="M182" s="2" t="inlineStr"/>
-      <c r="N182" s="2" t="inlineStr">
+      <c r="N182" s="2" t="inlineStr"/>
+      <c r="O182" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12499,17 +12710,17 @@
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>E6_runtime</t>
+          <t>E2_runtime</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>E6_runtime</t>
+          <t>E2_runtime</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_runtime</t>
+          <t>abb_vsn_e2_runtime</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -12520,12 +12731,12 @@
       </c>
       <c r="G183" s="2" t="inlineStr">
         <is>
-          <t>E6 Energy Lifetime</t>
+          <t>E2 Energy Lifetime</t>
         </is>
       </c>
       <c r="H183" s="2" t="inlineStr">
         <is>
-          <t>E6 - Consumed Energy from Inverter - runtime</t>
+          <t>E2 - Inverter Apparent AC Energy - runtime</t>
         </is>
       </c>
       <c r="I183" s="2" t="inlineStr">
@@ -12545,7 +12756,8 @@
         </is>
       </c>
       <c r="M183" s="2" t="inlineStr"/>
-      <c r="N183" s="2" t="inlineStr">
+      <c r="N183" s="2" t="inlineStr"/>
+      <c r="O183" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12559,17 +12771,17 @@
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>E6_total</t>
+          <t>E3_30D</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>E6_total</t>
+          <t>E3_30D</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_total</t>
+          <t>abb_vsn_e3_30d</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -12580,12 +12792,12 @@
       </c>
       <c r="G184" s="2" t="inlineStr">
         <is>
-          <t>E 6 Total</t>
+          <t>E3 Energy 30 Day</t>
         </is>
       </c>
       <c r="H184" s="2" t="inlineStr">
         <is>
-          <t>E6 - Consumed Energy from Inverter - Total</t>
+          <t>E3 - Energy to the Grid - 30D</t>
         </is>
       </c>
       <c r="I184" s="2" t="inlineStr">
@@ -12605,7 +12817,8 @@
         </is>
       </c>
       <c r="M184" s="2" t="inlineStr"/>
-      <c r="N184" s="2" t="inlineStr">
+      <c r="N184" s="2" t="inlineStr"/>
+      <c r="O184" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12619,17 +12832,17 @@
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>E7_30D</t>
+          <t>E3_7D</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>E7_30D</t>
+          <t>E3_7D</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_30d</t>
+          <t>abb_vsn_e3_7d</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -12640,12 +12853,12 @@
       </c>
       <c r="G185" s="2" t="inlineStr">
         <is>
-          <t>E7 Energy 30 Day</t>
+          <t>E3 Energy 7 Day</t>
         </is>
       </c>
       <c r="H185" s="2" t="inlineStr">
         <is>
-          <t>E7 - Consumed Energy - 30D</t>
+          <t>E3 - Energy to the Grid - 7D</t>
         </is>
       </c>
       <c r="I185" s="2" t="inlineStr">
@@ -12665,7 +12878,8 @@
         </is>
       </c>
       <c r="M185" s="2" t="inlineStr"/>
-      <c r="N185" s="2" t="inlineStr">
+      <c r="N185" s="2" t="inlineStr"/>
+      <c r="O185" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12679,17 +12893,17 @@
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>E7_7D</t>
+          <t>E3_runtime</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>E7_7D</t>
+          <t>E3_runtime</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_7d</t>
+          <t>abb_vsn_e3_runtime</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -12700,12 +12914,12 @@
       </c>
       <c r="G186" s="2" t="inlineStr">
         <is>
-          <t>E7 Energy 7 Day</t>
+          <t>E3 Energy Lifetime</t>
         </is>
       </c>
       <c r="H186" s="2" t="inlineStr">
         <is>
-          <t>E7 - Consumed Energy - 7D</t>
+          <t>E3 - Energy to the Grid - runtime</t>
         </is>
       </c>
       <c r="I186" s="2" t="inlineStr">
@@ -12725,7 +12939,8 @@
         </is>
       </c>
       <c r="M186" s="2" t="inlineStr"/>
-      <c r="N186" s="2" t="inlineStr">
+      <c r="N186" s="2" t="inlineStr"/>
+      <c r="O186" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12739,17 +12954,17 @@
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>E7_runtime</t>
+          <t>E6_30D</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>E7_runtime</t>
+          <t>E6_30D</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_runtime</t>
+          <t>abb_vsn_e6_30d</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
@@ -12760,12 +12975,12 @@
       </c>
       <c r="G187" s="2" t="inlineStr">
         <is>
-          <t>E7 Energy Lifetime</t>
+          <t>E6 Energy 30 Day</t>
         </is>
       </c>
       <c r="H187" s="2" t="inlineStr">
         <is>
-          <t>E7 - Consumed Energy - runtime</t>
+          <t>E6 - Consumed Energy from Inverter - 30D</t>
         </is>
       </c>
       <c r="I187" s="2" t="inlineStr">
@@ -12785,7 +13000,8 @@
         </is>
       </c>
       <c r="M187" s="2" t="inlineStr"/>
-      <c r="N187" s="2" t="inlineStr">
+      <c r="N187" s="2" t="inlineStr"/>
+      <c r="O187" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12799,17 +13015,17 @@
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>E7_total</t>
+          <t>E6_7D</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>E7_total</t>
+          <t>E6_7D</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_total</t>
+          <t>abb_vsn_e6_7d</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
@@ -12820,12 +13036,12 @@
       </c>
       <c r="G188" s="2" t="inlineStr">
         <is>
-          <t>E 7 Total</t>
+          <t>E6 Energy 7 Day</t>
         </is>
       </c>
       <c r="H188" s="2" t="inlineStr">
         <is>
-          <t>E7 - Consumed Energy - Total</t>
+          <t>E6 - Consumed Energy from Inverter - 7D</t>
         </is>
       </c>
       <c r="I188" s="2" t="inlineStr">
@@ -12845,7 +13061,8 @@
         </is>
       </c>
       <c r="M188" s="2" t="inlineStr"/>
-      <c r="N188" s="2" t="inlineStr">
+      <c r="N188" s="2" t="inlineStr"/>
+      <c r="O188" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12859,17 +13076,17 @@
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>E8_30D</t>
+          <t>E6_runtime</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>E8_30D</t>
+          <t>E6_runtime</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e8_30d</t>
+          <t>abb_vsn_e6_runtime</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
@@ -12880,12 +13097,12 @@
       </c>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>E8 Energy 30 Day</t>
+          <t>E6 Energy Lifetime</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
         <is>
-          <t>E8 - Energy from the Grid - 30D</t>
+          <t>E6 - Consumed Energy from Inverter - runtime</t>
         </is>
       </c>
       <c r="I189" s="2" t="inlineStr">
@@ -12905,7 +13122,8 @@
         </is>
       </c>
       <c r="M189" s="2" t="inlineStr"/>
-      <c r="N189" s="2" t="inlineStr">
+      <c r="N189" s="2" t="inlineStr"/>
+      <c r="O189" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12919,17 +13137,17 @@
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>E8_7D</t>
+          <t>E6_total</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>E8_7D</t>
+          <t>E6_total</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e8_7d</t>
+          <t>abb_vsn_e6_total</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
@@ -12940,12 +13158,12 @@
       </c>
       <c r="G190" s="2" t="inlineStr">
         <is>
-          <t>E8 Energy 7 Day</t>
+          <t>E 6 Total</t>
         </is>
       </c>
       <c r="H190" s="2" t="inlineStr">
         <is>
-          <t>E8 - Energy from the Grid - 7D</t>
+          <t>E6 - Consumed Energy from Inverter - Total</t>
         </is>
       </c>
       <c r="I190" s="2" t="inlineStr">
@@ -12965,7 +13183,8 @@
         </is>
       </c>
       <c r="M190" s="2" t="inlineStr"/>
-      <c r="N190" s="2" t="inlineStr">
+      <c r="N190" s="2" t="inlineStr"/>
+      <c r="O190" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -12979,17 +13198,17 @@
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>E8_runtime</t>
+          <t>E7_30D</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>E8_runtime</t>
+          <t>E7_30D</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e8_runtime</t>
+          <t>abb_vsn_e7_30d</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -13000,12 +13219,12 @@
       </c>
       <c r="G191" s="2" t="inlineStr">
         <is>
-          <t>E8 Energy Lifetime</t>
+          <t>E7 Energy 30 Day</t>
         </is>
       </c>
       <c r="H191" s="2" t="inlineStr">
         <is>
-          <t>E8 - Energy from the Grid - runtime</t>
+          <t>E7 - Consumed Energy - 30D</t>
         </is>
       </c>
       <c r="I191" s="2" t="inlineStr">
@@ -13025,7 +13244,8 @@
         </is>
       </c>
       <c r="M191" s="2" t="inlineStr"/>
-      <c r="N191" s="2" t="inlineStr">
+      <c r="N191" s="2" t="inlineStr"/>
+      <c r="O191" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13039,17 +13259,17 @@
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>ECharge_30D</t>
+          <t>E7_7D</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>ECharge_30D</t>
+          <t>E7_7D</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge_30d</t>
+          <t>abb_vsn_e7_7d</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
@@ -13060,12 +13280,12 @@
       </c>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>ECharge Energy 30 Day</t>
+          <t>E7 Energy 7 Day</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr">
         <is>
-          <t>Battery Charge Energy - 30D</t>
+          <t>E7 - Consumed Energy - 7D</t>
         </is>
       </c>
       <c r="I192" s="2" t="inlineStr">
@@ -13085,7 +13305,8 @@
         </is>
       </c>
       <c r="M192" s="2" t="inlineStr"/>
-      <c r="N192" s="2" t="inlineStr">
+      <c r="N192" s="2" t="inlineStr"/>
+      <c r="O192" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13099,17 +13320,17 @@
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>ECharge_7D</t>
+          <t>E7_runtime</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>ECharge_7D</t>
+          <t>E7_runtime</t>
         </is>
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge_7d</t>
+          <t>abb_vsn_e7_runtime</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
@@ -13120,12 +13341,12 @@
       </c>
       <c r="G193" s="2" t="inlineStr">
         <is>
-          <t>ECharge Energy 7 Day</t>
+          <t>E7 Energy Lifetime</t>
         </is>
       </c>
       <c r="H193" s="2" t="inlineStr">
         <is>
-          <t>Battery Charge Energy - 7D</t>
+          <t>E7 - Consumed Energy - runtime</t>
         </is>
       </c>
       <c r="I193" s="2" t="inlineStr">
@@ -13145,7 +13366,8 @@
         </is>
       </c>
       <c r="M193" s="2" t="inlineStr"/>
-      <c r="N193" s="2" t="inlineStr">
+      <c r="N193" s="2" t="inlineStr"/>
+      <c r="O193" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13159,17 +13381,17 @@
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>ECharge_runtime</t>
+          <t>E7_total</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>ECharge_runtime</t>
+          <t>E7_total</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge_runtime</t>
+          <t>abb_vsn_e7_total</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -13180,12 +13402,12 @@
       </c>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t>ECharge Energy Lifetime</t>
+          <t>E 7 Total</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr">
         <is>
-          <t>Battery Charge Energy - runtime</t>
+          <t>E7 - Consumed Energy - Total</t>
         </is>
       </c>
       <c r="I194" s="2" t="inlineStr">
@@ -13205,7 +13427,8 @@
         </is>
       </c>
       <c r="M194" s="2" t="inlineStr"/>
-      <c r="N194" s="2" t="inlineStr">
+      <c r="N194" s="2" t="inlineStr"/>
+      <c r="O194" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13219,17 +13442,17 @@
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>EDischarge_30D</t>
+          <t>E8_30D</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>EDischarge_30D</t>
+          <t>E8_30D</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge_30d</t>
+          <t>abb_vsn_e8_30d</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -13240,12 +13463,12 @@
       </c>
       <c r="G195" s="2" t="inlineStr">
         <is>
-          <t>EDischarge Energy 30 Day</t>
+          <t>E8 Energy 30 Day</t>
         </is>
       </c>
       <c r="H195" s="2" t="inlineStr">
         <is>
-          <t>Battery Discharge Energy - 30D</t>
+          <t>E8 - Energy from the Grid - 30D</t>
         </is>
       </c>
       <c r="I195" s="2" t="inlineStr">
@@ -13265,7 +13488,8 @@
         </is>
       </c>
       <c r="M195" s="2" t="inlineStr"/>
-      <c r="N195" s="2" t="inlineStr">
+      <c r="N195" s="2" t="inlineStr"/>
+      <c r="O195" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13279,17 +13503,17 @@
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>EDischarge_7D</t>
+          <t>E8_7D</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>EDischarge_7D</t>
+          <t>E8_7D</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge_7d</t>
+          <t>abb_vsn_e8_7d</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -13300,12 +13524,12 @@
       </c>
       <c r="G196" s="2" t="inlineStr">
         <is>
-          <t>EDischarge Energy 7 Day</t>
+          <t>E8 Energy 7 Day</t>
         </is>
       </c>
       <c r="H196" s="2" t="inlineStr">
         <is>
-          <t>Battery Discharge Energy - 7D</t>
+          <t>E8 - Energy from the Grid - 7D</t>
         </is>
       </c>
       <c r="I196" s="2" t="inlineStr">
@@ -13325,7 +13549,8 @@
         </is>
       </c>
       <c r="M196" s="2" t="inlineStr"/>
-      <c r="N196" s="2" t="inlineStr">
+      <c r="N196" s="2" t="inlineStr"/>
+      <c r="O196" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13339,17 +13564,17 @@
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>EDischarge_runtime</t>
+          <t>E8_runtime</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>EDischarge_runtime</t>
+          <t>E8_runtime</t>
         </is>
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge_runtime</t>
+          <t>abb_vsn_e8_runtime</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -13360,12 +13585,12 @@
       </c>
       <c r="G197" s="2" t="inlineStr">
         <is>
-          <t>EDischarge Energy Lifetime</t>
+          <t>E8 Energy Lifetime</t>
         </is>
       </c>
       <c r="H197" s="2" t="inlineStr">
         <is>
-          <t>Battery Discharge Energy - runtime</t>
+          <t>E8 - Energy from the Grid - runtime</t>
         </is>
       </c>
       <c r="I197" s="2" t="inlineStr">
@@ -13385,7 +13610,8 @@
         </is>
       </c>
       <c r="M197" s="2" t="inlineStr"/>
-      <c r="N197" s="2" t="inlineStr">
+      <c r="N197" s="2" t="inlineStr"/>
+      <c r="O197" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13399,17 +13625,17 @@
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>EGridExport</t>
+          <t>ECharge_30D</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>EGridExport</t>
+          <t>ECharge_30D</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_egridexport</t>
+          <t>abb_vsn_echarge_30d</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -13420,12 +13646,12 @@
       </c>
       <c r="G198" s="2" t="inlineStr">
         <is>
-          <t>E Grid Export</t>
+          <t>ECharge Energy 30 Day</t>
         </is>
       </c>
       <c r="H198" s="2" t="inlineStr">
         <is>
-          <t>E3 - Energy to the Grid - Total</t>
+          <t>Battery Charge Energy - 30D</t>
         </is>
       </c>
       <c r="I198" s="2" t="inlineStr">
@@ -13445,7 +13671,8 @@
         </is>
       </c>
       <c r="M198" s="2" t="inlineStr"/>
-      <c r="N198" s="2" t="inlineStr">
+      <c r="N198" s="2" t="inlineStr"/>
+      <c r="O198" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13459,17 +13686,17 @@
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>EGridImport</t>
+          <t>ECharge_7D</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>EGridImport</t>
+          <t>ECharge_7D</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_egridimport</t>
+          <t>abb_vsn_echarge_7d</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -13480,12 +13707,12 @@
       </c>
       <c r="G199" s="2" t="inlineStr">
         <is>
-          <t>E Grid Import</t>
+          <t>ECharge Energy 7 Day</t>
         </is>
       </c>
       <c r="H199" s="2" t="inlineStr">
         <is>
-          <t>E8 - Energy from the Grid - Total</t>
+          <t>Battery Charge Energy - 7D</t>
         </is>
       </c>
       <c r="I199" s="2" t="inlineStr">
@@ -13505,7 +13732,8 @@
         </is>
       </c>
       <c r="M199" s="2" t="inlineStr"/>
-      <c r="N199" s="2" t="inlineStr">
+      <c r="N199" s="2" t="inlineStr"/>
+      <c r="O199" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13519,17 +13747,17 @@
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge</t>
+          <t>ECharge_runtime</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge</t>
+          <t>ECharge_runtime</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge</t>
+          <t>abb_vsn_echarge_runtime</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -13540,12 +13768,12 @@
       </c>
       <c r="G200" s="2" t="inlineStr">
         <is>
-          <t>E Tot Charge</t>
+          <t>ECharge Energy Lifetime</t>
         </is>
       </c>
       <c r="H200" s="2" t="inlineStr">
         <is>
-          <t>Total Battery Charge Energy - Total</t>
+          <t>Battery Charge Energy - runtime</t>
         </is>
       </c>
       <c r="I200" s="2" t="inlineStr">
@@ -13565,7 +13793,8 @@
         </is>
       </c>
       <c r="M200" s="2" t="inlineStr"/>
-      <c r="N200" s="2" t="inlineStr">
+      <c r="N200" s="2" t="inlineStr"/>
+      <c r="O200" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13579,17 +13808,17 @@
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge_30D</t>
+          <t>EDischarge_30D</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge_30D</t>
+          <t>EDischarge_30D</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge_30d</t>
+          <t>abb_vsn_edischarge_30d</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
@@ -13600,12 +13829,12 @@
       </c>
       <c r="G201" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge Energy 30 Day</t>
+          <t>EDischarge Energy 30 Day</t>
         </is>
       </c>
       <c r="H201" s="2" t="inlineStr">
         <is>
-          <t>Total Battery Charge Energy - 30D</t>
+          <t>Battery Discharge Energy - 30D</t>
         </is>
       </c>
       <c r="I201" s="2" t="inlineStr">
@@ -13625,7 +13854,8 @@
         </is>
       </c>
       <c r="M201" s="2" t="inlineStr"/>
-      <c r="N201" s="2" t="inlineStr">
+      <c r="N201" s="2" t="inlineStr"/>
+      <c r="O201" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13639,17 +13869,17 @@
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge_7D</t>
+          <t>EDischarge_7D</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge_7D</t>
+          <t>EDischarge_7D</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge_7d</t>
+          <t>abb_vsn_edischarge_7d</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
@@ -13660,12 +13890,12 @@
       </c>
       <c r="G202" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge Energy 7 Day</t>
+          <t>EDischarge Energy 7 Day</t>
         </is>
       </c>
       <c r="H202" s="2" t="inlineStr">
         <is>
-          <t>Total Battery Charge Energy - 7D</t>
+          <t>Battery Discharge Energy - 7D</t>
         </is>
       </c>
       <c r="I202" s="2" t="inlineStr">
@@ -13685,7 +13915,8 @@
         </is>
       </c>
       <c r="M202" s="2" t="inlineStr"/>
-      <c r="N202" s="2" t="inlineStr">
+      <c r="N202" s="2" t="inlineStr"/>
+      <c r="O202" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13699,17 +13930,17 @@
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge_runtime</t>
+          <t>EDischarge_runtime</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge_runtime</t>
+          <t>EDischarge_runtime</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge_runtime</t>
+          <t>abb_vsn_edischarge_runtime</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
@@ -13720,12 +13951,12 @@
       </c>
       <c r="G203" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge Energy Lifetime</t>
+          <t>EDischarge Energy Lifetime</t>
         </is>
       </c>
       <c r="H203" s="2" t="inlineStr">
         <is>
-          <t>Total Battery Charge Energy - runtime</t>
+          <t>Battery Discharge Energy - runtime</t>
         </is>
       </c>
       <c r="I203" s="2" t="inlineStr">
@@ -13745,7 +13976,8 @@
         </is>
       </c>
       <c r="M203" s="2" t="inlineStr"/>
-      <c r="N203" s="2" t="inlineStr">
+      <c r="N203" s="2" t="inlineStr"/>
+      <c r="O203" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13759,17 +13991,17 @@
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge</t>
+          <t>EGridExport</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge</t>
+          <t>EGridExport</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge</t>
+          <t>abb_vsn_egridexport</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -13780,12 +14012,12 @@
       </c>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>E Tot Discharge</t>
+          <t>E Grid Export</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
         <is>
-          <t>Total Battery Discharge Energy - Total</t>
+          <t>E3 - Energy to the Grid - Total</t>
         </is>
       </c>
       <c r="I204" s="2" t="inlineStr">
@@ -13805,7 +14037,8 @@
         </is>
       </c>
       <c r="M204" s="2" t="inlineStr"/>
-      <c r="N204" s="2" t="inlineStr">
+      <c r="N204" s="2" t="inlineStr"/>
+      <c r="O204" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13819,17 +14052,17 @@
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge_30D</t>
+          <t>EGridImport</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge_30D</t>
+          <t>EGridImport</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge_30d</t>
+          <t>abb_vsn_egridimport</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -13840,12 +14073,12 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge Energy 30 Day</t>
+          <t>E Grid Import</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>Total Battery Discharge Energy - 30D</t>
+          <t>E8 - Energy from the Grid - Total</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr">
@@ -13865,7 +14098,8 @@
         </is>
       </c>
       <c r="M205" s="2" t="inlineStr"/>
-      <c r="N205" s="2" t="inlineStr">
+      <c r="N205" s="2" t="inlineStr"/>
+      <c r="O205" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13879,17 +14113,17 @@
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge_7D</t>
+          <t>ETotCharge</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge_7D</t>
+          <t>ETotCharge</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge_7d</t>
+          <t>abb_vsn_etotcharge</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -13900,12 +14134,12 @@
       </c>
       <c r="G206" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge Energy 7 Day</t>
+          <t>E Tot Charge</t>
         </is>
       </c>
       <c r="H206" s="2" t="inlineStr">
         <is>
-          <t>Total Battery Discharge Energy - 7D</t>
+          <t>Total Battery Charge Energy - Total</t>
         </is>
       </c>
       <c r="I206" s="2" t="inlineStr">
@@ -13925,7 +14159,8 @@
         </is>
       </c>
       <c r="M206" s="2" t="inlineStr"/>
-      <c r="N206" s="2" t="inlineStr">
+      <c r="N206" s="2" t="inlineStr"/>
+      <c r="O206" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13939,17 +14174,17 @@
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge_runtime</t>
+          <t>ETotCharge_30D</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge_runtime</t>
+          <t>ETotCharge_30D</t>
         </is>
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge_runtime</t>
+          <t>abb_vsn_etotcharge_30d</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
@@ -13960,12 +14195,12 @@
       </c>
       <c r="G207" s="2" t="inlineStr">
         <is>
-          <t>ETotDischarge Energy Lifetime</t>
+          <t>ETotCharge Energy 30 Day</t>
         </is>
       </c>
       <c r="H207" s="2" t="inlineStr">
         <is>
-          <t>Total Battery Discharge Energy - runtime</t>
+          <t>Total Battery Charge Energy - 30D</t>
         </is>
       </c>
       <c r="I207" s="2" t="inlineStr">
@@ -13985,7 +14220,8 @@
         </is>
       </c>
       <c r="M207" s="2" t="inlineStr"/>
-      <c r="N207" s="2" t="inlineStr">
+      <c r="N207" s="2" t="inlineStr"/>
+      <c r="O207" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -13999,17 +14235,17 @@
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>ETotal</t>
+          <t>ETotCharge_7D</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>ETotal</t>
+          <t>ETotCharge_7D</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotal</t>
+          <t>abb_vsn_etotcharge_7d</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
@@ -14020,12 +14256,12 @@
       </c>
       <c r="G208" s="2" t="inlineStr">
         <is>
-          <t>E Total</t>
+          <t>ETotCharge Energy 7 Day</t>
         </is>
       </c>
       <c r="H208" s="2" t="inlineStr">
         <is>
-          <t>E0 - Inverter Produced Energy - Total</t>
+          <t>Total Battery Charge Energy - 7D</t>
         </is>
       </c>
       <c r="I208" s="2" t="inlineStr">
@@ -14045,7 +14281,8 @@
         </is>
       </c>
       <c r="M208" s="2" t="inlineStr"/>
-      <c r="N208" s="2" t="inlineStr">
+      <c r="N208" s="2" t="inlineStr"/>
+      <c r="O208" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14059,17 +14296,17 @@
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>Ein</t>
+          <t>ETotCharge_runtime</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>Ein</t>
+          <t>ETotCharge_runtime</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein</t>
+          <t>abb_vsn_etotcharge_runtime</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
@@ -14080,12 +14317,12 @@
       </c>
       <c r="G209" s="2" t="inlineStr">
         <is>
-          <t>Input Energy</t>
+          <t>ETotCharge Energy Lifetime</t>
         </is>
       </c>
       <c r="H209" s="2" t="inlineStr">
         <is>
-          <t>Ein - Inverter PV Energy - Total</t>
+          <t>Total Battery Charge Energy - runtime</t>
         </is>
       </c>
       <c r="I209" s="2" t="inlineStr">
@@ -14105,7 +14342,8 @@
         </is>
       </c>
       <c r="M209" s="2" t="inlineStr"/>
-      <c r="N209" s="2" t="inlineStr">
+      <c r="N209" s="2" t="inlineStr"/>
+      <c r="O209" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14119,17 +14357,17 @@
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>Ein_30D</t>
+          <t>ETotDischarge</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>Ein_30D</t>
+          <t>ETotDischarge</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein_30d</t>
+          <t>abb_vsn_etotdischarge</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
@@ -14140,12 +14378,12 @@
       </c>
       <c r="G210" s="2" t="inlineStr">
         <is>
-          <t>Ein Energy 30 Day</t>
+          <t>E Tot Discharge</t>
         </is>
       </c>
       <c r="H210" s="2" t="inlineStr">
         <is>
-          <t>Ein - Inverter PV Energy - 30D</t>
+          <t>Total Battery Discharge Energy - Total</t>
         </is>
       </c>
       <c r="I210" s="2" t="inlineStr">
@@ -14165,7 +14403,8 @@
         </is>
       </c>
       <c r="M210" s="2" t="inlineStr"/>
-      <c r="N210" s="2" t="inlineStr">
+      <c r="N210" s="2" t="inlineStr"/>
+      <c r="O210" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14179,17 +14418,17 @@
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>Ein_7D</t>
+          <t>ETotDischarge_30D</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>Ein_7D</t>
+          <t>ETotDischarge_30D</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein_7d</t>
+          <t>abb_vsn_etotdischarge_30d</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
@@ -14200,12 +14439,12 @@
       </c>
       <c r="G211" s="2" t="inlineStr">
         <is>
-          <t>Ein Energy 7 Day</t>
+          <t>ETotDischarge Energy 30 Day</t>
         </is>
       </c>
       <c r="H211" s="2" t="inlineStr">
         <is>
-          <t>Ein - Inverter PV Energy - 7D</t>
+          <t>Total Battery Discharge Energy - 30D</t>
         </is>
       </c>
       <c r="I211" s="2" t="inlineStr">
@@ -14225,7 +14464,8 @@
         </is>
       </c>
       <c r="M211" s="2" t="inlineStr"/>
-      <c r="N211" s="2" t="inlineStr">
+      <c r="N211" s="2" t="inlineStr"/>
+      <c r="O211" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14239,17 +14479,17 @@
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>Ein_runtime</t>
+          <t>ETotDischarge_7D</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>Ein_runtime</t>
+          <t>ETotDischarge_7D</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein_runtime</t>
+          <t>abb_vsn_etotdischarge_7d</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -14260,12 +14500,12 @@
       </c>
       <c r="G212" s="2" t="inlineStr">
         <is>
-          <t>Ein Energy Lifetime</t>
+          <t>ETotDischarge Energy 7 Day</t>
         </is>
       </c>
       <c r="H212" s="2" t="inlineStr">
         <is>
-          <t>Ein - Inverter PV Energy - runtime</t>
+          <t>Total Battery Discharge Energy - 7D</t>
         </is>
       </c>
       <c r="I212" s="2" t="inlineStr">
@@ -14285,7 +14525,8 @@
         </is>
       </c>
       <c r="M212" s="2" t="inlineStr"/>
-      <c r="N212" s="2" t="inlineStr">
+      <c r="N212" s="2" t="inlineStr"/>
+      <c r="O212" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14299,17 +14540,17 @@
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>HousePInverter</t>
+          <t>ETotDischarge_runtime</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>HousePInverter</t>
+          <t>ETotDischarge_runtime</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_housepinverter</t>
+          <t>abb_vsn_etotdischarge_runtime</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -14320,12 +14561,12 @@
       </c>
       <c r="G213" s="2" t="inlineStr">
         <is>
-          <t>House P Inverter</t>
+          <t>ETotDischarge Energy Lifetime</t>
         </is>
       </c>
       <c r="H213" s="2" t="inlineStr">
         <is>
-          <t>Home PV Power</t>
+          <t>Total Battery Discharge Energy - runtime</t>
         </is>
       </c>
       <c r="I213" s="2" t="inlineStr">
@@ -14345,7 +14586,8 @@
         </is>
       </c>
       <c r="M213" s="2" t="inlineStr"/>
-      <c r="N213" s="2" t="inlineStr">
+      <c r="N213" s="2" t="inlineStr"/>
+      <c r="O213" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14359,17 +14601,17 @@
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>HousePgrid_Tot</t>
+          <t>ETotal</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>HousePgrid_Tot</t>
+          <t>ETotal</t>
         </is>
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_housepgrid_tot</t>
+          <t>abb_vsn_etotal</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr"/>
@@ -14380,12 +14622,12 @@
       </c>
       <c r="G214" s="2" t="inlineStr">
         <is>
-          <t>House Power Grid Tot</t>
+          <t>E Total</t>
         </is>
       </c>
       <c r="H214" s="2" t="inlineStr">
         <is>
-          <t>Load Active Power - total</t>
+          <t>E0 - Inverter Produced Energy - Total</t>
         </is>
       </c>
       <c r="I214" s="2" t="inlineStr">
@@ -14405,7 +14647,8 @@
         </is>
       </c>
       <c r="M214" s="2" t="inlineStr"/>
-      <c r="N214" s="2" t="inlineStr">
+      <c r="N214" s="2" t="inlineStr"/>
+      <c r="O214" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14419,17 +14662,17 @@
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>MeterPgrid_Tot</t>
+          <t>Ein</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>MeterPgrid_Tot</t>
+          <t>Ein</t>
         </is>
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_meterpgrid_tot</t>
+          <t>abb_vsn_ein</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr"/>
@@ -14440,12 +14683,12 @@
       </c>
       <c r="G215" s="2" t="inlineStr">
         <is>
-          <t>Meter Power Grid Tot</t>
+          <t>Input Energy</t>
         </is>
       </c>
       <c r="H215" s="2" t="inlineStr">
         <is>
-          <t>Active Power - total</t>
+          <t>Ein - Inverter PV Energy - Total</t>
         </is>
       </c>
       <c r="I215" s="2" t="inlineStr">
@@ -14465,7 +14708,8 @@
         </is>
       </c>
       <c r="M215" s="2" t="inlineStr"/>
-      <c r="N215" s="2" t="inlineStr">
+      <c r="N215" s="2" t="inlineStr"/>
+      <c r="O215" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14479,17 +14723,17 @@
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>PbaT</t>
+          <t>Ein_30D</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>PbaT</t>
+          <t>Ein_30D</t>
         </is>
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pbat</t>
+          <t>abb_vsn_ein_30d</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr"/>
@@ -14500,12 +14744,12 @@
       </c>
       <c r="G216" s="2" t="inlineStr">
         <is>
-          <t>Pba T</t>
+          <t>Ein Energy 30 Day</t>
         </is>
       </c>
       <c r="H216" s="2" t="inlineStr">
         <is>
-          <t>Battery Power - total</t>
+          <t>Ein - Inverter PV Energy - 30D</t>
         </is>
       </c>
       <c r="I216" s="2" t="inlineStr">
@@ -14525,7 +14769,8 @@
         </is>
       </c>
       <c r="M216" s="2" t="inlineStr"/>
-      <c r="N216" s="2" t="inlineStr">
+      <c r="N216" s="2" t="inlineStr"/>
+      <c r="O216" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14539,17 +14784,17 @@
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>Pgrid</t>
+          <t>Ein_7D</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>Pgrid</t>
+          <t>Ein_7D</t>
         </is>
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pgrid</t>
+          <t>abb_vsn_ein_7d</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
@@ -14560,12 +14805,12 @@
       </c>
       <c r="G217" s="2" t="inlineStr">
         <is>
-          <t>Grid Power</t>
+          <t>Ein Energy 7 Day</t>
         </is>
       </c>
       <c r="H217" s="2" t="inlineStr">
         <is>
-          <t>Grid Power</t>
+          <t>Ein - Inverter PV Energy - 7D</t>
         </is>
       </c>
       <c r="I217" s="2" t="inlineStr">
@@ -14585,7 +14830,8 @@
         </is>
       </c>
       <c r="M217" s="2" t="inlineStr"/>
-      <c r="N217" s="2" t="inlineStr">
+      <c r="N217" s="2" t="inlineStr"/>
+      <c r="O217" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14599,17 +14845,17 @@
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Pin</t>
+          <t>Ein_runtime</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Pin</t>
+          <t>Ein_runtime</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pin</t>
+          <t>abb_vsn_ein_runtime</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -14620,12 +14866,12 @@
       </c>
       <c r="G218" s="2" t="inlineStr">
         <is>
-          <t>Input Power</t>
+          <t>Ein Energy Lifetime</t>
         </is>
       </c>
       <c r="H218" s="2" t="inlineStr">
         <is>
-          <t>Input Power</t>
+          <t>Ein - Inverter PV Energy - runtime</t>
         </is>
       </c>
       <c r="I218" s="2" t="inlineStr">
@@ -14645,7 +14891,8 @@
         </is>
       </c>
       <c r="M218" s="2" t="inlineStr"/>
-      <c r="N218" s="2" t="inlineStr">
+      <c r="N218" s="2" t="inlineStr"/>
+      <c r="O218" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14659,17 +14906,17 @@
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>Pin1</t>
+          <t>HousePInverter</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>Pin1</t>
+          <t>HousePInverter</t>
         </is>
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pin1</t>
+          <t>abb_vsn_housepinverter</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
@@ -14680,12 +14927,12 @@
       </c>
       <c r="G219" s="2" t="inlineStr">
         <is>
-          <t>Pin 1</t>
+          <t>House P Inverter</t>
         </is>
       </c>
       <c r="H219" s="2" t="inlineStr">
         <is>
-          <t>Pin 1</t>
+          <t>Home PV Power</t>
         </is>
       </c>
       <c r="I219" s="2" t="inlineStr">
@@ -14705,7 +14952,8 @@
         </is>
       </c>
       <c r="M219" s="2" t="inlineStr"/>
-      <c r="N219" s="2" t="inlineStr">
+      <c r="N219" s="2" t="inlineStr"/>
+      <c r="O219" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14719,17 +14967,17 @@
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>Pin2</t>
+          <t>HousePgrid_Tot</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>Pin2</t>
+          <t>HousePgrid_Tot</t>
         </is>
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pin2</t>
+          <t>abb_vsn_housepgrid_tot</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
@@ -14740,12 +14988,12 @@
       </c>
       <c r="G220" s="2" t="inlineStr">
         <is>
-          <t>Pin 2</t>
+          <t>House Power Grid Tot</t>
         </is>
       </c>
       <c r="H220" s="2" t="inlineStr">
         <is>
-          <t>Pin 2</t>
+          <t>Load Active Power - total</t>
         </is>
       </c>
       <c r="I220" s="2" t="inlineStr">
@@ -14765,7 +15013,8 @@
         </is>
       </c>
       <c r="M220" s="2" t="inlineStr"/>
-      <c r="N220" s="2" t="inlineStr">
+      <c r="N220" s="2" t="inlineStr"/>
+      <c r="O220" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14779,17 +15028,17 @@
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>Qgrid</t>
+          <t>MeterPgrid_Tot</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>Qgrid</t>
+          <t>MeterPgrid_Tot</t>
         </is>
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_qgrid</t>
+          <t>abb_vsn_meterpgrid_tot</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -14800,12 +15049,12 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>Grid Reactive Power</t>
+          <t>Meter Power Grid Tot</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
         <is>
-          <t>Grid Reactive Power</t>
+          <t>Active Power - total</t>
         </is>
       </c>
       <c r="I221" s="2" t="inlineStr">
@@ -14825,7 +15074,8 @@
         </is>
       </c>
       <c r="M221" s="2" t="inlineStr"/>
-      <c r="N221" s="2" t="inlineStr">
+      <c r="N221" s="2" t="inlineStr"/>
+      <c r="O221" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14839,17 +15089,17 @@
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>Temp1</t>
+          <t>PbaT</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>Temp1</t>
+          <t>PbaT</t>
         </is>
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_temp1</t>
+          <t>abb_vsn_pbat</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr"/>
@@ -14860,12 +15110,12 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>Temp 1</t>
+          <t>Pba T</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
         <is>
-          <t>Temp 1</t>
+          <t>Battery Power - total</t>
         </is>
       </c>
       <c r="I222" s="2" t="inlineStr">
@@ -14885,7 +15135,8 @@
         </is>
       </c>
       <c r="M222" s="2" t="inlineStr"/>
-      <c r="N222" s="2" t="inlineStr">
+      <c r="N222" s="2" t="inlineStr"/>
+      <c r="O222" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14899,17 +15150,17 @@
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>cosPhi</t>
+          <t>Pgrid</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>cosPhi</t>
+          <t>Pgrid</t>
         </is>
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_cosphi</t>
+          <t>abb_vsn_pgrid</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
@@ -14920,12 +15171,12 @@
       </c>
       <c r="G223" s="2" t="inlineStr">
         <is>
-          <t>Cos Phi</t>
+          <t>Grid Power</t>
         </is>
       </c>
       <c r="H223" s="2" t="inlineStr">
         <is>
-          <t>Cos Phi</t>
+          <t>Grid Power</t>
         </is>
       </c>
       <c r="I223" s="2" t="inlineStr">
@@ -14945,7 +15196,8 @@
         </is>
       </c>
       <c r="M223" s="2" t="inlineStr"/>
-      <c r="N223" s="2" t="inlineStr">
+      <c r="N223" s="2" t="inlineStr"/>
+      <c r="O223" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -14954,29 +15206,25 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>IoutR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>m103_1_AphA</t>
+          <t>Pin</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>AphA</t>
+          <t>Pin</t>
         </is>
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_apha</t>
-        </is>
-      </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_pin</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="inlineStr"/>
       <c r="F224" s="2" t="inlineStr">
         <is>
           <t>✓</t>
@@ -14984,22 +15232,22 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>Amps PhaseA</t>
+          <t>Input Power</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
         <is>
-          <t>Phase A Current</t>
+          <t>Input Power</t>
         </is>
       </c>
       <c r="I224" s="2" t="inlineStr">
         <is>
-          <t>M103</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Inverter</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="K224" s="2" t="inlineStr"/>
@@ -15009,38 +15257,35 @@
         </is>
       </c>
       <c r="M224" s="2" t="inlineStr"/>
-      <c r="N224" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="N224" s="2" t="inlineStr"/>
+      <c r="O224" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>IoutS</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>m103_1_AphB</t>
+          <t>Pin1</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>AphB</t>
+          <t>Pin1</t>
         </is>
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_aphb</t>
-        </is>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_pin1</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr"/>
       <c r="F225" s="2" t="inlineStr">
         <is>
           <t>✓</t>
@@ -15048,71 +15293,60 @@
       </c>
       <c r="G225" s="2" t="inlineStr">
         <is>
-          <t>Amps PhaseB</t>
+          <t>Pin 1</t>
         </is>
       </c>
       <c r="H225" s="2" t="inlineStr">
         <is>
-          <t>Phase B Current</t>
+          <t>Pin 1</t>
         </is>
       </c>
       <c r="I225" s="2" t="inlineStr">
         <is>
-          <t>M103</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Inverter</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="inlineStr"/>
       <c r="L225" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M225" s="2" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="N225" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M225" s="2" t="inlineStr"/>
+      <c r="N225" s="2" t="inlineStr"/>
+      <c r="O225" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>IoutT</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>m103_1_AphC</t>
+          <t>Pin2</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>AphC</t>
+          <t>Pin2</t>
         </is>
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_aphc</t>
-        </is>
-      </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_pin2</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr"/>
       <c r="F226" s="2" t="inlineStr">
         <is>
           <t>✓</t>
@@ -15120,42 +15354,35 @@
       </c>
       <c r="G226" s="2" t="inlineStr">
         <is>
-          <t>Amps PhaseC</t>
+          <t>Pin 2</t>
         </is>
       </c>
       <c r="H226" s="2" t="inlineStr">
         <is>
-          <t>Phase C Current</t>
+          <t>Pin 2</t>
         </is>
       </c>
       <c r="I226" s="2" t="inlineStr">
         <is>
-          <t>M103</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Inverter</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="inlineStr"/>
       <c r="L226" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M226" s="2" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="N226" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M226" s="2" t="inlineStr"/>
+      <c r="N226" s="2" t="inlineStr"/>
+      <c r="O226" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -15167,63 +15394,56 @@
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>m103_1_HzA</t>
+          <t>Qgrid</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>HzA</t>
+          <t>Qgrid</t>
         </is>
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_hza</t>
-        </is>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr"/>
+          <t>abb_vsn_qgrid</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="inlineStr"/>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="G227" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzA</t>
+          <t>Grid Reactive Power</t>
         </is>
       </c>
       <c r="H227" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzA</t>
+          <t>Grid Reactive Power</t>
         </is>
       </c>
       <c r="I227" s="2" t="inlineStr">
         <is>
-          <t>M103</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Inverter</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="inlineStr"/>
       <c r="L227" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M227" s="2" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="N227" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M227" s="2" t="inlineStr"/>
+      <c r="N227" s="2" t="inlineStr"/>
+      <c r="O227" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -15235,63 +15455,56 @@
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>m103_1_HzB</t>
+          <t>Temp1</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>HzB</t>
+          <t>Temp1</t>
         </is>
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_hzb</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr"/>
+          <t>abb_vsn_temp1</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr"/>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzB</t>
+          <t>Temp 1</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzB</t>
+          <t>Temp 1</t>
         </is>
       </c>
       <c r="I228" s="2" t="inlineStr">
         <is>
-          <t>M103</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Inverter</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="inlineStr"/>
       <c r="L228" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M228" s="2" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
-      <c r="N228" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M228" s="2" t="inlineStr"/>
+      <c r="N228" s="2" t="inlineStr"/>
+      <c r="O228" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -15303,85 +15516,78 @@
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>m103_1_HzC</t>
+          <t>cosPhi</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>HzC</t>
+          <t>cosPhi</t>
         </is>
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_hzc</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr"/>
+          <t>abb_vsn_cosphi</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="inlineStr"/>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzC</t>
+          <t>Cos Phi</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzC</t>
+          <t>Cos Phi</t>
         </is>
       </c>
       <c r="I229" s="2" t="inlineStr">
         <is>
-          <t>M103</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Inverter</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="inlineStr"/>
       <c r="L229" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M229" s="2" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
-      <c r="N229" s="2" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="M229" s="2" t="inlineStr"/>
+      <c r="N229" s="2" t="inlineStr"/>
+      <c r="O229" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>VoutRS</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>m103_1_PhVphAB</t>
+          <t>flash_free</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>PhVphAB</t>
+          <t>flash_free</t>
         </is>
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphab</t>
+          <t>abb_vsn_flash_free</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr">
@@ -15396,64 +15602,61 @@
       </c>
       <c r="G230" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphAB</t>
+          <t>Flash Free</t>
         </is>
       </c>
       <c r="H230" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphAB</t>
+          <t>flash free</t>
         </is>
       </c>
       <c r="I230" s="2" t="inlineStr">
         <is>
-          <t>M103</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Inverter</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="inlineStr"/>
       <c r="L230" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M230" s="2" t="inlineStr">
-        <is>
-          <t>voltage</t>
-        </is>
-      </c>
+      <c r="M230" s="2" t="inlineStr"/>
       <c r="N230" s="2" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O230" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>VoutS</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>m103_1_PhVphB</t>
+          <t>free_ram</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>PhVphB</t>
+          <t>free_ram</t>
         </is>
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphb</t>
+          <t>abb_vsn_free_ram</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr">
@@ -15468,64 +15671,61 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>Phase Voltage BN</t>
+          <t>Free Ram</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphB</t>
+          <t>ram free</t>
         </is>
       </c>
       <c r="I231" s="2" t="inlineStr">
         <is>
-          <t>M103</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Inverter</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="inlineStr"/>
       <c r="L231" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M231" s="2" t="inlineStr">
-        <is>
-          <t>voltage</t>
-        </is>
-      </c>
+      <c r="M231" s="2" t="inlineStr"/>
       <c r="N231" s="2" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O231" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>VoutST</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>m103_1_PhVphBC</t>
+          <t>fw_ver</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>PhVphBC</t>
+          <t>fw_ver</t>
         </is>
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphbc</t>
+          <t>abb_vsn_fw_ver</t>
         </is>
       </c>
       <c r="E232" s="2" t="inlineStr">
@@ -15540,64 +15740,61 @@
       </c>
       <c r="G232" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphBC</t>
+          <t>Fw Ver</t>
         </is>
       </c>
       <c r="H232" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphBC</t>
+          <t>Version</t>
         </is>
       </c>
       <c r="I232" s="2" t="inlineStr">
         <is>
-          <t>M103</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Inverter</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="inlineStr"/>
       <c r="L232" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M232" s="2" t="inlineStr">
-        <is>
-          <t>voltage</t>
-        </is>
-      </c>
+      <c r="M232" s="2" t="inlineStr"/>
       <c r="N232" s="2" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O232" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>VoutT</t>
+          <t>IoutR</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>m103_1_PhVphC</t>
+          <t>m103_1_AphA</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>PhVphC</t>
+          <t>AphA</t>
         </is>
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphc</t>
+          <t>abb_m103_apha</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr">
@@ -15612,12 +15809,12 @@
       </c>
       <c r="G233" s="2" t="inlineStr">
         <is>
-          <t>Phase Voltage CN</t>
+          <t>Amps PhaseA</t>
         </is>
       </c>
       <c r="H233" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphC</t>
+          <t>Phase A Current</t>
         </is>
       </c>
       <c r="I233" s="2" t="inlineStr">
@@ -15630,22 +15827,15 @@
           <t>Inverter</t>
         </is>
       </c>
-      <c r="K233" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
+      <c r="K233" s="2" t="inlineStr"/>
       <c r="L233" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M233" s="2" t="inlineStr">
-        <is>
-          <t>voltage</t>
-        </is>
-      </c>
-      <c r="N233" s="2" t="inlineStr">
+      <c r="M233" s="2" t="inlineStr"/>
+      <c r="N233" s="2" t="inlineStr"/>
+      <c r="O233" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -15654,22 +15844,22 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>VoutTR</t>
+          <t>IoutS</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>m103_1_PhVphCA</t>
+          <t>m103_1_AphB</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>PhVphCA</t>
+          <t>AphB</t>
         </is>
       </c>
       <c r="D234" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphca</t>
+          <t>abb_m103_aphb</t>
         </is>
       </c>
       <c r="E234" s="2" t="inlineStr">
@@ -15684,12 +15874,12 @@
       </c>
       <c r="G234" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphCA</t>
+          <t>Amps PhaseB</t>
         </is>
       </c>
       <c r="H234" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphCA</t>
+          <t>Phase B Current</t>
         </is>
       </c>
       <c r="I234" s="2" t="inlineStr">
@@ -15717,7 +15907,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N234" s="2" t="inlineStr">
+      <c r="N234" s="2" t="inlineStr"/>
+      <c r="O234" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -15726,22 +15917,22 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>IoutT</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>m103_1_PowerPeakAbs</t>
+          <t>m103_1_AphC</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>PowerPeakAbs</t>
+          <t>AphC</t>
         </is>
       </c>
       <c r="D235" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_powerpeakabs</t>
+          <t>abb_m103_aphc</t>
         </is>
       </c>
       <c r="E235" s="2" t="inlineStr">
@@ -15756,12 +15947,12 @@
       </c>
       <c r="G235" s="2" t="inlineStr">
         <is>
-          <t>(M103) PowerPeakAbs</t>
+          <t>Amps PhaseC</t>
         </is>
       </c>
       <c r="H235" s="2" t="inlineStr">
         <is>
-          <t>Absolute Pout peak</t>
+          <t>Phase C Current</t>
         </is>
       </c>
       <c r="I235" s="2" t="inlineStr">
@@ -15789,7 +15980,8 @@
           <t>current</t>
         </is>
       </c>
-      <c r="N235" s="2" t="inlineStr">
+      <c r="N235" s="2" t="inlineStr"/>
+      <c r="O235" s="2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -15803,669 +15995,727 @@
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
+          <t>m103_1_HzA</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>HzA</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>abb_m103_hza</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="inlineStr">
+        <is>
+          <t>(M103) HzA</t>
+        </is>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>(M103) HzA</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="inlineStr">
+        <is>
+          <t>M103</t>
+        </is>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M236" s="2" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="N236" s="2" t="inlineStr"/>
+      <c r="O236" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>m103_1_HzB</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>HzB</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>abb_m103_hzb</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr"/>
+      <c r="G237" s="2" t="inlineStr">
+        <is>
+          <t>(M103) HzB</t>
+        </is>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>(M103) HzB</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="inlineStr">
+        <is>
+          <t>M103</t>
+        </is>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M237" s="2" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="N237" s="2" t="inlineStr"/>
+      <c r="O237" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>m103_1_HzC</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>HzC</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>abb_m103_hzc</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr"/>
+      <c r="G238" s="2" t="inlineStr">
+        <is>
+          <t>(M103) HzC</t>
+        </is>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>(M103) HzC</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="inlineStr">
+        <is>
+          <t>M103</t>
+        </is>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M238" s="2" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="N238" s="2" t="inlineStr"/>
+      <c r="O238" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>VoutRS</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>m103_1_PhVphAB</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>PhVphAB</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="inlineStr">
+        <is>
+          <t>abb_m103_phvphab</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="inlineStr">
+        <is>
+          <t>(M103) PhVphAB</t>
+        </is>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>(M103) PhVphAB</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="inlineStr">
+        <is>
+          <t>M103</t>
+        </is>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M239" s="2" t="inlineStr">
+        <is>
+          <t>voltage</t>
+        </is>
+      </c>
+      <c r="N239" s="2" t="inlineStr"/>
+      <c r="O239" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>VoutS</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>m103_1_PhVphB</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>PhVphB</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="inlineStr">
+        <is>
+          <t>abb_m103_phvphb</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="inlineStr">
+        <is>
+          <t>Phase Voltage BN</t>
+        </is>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
+        <is>
+          <t>(M103) PhVphB</t>
+        </is>
+      </c>
+      <c r="I240" s="2" t="inlineStr">
+        <is>
+          <t>M103</t>
+        </is>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M240" s="2" t="inlineStr">
+        <is>
+          <t>voltage</t>
+        </is>
+      </c>
+      <c r="N240" s="2" t="inlineStr"/>
+      <c r="O240" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>VoutST</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>m103_1_PhVphBC</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>PhVphBC</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="inlineStr">
+        <is>
+          <t>abb_m103_phvphbc</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="inlineStr">
+        <is>
+          <t>(M103) PhVphBC</t>
+        </is>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>(M103) PhVphBC</t>
+        </is>
+      </c>
+      <c r="I241" s="2" t="inlineStr">
+        <is>
+          <t>M103</t>
+        </is>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M241" s="2" t="inlineStr">
+        <is>
+          <t>voltage</t>
+        </is>
+      </c>
+      <c r="N241" s="2" t="inlineStr"/>
+      <c r="O241" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>VoutT</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>m103_1_PhVphC</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>PhVphC</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>abb_m103_phvphc</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F242" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G242" s="2" t="inlineStr">
+        <is>
+          <t>Phase Voltage CN</t>
+        </is>
+      </c>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>(M103) PhVphC</t>
+        </is>
+      </c>
+      <c r="I242" s="2" t="inlineStr">
+        <is>
+          <t>M103</t>
+        </is>
+      </c>
+      <c r="J242" s="2" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="K242" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="L242" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M242" s="2" t="inlineStr">
+        <is>
+          <t>voltage</t>
+        </is>
+      </c>
+      <c r="N242" s="2" t="inlineStr"/>
+      <c r="O242" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>VoutTR</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>m103_1_PhVphCA</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>PhVphCA</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>abb_m103_phvphca</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F243" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G243" s="2" t="inlineStr">
+        <is>
+          <t>(M103) PhVphCA</t>
+        </is>
+      </c>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t>(M103) PhVphCA</t>
+        </is>
+      </c>
+      <c r="I243" s="2" t="inlineStr">
+        <is>
+          <t>M103</t>
+        </is>
+      </c>
+      <c r="J243" s="2" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="K243" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L243" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M243" s="2" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="N243" s="2" t="inlineStr"/>
+      <c r="O243" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>m103_1_PowerPeakAbs</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>PowerPeakAbs</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>abb_m103_powerpeakabs</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F244" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G244" s="2" t="inlineStr">
+        <is>
+          <t>(M103) PowerPeakAbs</t>
+        </is>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>Absolute Pout peak</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="inlineStr">
+        <is>
+          <t>M103</t>
+        </is>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>Inverter</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M244" s="2" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="N244" s="2" t="inlineStr"/>
+      <c r="O244" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="inlineStr">
+        <is>
           <t>m103_1_PowerPeakToday</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C245" s="2" t="inlineStr">
         <is>
           <t>PowerPeakToday</t>
         </is>
       </c>
-      <c r="D236" s="2" t="inlineStr">
+      <c r="D245" s="2" t="inlineStr">
         <is>
           <t>abb_m103_powerpeaktoday</t>
         </is>
       </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="inlineStr">
+      <c r="E245" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F245" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G245" s="2" t="inlineStr">
         <is>
           <t>(M103) PowerPeakToday</t>
         </is>
       </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="H245" s="2" t="inlineStr">
         <is>
           <t>Pout Peak of the day</t>
         </is>
       </c>
-      <c r="I236" s="2" t="inlineStr">
+      <c r="I245" s="2" t="inlineStr">
         <is>
           <t>M103</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
+      <c r="J245" s="2" t="inlineStr">
         <is>
           <t>Inverter</t>
         </is>
       </c>
-      <c r="K236" s="2" t="inlineStr"/>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M236" s="2" t="inlineStr"/>
-      <c r="N236" s="2" t="inlineStr">
+      <c r="K245" s="2" t="inlineStr"/>
+      <c r="L245" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M245" s="2" t="inlineStr"/>
+      <c r="N245" s="2" t="inlineStr"/>
+      <c r="O245" s="2" t="inlineStr">
         <is>
           <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B237" s="3" t="inlineStr">
-        <is>
-          <t>m64061_1_AlarmSt</t>
-        </is>
-      </c>
-      <c r="C237" s="3" t="inlineStr">
-        <is>
-          <t>AlarmSt</t>
-        </is>
-      </c>
-      <c r="D237" s="3" t="inlineStr">
-        <is>
-          <t>abb_m64061_alarmst</t>
-        </is>
-      </c>
-      <c r="E237" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F237" s="3" t="inlineStr"/>
-      <c r="G237" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) AlarmSt</t>
-        </is>
-      </c>
-      <c r="H237" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) AlarmSt</t>
-        </is>
-      </c>
-      <c r="I237" s="3" t="inlineStr">
-        <is>
-          <t>M64061</t>
-        </is>
-      </c>
-      <c r="J237" s="3" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="K237" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L237" s="3" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M237" s="3" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="N237" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B238" s="3" t="inlineStr">
-        <is>
-          <t>m64061_1_Booster_Tmp</t>
-        </is>
-      </c>
-      <c r="C238" s="3" t="inlineStr">
-        <is>
-          <t>Booster_Tmp</t>
-        </is>
-      </c>
-      <c r="D238" s="3" t="inlineStr">
-        <is>
-          <t>abb_m64061_booster_tmp</t>
-        </is>
-      </c>
-      <c r="E238" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F238" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G238" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) Booster_Tmp</t>
-        </is>
-      </c>
-      <c r="H238" s="3" t="inlineStr">
-        <is>
-          <t>Booster stage temperature</t>
-        </is>
-      </c>
-      <c r="I238" s="3" t="inlineStr">
-        <is>
-          <t>M64061</t>
-        </is>
-      </c>
-      <c r="J238" s="3" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="K238" s="3" t="inlineStr">
-        <is>
-          <t>°C</t>
-        </is>
-      </c>
-      <c r="L238" s="3" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M238" s="3" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="N238" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="3" t="inlineStr">
-        <is>
-          <t>Energy today</t>
-        </is>
-      </c>
-      <c r="B239" s="3" t="inlineStr">
-        <is>
-          <t>m64061_1_DayWH</t>
-        </is>
-      </c>
-      <c r="C239" s="3" t="inlineStr">
-        <is>
-          <t>DayWH</t>
-        </is>
-      </c>
-      <c r="D239" s="3" t="inlineStr">
-        <is>
-          <t>abb_m64061_daywh</t>
-        </is>
-      </c>
-      <c r="E239" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F239" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G239" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) DayWH</t>
-        </is>
-      </c>
-      <c r="H239" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) DayWH</t>
-        </is>
-      </c>
-      <c r="I239" s="3" t="inlineStr">
-        <is>
-          <t>M64061</t>
-        </is>
-      </c>
-      <c r="J239" s="3" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="K239" s="3" t="inlineStr">
-        <is>
-          <t>Wh</t>
-        </is>
-      </c>
-      <c r="L239" s="3" t="inlineStr">
-        <is>
-          <t>total_increasing</t>
-        </is>
-      </c>
-      <c r="M239" s="3" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="N239" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B240" s="3" t="inlineStr">
-        <is>
-          <t>m64061_1_DcSt1</t>
-        </is>
-      </c>
-      <c r="C240" s="3" t="inlineStr">
-        <is>
-          <t>DcSt1</t>
-        </is>
-      </c>
-      <c r="D240" s="3" t="inlineStr">
-        <is>
-          <t>abb_m64061_dcst1</t>
-        </is>
-      </c>
-      <c r="E240" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F240" s="3" t="inlineStr"/>
-      <c r="G240" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) DcSt1</t>
-        </is>
-      </c>
-      <c r="H240" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) DcSt1</t>
-        </is>
-      </c>
-      <c r="I240" s="3" t="inlineStr">
-        <is>
-          <t>M64061</t>
-        </is>
-      </c>
-      <c r="J240" s="3" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="K240" s="3" t="inlineStr"/>
-      <c r="L240" s="3" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M240" s="3" t="inlineStr"/>
-      <c r="N240" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B241" s="3" t="inlineStr">
-        <is>
-          <t>m64061_1_DcSt2</t>
-        </is>
-      </c>
-      <c r="C241" s="3" t="inlineStr">
-        <is>
-          <t>DcSt2</t>
-        </is>
-      </c>
-      <c r="D241" s="3" t="inlineStr">
-        <is>
-          <t>abb_m64061_dcst2</t>
-        </is>
-      </c>
-      <c r="E241" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F241" s="3" t="inlineStr"/>
-      <c r="G241" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) DcSt2</t>
-        </is>
-      </c>
-      <c r="H241" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) DcSt2</t>
-        </is>
-      </c>
-      <c r="I241" s="3" t="inlineStr">
-        <is>
-          <t>M64061</t>
-        </is>
-      </c>
-      <c r="J241" s="3" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="K241" s="3" t="inlineStr"/>
-      <c r="L241" s="3" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M241" s="3" t="inlineStr"/>
-      <c r="N241" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B242" s="3" t="inlineStr">
-        <is>
-          <t>m64061_1_GlobalSt</t>
-        </is>
-      </c>
-      <c r="C242" s="3" t="inlineStr">
-        <is>
-          <t>GlobalSt</t>
-        </is>
-      </c>
-      <c r="D242" s="3" t="inlineStr">
-        <is>
-          <t>abb_m64061_globalst</t>
-        </is>
-      </c>
-      <c r="E242" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F242" s="3" t="inlineStr"/>
-      <c r="G242" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) GlobalSt</t>
-        </is>
-      </c>
-      <c r="H242" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) GlobalSt</t>
-        </is>
-      </c>
-      <c r="I242" s="3" t="inlineStr">
-        <is>
-          <t>M64061</t>
-        </is>
-      </c>
-      <c r="J242" s="3" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="K242" s="3" t="inlineStr"/>
-      <c r="L242" s="3" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M242" s="3" t="inlineStr"/>
-      <c r="N242" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="3" t="inlineStr">
-        <is>
-          <t>Ileak 1</t>
-        </is>
-      </c>
-      <c r="B243" s="3" t="inlineStr">
-        <is>
-          <t>m64061_1_ILeakDcAc</t>
-        </is>
-      </c>
-      <c r="C243" s="3" t="inlineStr">
-        <is>
-          <t>ILeakDcAc</t>
-        </is>
-      </c>
-      <c r="D243" s="3" t="inlineStr">
-        <is>
-          <t>abb_m64061_ileakdcac</t>
-        </is>
-      </c>
-      <c r="E243" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F243" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G243" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) ILeakDcAc</t>
-        </is>
-      </c>
-      <c r="H243" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) ILeakDcAc</t>
-        </is>
-      </c>
-      <c r="I243" s="3" t="inlineStr">
-        <is>
-          <t>M64061</t>
-        </is>
-      </c>
-      <c r="J243" s="3" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="K243" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L243" s="3" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M243" s="3" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="N243" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="3" t="inlineStr">
-        <is>
-          <t>Ileak 2</t>
-        </is>
-      </c>
-      <c r="B244" s="3" t="inlineStr">
-        <is>
-          <t>m64061_1_ILeakDcDc</t>
-        </is>
-      </c>
-      <c r="C244" s="3" t="inlineStr">
-        <is>
-          <t>ILeakDcDc</t>
-        </is>
-      </c>
-      <c r="D244" s="3" t="inlineStr">
-        <is>
-          <t>abb_m64061_ileakdcdc</t>
-        </is>
-      </c>
-      <c r="E244" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F244" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G244" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) ILeakDcDc</t>
-        </is>
-      </c>
-      <c r="H244" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) ILeakDcDc</t>
-        </is>
-      </c>
-      <c r="I244" s="3" t="inlineStr">
-        <is>
-          <t>M64061</t>
-        </is>
-      </c>
-      <c r="J244" s="3" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="K244" s="3" t="inlineStr"/>
-      <c r="L244" s="3" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M244" s="3" t="inlineStr"/>
-      <c r="N244" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B245" s="3" t="inlineStr">
-        <is>
-          <t>m64061_1_InverterSt</t>
-        </is>
-      </c>
-      <c r="C245" s="3" t="inlineStr">
-        <is>
-          <t>InverterSt</t>
-        </is>
-      </c>
-      <c r="D245" s="3" t="inlineStr">
-        <is>
-          <t>abb_m64061_inverterst</t>
-        </is>
-      </c>
-      <c r="E245" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F245" s="3" t="inlineStr"/>
-      <c r="G245" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) InverterSt</t>
-        </is>
-      </c>
-      <c r="H245" s="3" t="inlineStr">
-        <is>
-          <t>(M64061) InverterSt</t>
-        </is>
-      </c>
-      <c r="I245" s="3" t="inlineStr">
-        <is>
-          <t>M64061</t>
-        </is>
-      </c>
-      <c r="J245" s="3" t="inlineStr">
-        <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="K245" s="3" t="inlineStr"/>
-      <c r="L245" s="3" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M245" s="3" t="inlineStr"/>
-      <c r="N245" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>Riso</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>m64061_1_Isolation_Ohm1</t>
+          <t>m64061_1_AlarmSt</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t>Isolation_Ohm1</t>
+          <t>AlarmSt</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_isolation_ohm1</t>
+          <t>abb_m64061_alarmst</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
@@ -16473,19 +16723,15 @@
           <t>✓</t>
         </is>
       </c>
-      <c r="F246" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="F246" s="3" t="inlineStr"/>
       <c r="G246" s="3" t="inlineStr">
         <is>
-          <t>(M64061) Isolation_Ohm1</t>
+          <t>(M64061) AlarmSt</t>
         </is>
       </c>
       <c r="H246" s="3" t="inlineStr">
         <is>
-          <t>(M64061) Isolation_Ohm1</t>
+          <t>(M64061) AlarmSt</t>
         </is>
       </c>
       <c r="I246" s="3" t="inlineStr">
@@ -16498,14 +16744,23 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="K246" s="3" t="inlineStr"/>
+      <c r="K246" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="L246" s="3" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M246" s="3" t="inlineStr"/>
-      <c r="N246" s="3" t="inlineStr">
+      <c r="M246" s="3" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="N246" s="3" t="inlineStr"/>
+      <c r="O246" s="3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -16519,17 +16774,17 @@
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>m64061_1_MonthWH</t>
+          <t>m64061_1_Booster_Tmp</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t>MonthWH</t>
+          <t>Booster_Tmp</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_monthwh</t>
+          <t>abb_m64061_booster_tmp</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -16544,12 +16799,12 @@
       </c>
       <c r="G247" s="3" t="inlineStr">
         <is>
-          <t>(M64061) MonthWH</t>
+          <t>(M64061) Booster_Tmp</t>
         </is>
       </c>
       <c r="H247" s="3" t="inlineStr">
         <is>
-          <t>Energy current month</t>
+          <t>Booster stage temperature</t>
         </is>
       </c>
       <c r="I247" s="3" t="inlineStr">
@@ -16564,20 +16819,21 @@
       </c>
       <c r="K247" s="3" t="inlineStr">
         <is>
-          <t>Wh</t>
+          <t>°C</t>
         </is>
       </c>
       <c r="L247" s="3" t="inlineStr">
         <is>
-          <t>total_increasing</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="M247" s="3" t="inlineStr">
         <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="N247" s="3" t="inlineStr">
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="N247" s="3" t="inlineStr"/>
+      <c r="O247" s="3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -16586,22 +16842,22 @@
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Energy today</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>m64061_1_WeekWH</t>
+          <t>m64061_1_DayWH</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
         <is>
-          <t>WeekWH</t>
+          <t>DayWH</t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_weekwh</t>
+          <t>abb_m64061_daywh</t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
@@ -16616,12 +16872,12 @@
       </c>
       <c r="G248" s="3" t="inlineStr">
         <is>
-          <t>(M64061) WeekWH</t>
+          <t>(M64061) DayWH</t>
         </is>
       </c>
       <c r="H248" s="3" t="inlineStr">
         <is>
-          <t>Energy current week</t>
+          <t>(M64061) DayWH</t>
         </is>
       </c>
       <c r="I248" s="3" t="inlineStr">
@@ -16649,7 +16905,8 @@
           <t>energy</t>
         </is>
       </c>
-      <c r="N248" s="3" t="inlineStr">
+      <c r="N248" s="3" t="inlineStr"/>
+      <c r="O248" s="3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -16663,621 +16920,659 @@
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
+          <t>m64061_1_DcSt1</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="inlineStr">
+        <is>
+          <t>DcSt1</t>
+        </is>
+      </c>
+      <c r="D249" s="3" t="inlineStr">
+        <is>
+          <t>abb_m64061_dcst1</t>
+        </is>
+      </c>
+      <c r="E249" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F249" s="3" t="inlineStr"/>
+      <c r="G249" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) DcSt1</t>
+        </is>
+      </c>
+      <c r="H249" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) DcSt1</t>
+        </is>
+      </c>
+      <c r="I249" s="3" t="inlineStr">
+        <is>
+          <t>M64061</t>
+        </is>
+      </c>
+      <c r="J249" s="3" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="K249" s="3" t="inlineStr"/>
+      <c r="L249" s="3" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M249" s="3" t="inlineStr"/>
+      <c r="N249" s="3" t="inlineStr"/>
+      <c r="O249" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B250" s="3" t="inlineStr">
+        <is>
+          <t>m64061_1_DcSt2</t>
+        </is>
+      </c>
+      <c r="C250" s="3" t="inlineStr">
+        <is>
+          <t>DcSt2</t>
+        </is>
+      </c>
+      <c r="D250" s="3" t="inlineStr">
+        <is>
+          <t>abb_m64061_dcst2</t>
+        </is>
+      </c>
+      <c r="E250" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F250" s="3" t="inlineStr"/>
+      <c r="G250" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) DcSt2</t>
+        </is>
+      </c>
+      <c r="H250" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) DcSt2</t>
+        </is>
+      </c>
+      <c r="I250" s="3" t="inlineStr">
+        <is>
+          <t>M64061</t>
+        </is>
+      </c>
+      <c r="J250" s="3" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="K250" s="3" t="inlineStr"/>
+      <c r="L250" s="3" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M250" s="3" t="inlineStr"/>
+      <c r="N250" s="3" t="inlineStr"/>
+      <c r="O250" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>m64061_1_GlobalSt</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="inlineStr">
+        <is>
+          <t>GlobalSt</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>abb_m64061_globalst</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F251" s="3" t="inlineStr"/>
+      <c r="G251" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) GlobalSt</t>
+        </is>
+      </c>
+      <c r="H251" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) GlobalSt</t>
+        </is>
+      </c>
+      <c r="I251" s="3" t="inlineStr">
+        <is>
+          <t>M64061</t>
+        </is>
+      </c>
+      <c r="J251" s="3" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="K251" s="3" t="inlineStr"/>
+      <c r="L251" s="3" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M251" s="3" t="inlineStr"/>
+      <c r="N251" s="3" t="inlineStr"/>
+      <c r="O251" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="inlineStr">
+        <is>
+          <t>Ileak 1</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>m64061_1_ILeakDcAc</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>ILeakDcAc</t>
+        </is>
+      </c>
+      <c r="D252" s="3" t="inlineStr">
+        <is>
+          <t>abb_m64061_ileakdcac</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F252" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G252" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) ILeakDcAc</t>
+        </is>
+      </c>
+      <c r="H252" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) ILeakDcAc</t>
+        </is>
+      </c>
+      <c r="I252" s="3" t="inlineStr">
+        <is>
+          <t>M64061</t>
+        </is>
+      </c>
+      <c r="J252" s="3" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="K252" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L252" s="3" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M252" s="3" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="N252" s="3" t="inlineStr"/>
+      <c r="O252" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="inlineStr">
+        <is>
+          <t>Ileak 2</t>
+        </is>
+      </c>
+      <c r="B253" s="3" t="inlineStr">
+        <is>
+          <t>m64061_1_ILeakDcDc</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="inlineStr">
+        <is>
+          <t>ILeakDcDc</t>
+        </is>
+      </c>
+      <c r="D253" s="3" t="inlineStr">
+        <is>
+          <t>abb_m64061_ileakdcdc</t>
+        </is>
+      </c>
+      <c r="E253" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F253" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G253" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) ILeakDcDc</t>
+        </is>
+      </c>
+      <c r="H253" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) ILeakDcDc</t>
+        </is>
+      </c>
+      <c r="I253" s="3" t="inlineStr">
+        <is>
+          <t>M64061</t>
+        </is>
+      </c>
+      <c r="J253" s="3" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="K253" s="3" t="inlineStr"/>
+      <c r="L253" s="3" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M253" s="3" t="inlineStr"/>
+      <c r="N253" s="3" t="inlineStr"/>
+      <c r="O253" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B254" s="3" t="inlineStr">
+        <is>
+          <t>m64061_1_InverterSt</t>
+        </is>
+      </c>
+      <c r="C254" s="3" t="inlineStr">
+        <is>
+          <t>InverterSt</t>
+        </is>
+      </c>
+      <c r="D254" s="3" t="inlineStr">
+        <is>
+          <t>abb_m64061_inverterst</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F254" s="3" t="inlineStr"/>
+      <c r="G254" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) InverterSt</t>
+        </is>
+      </c>
+      <c r="H254" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) InverterSt</t>
+        </is>
+      </c>
+      <c r="I254" s="3" t="inlineStr">
+        <is>
+          <t>M64061</t>
+        </is>
+      </c>
+      <c r="J254" s="3" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="K254" s="3" t="inlineStr"/>
+      <c r="L254" s="3" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M254" s="3" t="inlineStr"/>
+      <c r="N254" s="3" t="inlineStr"/>
+      <c r="O254" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="inlineStr">
+        <is>
+          <t>Riso</t>
+        </is>
+      </c>
+      <c r="B255" s="3" t="inlineStr">
+        <is>
+          <t>m64061_1_Isolation_Ohm1</t>
+        </is>
+      </c>
+      <c r="C255" s="3" t="inlineStr">
+        <is>
+          <t>Isolation_Ohm1</t>
+        </is>
+      </c>
+      <c r="D255" s="3" t="inlineStr">
+        <is>
+          <t>abb_m64061_isolation_ohm1</t>
+        </is>
+      </c>
+      <c r="E255" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F255" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G255" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) Isolation_Ohm1</t>
+        </is>
+      </c>
+      <c r="H255" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) Isolation_Ohm1</t>
+        </is>
+      </c>
+      <c r="I255" s="3" t="inlineStr">
+        <is>
+          <t>M64061</t>
+        </is>
+      </c>
+      <c r="J255" s="3" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="K255" s="3" t="inlineStr"/>
+      <c r="L255" s="3" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M255" s="3" t="inlineStr"/>
+      <c r="N255" s="3" t="inlineStr"/>
+      <c r="O255" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t>m64061_1_MonthWH</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="inlineStr">
+        <is>
+          <t>MonthWH</t>
+        </is>
+      </c>
+      <c r="D256" s="3" t="inlineStr">
+        <is>
+          <t>abb_m64061_monthwh</t>
+        </is>
+      </c>
+      <c r="E256" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F256" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G256" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) MonthWH</t>
+        </is>
+      </c>
+      <c r="H256" s="3" t="inlineStr">
+        <is>
+          <t>Energy current month</t>
+        </is>
+      </c>
+      <c r="I256" s="3" t="inlineStr">
+        <is>
+          <t>M64061</t>
+        </is>
+      </c>
+      <c r="J256" s="3" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="K256" s="3" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
+      <c r="L256" s="3" t="inlineStr">
+        <is>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M256" s="3" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="N256" s="3" t="inlineStr"/>
+      <c r="O256" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t>m64061_1_WeekWH</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="inlineStr">
+        <is>
+          <t>WeekWH</t>
+        </is>
+      </c>
+      <c r="D257" s="3" t="inlineStr">
+        <is>
+          <t>abb_m64061_weekwh</t>
+        </is>
+      </c>
+      <c r="E257" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F257" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G257" s="3" t="inlineStr">
+        <is>
+          <t>(M64061) WeekWH</t>
+        </is>
+      </c>
+      <c r="H257" s="3" t="inlineStr">
+        <is>
+          <t>Energy current week</t>
+        </is>
+      </c>
+      <c r="I257" s="3" t="inlineStr">
+        <is>
+          <t>M64061</t>
+        </is>
+      </c>
+      <c r="J257" s="3" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="K257" s="3" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
+      <c r="L257" s="3" t="inlineStr">
+        <is>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M257" s="3" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="N257" s="3" t="inlineStr"/>
+      <c r="O257" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B258" s="3" t="inlineStr">
+        <is>
           <t>m64061_1_YearWH</t>
         </is>
       </c>
-      <c r="C249" s="3" t="inlineStr">
+      <c r="C258" s="3" t="inlineStr">
         <is>
           <t>YearWH</t>
         </is>
       </c>
-      <c r="D249" s="3" t="inlineStr">
+      <c r="D258" s="3" t="inlineStr">
         <is>
           <t>abb_m64061_yearwh</t>
         </is>
       </c>
-      <c r="E249" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F249" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G249" s="3" t="inlineStr">
+      <c r="E258" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F258" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G258" s="3" t="inlineStr">
         <is>
           <t>(M64061) YearWH</t>
         </is>
       </c>
-      <c r="H249" s="3" t="inlineStr">
+      <c r="H258" s="3" t="inlineStr">
         <is>
           <t>Energy current year</t>
         </is>
       </c>
-      <c r="I249" s="3" t="inlineStr">
+      <c r="I258" s="3" t="inlineStr">
         <is>
           <t>M64061</t>
         </is>
       </c>
-      <c r="J249" s="3" t="inlineStr">
+      <c r="J258" s="3" t="inlineStr">
         <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="K249" s="3" t="inlineStr">
+      <c r="K258" s="3" t="inlineStr">
         <is>
           <t>Wh</t>
         </is>
       </c>
-      <c r="L249" s="3" t="inlineStr">
+      <c r="L258" s="3" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M249" s="3" t="inlineStr">
+      <c r="M258" s="3" t="inlineStr">
         <is>
           <t>energy</t>
         </is>
       </c>
-      <c r="N249" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B250" s="2" t="inlineStr">
-        <is>
-          <t>pn</t>
-        </is>
-      </c>
-      <c r="C250" s="2" t="inlineStr">
-        <is>
-          <t>pn</t>
-        </is>
-      </c>
-      <c r="D250" s="2" t="inlineStr">
-        <is>
-          <t>abb_vsn_pn</t>
-        </is>
-      </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr"/>
-      <c r="G250" s="2" t="inlineStr">
-        <is>
-          <t>Pn</t>
-        </is>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>Pn</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="inlineStr">
-        <is>
-          <t>VSN300-only</t>
-        </is>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="inlineStr"/>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M250" s="2" t="inlineStr"/>
-      <c r="N250" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B251" s="2" t="inlineStr">
-        <is>
-          <t>sn</t>
-        </is>
-      </c>
-      <c r="C251" s="2" t="inlineStr">
-        <is>
-          <t>sn</t>
-        </is>
-      </c>
-      <c r="D251" s="2" t="inlineStr">
-        <is>
-          <t>abb_vsn_sn</t>
-        </is>
-      </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr"/>
-      <c r="G251" s="2" t="inlineStr">
-        <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>Sn</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="inlineStr">
-        <is>
-          <t>VSN300-only</t>
-        </is>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="inlineStr"/>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M251" s="2" t="inlineStr"/>
-      <c r="N251" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B252" s="2" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C252" s="2" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="D252" s="2" t="inlineStr">
-        <is>
-          <t>abb_vsn_type</t>
-        </is>
-      </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr"/>
-      <c r="G252" s="2" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="inlineStr">
-        <is>
-          <t>VSN300-only</t>
-        </is>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="inlineStr"/>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M252" s="2" t="inlineStr"/>
-      <c r="N252" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B253" s="2" t="inlineStr">
-        <is>
-          <t>wlan0_essid</t>
-        </is>
-      </c>
-      <c r="C253" s="2" t="inlineStr">
-        <is>
-          <t>wlan0_essid</t>
-        </is>
-      </c>
-      <c r="D253" s="2" t="inlineStr">
-        <is>
-          <t>abb_vsn_wlan0_essid</t>
-        </is>
-      </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr"/>
-      <c r="G253" s="2" t="inlineStr">
-        <is>
-          <t>Wlan 0 Essid</t>
-        </is>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>Wlan 0 Essid</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="inlineStr">
-        <is>
-          <t>VSN300-only</t>
-        </is>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="inlineStr"/>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M253" s="2" t="inlineStr"/>
-      <c r="N253" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B254" s="2" t="inlineStr">
-        <is>
-          <t>wlan0_ipaddr_local</t>
-        </is>
-      </c>
-      <c r="C254" s="2" t="inlineStr">
-        <is>
-          <t>wlan0_ipaddr_local</t>
-        </is>
-      </c>
-      <c r="D254" s="2" t="inlineStr">
-        <is>
-          <t>abb_vsn_wlan0_ipaddr_local</t>
-        </is>
-      </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr"/>
-      <c r="G254" s="2" t="inlineStr">
-        <is>
-          <t>Wlan 0 Ipaddr Local</t>
-        </is>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>Wlan 0 Ipaddr Local</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="inlineStr">
-        <is>
-          <t>VSN300-only</t>
-        </is>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="inlineStr"/>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M254" s="2" t="inlineStr"/>
-      <c r="N254" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B255" s="2" t="inlineStr">
-        <is>
-          <t>wlan0_link_quality</t>
-        </is>
-      </c>
-      <c r="C255" s="2" t="inlineStr">
-        <is>
-          <t>wlan0_link_quality</t>
-        </is>
-      </c>
-      <c r="D255" s="2" t="inlineStr">
-        <is>
-          <t>abb_vsn_wlan0_link_quality</t>
-        </is>
-      </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr"/>
-      <c r="G255" s="2" t="inlineStr">
-        <is>
-          <t>Wlan 0 Link Quality</t>
-        </is>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>Wlan 0 Link Quality</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="inlineStr">
-        <is>
-          <t>VSN300-only</t>
-        </is>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="inlineStr"/>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M255" s="2" t="inlineStr"/>
-      <c r="N255" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B256" s="2" t="inlineStr">
-        <is>
-          <t>wlan0_mode</t>
-        </is>
-      </c>
-      <c r="C256" s="2" t="inlineStr">
-        <is>
-          <t>wlan0_mode</t>
-        </is>
-      </c>
-      <c r="D256" s="2" t="inlineStr">
-        <is>
-          <t>abb_vsn_wlan0_mode</t>
-        </is>
-      </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr"/>
-      <c r="G256" s="2" t="inlineStr">
-        <is>
-          <t>Wlan 0 Mode</t>
-        </is>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>Wlan 0 Mode</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="inlineStr">
-        <is>
-          <t>VSN300-only</t>
-        </is>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="inlineStr"/>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M256" s="2" t="inlineStr"/>
-      <c r="N256" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="inlineStr">
-        <is>
-          <t>E6_total</t>
-        </is>
-      </c>
-      <c r="B257" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C257" s="2" t="inlineStr">
-        <is>
-          <t>E6_total</t>
-        </is>
-      </c>
-      <c r="D257" s="2" t="inlineStr">
-        <is>
-          <t>abb_vsn_e6_total</t>
-        </is>
-      </c>
-      <c r="E257" s="2" t="inlineStr"/>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="inlineStr">
-        <is>
-          <t>E 6 Total</t>
-        </is>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>E6 - Consumed Energy from Inverter - Total</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="inlineStr">
-        <is>
-          <t>VSN700-only</t>
-        </is>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Energy Counter</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="inlineStr">
-        <is>
-          <t>Wh</t>
-        </is>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>total_increasing</t>
-        </is>
-      </c>
-      <c r="M257" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="N257" s="2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="inlineStr">
-        <is>
-          <t>E7_total</t>
-        </is>
-      </c>
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="inlineStr">
-        <is>
-          <t>E7_total</t>
-        </is>
-      </c>
-      <c r="D258" s="2" t="inlineStr">
-        <is>
-          <t>abb_vsn_e7_total</t>
-        </is>
-      </c>
-      <c r="E258" s="2" t="inlineStr"/>
-      <c r="F258" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G258" s="2" t="inlineStr">
-        <is>
-          <t>E 7 Total</t>
-        </is>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>E7 - Consumed Energy - Total</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="inlineStr">
-        <is>
-          <t>VSN700-only</t>
-        </is>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>Energy Counter</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="inlineStr">
-        <is>
-          <t>Wh</t>
-        </is>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
-        <is>
-          <t>total_increasing</t>
-        </is>
-      </c>
-      <c r="M258" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="N258" s="2" t="inlineStr">
+      <c r="N258" s="3" t="inlineStr"/>
+      <c r="O258" s="3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -17286,66 +17581,59 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>pn</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>ETotCharge</t>
+          <t>pn</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge</t>
-        </is>
-      </c>
-      <c r="E259" s="2" t="inlineStr"/>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>abb_vsn_pn</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr"/>
       <c r="G259" s="2" t="inlineStr">
         <is>
-          <t>E Tot Charge</t>
+          <t>Pn</t>
         </is>
       </c>
       <c r="H259" s="2" t="inlineStr">
         <is>
-          <t>Total Battery Charge Energy - Total</t>
+          <t>Pn</t>
         </is>
       </c>
       <c r="I259" s="2" t="inlineStr">
         <is>
-          <t>VSN700-only</t>
+          <t>VSN300-only</t>
         </is>
       </c>
       <c r="J259" s="2" t="inlineStr">
         <is>
-          <t>Energy Counter</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="inlineStr">
-        <is>
-          <t>Wh</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="inlineStr"/>
       <c r="L259" s="2" t="inlineStr">
         <is>
-          <t>total_increasing</t>
-        </is>
-      </c>
-      <c r="M259" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="N259" s="2" t="inlineStr">
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M259" s="2" t="inlineStr"/>
+      <c r="N259" s="2" t="inlineStr"/>
+      <c r="O259" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -17354,73 +17642,1244 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_sn</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr"/>
+      <c r="G260" s="2" t="inlineStr">
+        <is>
+          <t>Sn</t>
+        </is>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Sn</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="inlineStr">
+        <is>
+          <t>VSN300-only</t>
+        </is>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="inlineStr"/>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M260" s="2" t="inlineStr"/>
+      <c r="N260" s="2" t="inlineStr"/>
+      <c r="O260" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
+        <is>
+          <t>store_size</t>
+        </is>
+      </c>
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>store_size</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_store_size</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="inlineStr">
+        <is>
+          <t>Store Size</t>
+        </is>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>flash used</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="inlineStr">
+        <is>
+          <t>VSN300-only</t>
+        </is>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="inlineStr"/>
+      <c r="L261" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M261" s="2" t="inlineStr"/>
+      <c r="N261" s="2" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O261" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>sys_load</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>sys_load</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_sys_load</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="inlineStr">
+        <is>
+          <t>Sys Load</t>
+        </is>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>system load</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="inlineStr">
+        <is>
+          <t>VSN300-only</t>
+        </is>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="inlineStr"/>
+      <c r="L262" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M262" s="2" t="inlineStr"/>
+      <c r="N262" s="2" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O262" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_type</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr"/>
+      <c r="G263" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="inlineStr">
+        <is>
+          <t>VSN300-only</t>
+        </is>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="inlineStr"/>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M263" s="2" t="inlineStr"/>
+      <c r="N263" s="2" t="inlineStr"/>
+      <c r="O263" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>uptime</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>uptime</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_uptime</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="inlineStr">
+        <is>
+          <t>Uptime</t>
+        </is>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>uptime</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="inlineStr">
+        <is>
+          <t>VSN300-only</t>
+        </is>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="inlineStr"/>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M264" s="2" t="inlineStr"/>
+      <c r="N264" s="2" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O264" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>wlan0_essid</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>wlan0_essid</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_wlan0_essid</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr"/>
+      <c r="G265" s="2" t="inlineStr">
+        <is>
+          <t>Wlan 0 Essid</t>
+        </is>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Wlan 0 Essid</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="inlineStr">
+        <is>
+          <t>VSN300-only</t>
+        </is>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="inlineStr"/>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M265" s="2" t="inlineStr"/>
+      <c r="N265" s="2" t="inlineStr"/>
+      <c r="O265" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>wlan0_ipaddr_local</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>wlan0_ipaddr_local</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_wlan0_ipaddr_local</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr"/>
+      <c r="G266" s="2" t="inlineStr">
+        <is>
+          <t>Wlan 0 Ipaddr Local</t>
+        </is>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Wlan 0 Ipaddr Local</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="inlineStr">
+        <is>
+          <t>VSN300-only</t>
+        </is>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="inlineStr"/>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M266" s="2" t="inlineStr"/>
+      <c r="N266" s="2" t="inlineStr"/>
+      <c r="O266" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>wlan0_link_quality</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>wlan0_link_quality</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_wlan0_link_quality</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr"/>
+      <c r="G267" s="2" t="inlineStr">
+        <is>
+          <t>Wlan 0 Link Quality</t>
+        </is>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Wlan 0 Link Quality</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="inlineStr">
+        <is>
+          <t>VSN300-only</t>
+        </is>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="inlineStr"/>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M267" s="2" t="inlineStr"/>
+      <c r="N267" s="2" t="inlineStr"/>
+      <c r="O267" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>wlan0_mode</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>wlan0_mode</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_wlan0_mode</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr"/>
+      <c r="G268" s="2" t="inlineStr">
+        <is>
+          <t>Wlan 0 Mode</t>
+        </is>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Wlan 0 Mode</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="inlineStr">
+        <is>
+          <t>VSN300-only</t>
+        </is>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="inlineStr"/>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M268" s="2" t="inlineStr"/>
+      <c r="N268" s="2" t="inlineStr"/>
+      <c r="O268" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>E6_total</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>E6_total</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_e6_total</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="inlineStr"/>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="inlineStr">
+        <is>
+          <t>E 6 Total</t>
+        </is>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>E6 - Consumed Energy from Inverter - Total</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="inlineStr">
+        <is>
+          <t>VSN700-only</t>
+        </is>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>Energy Counter</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M269" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="N269" s="2" t="inlineStr"/>
+      <c r="O269" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>E7_total</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>E7_total</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_e7_total</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="inlineStr"/>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="inlineStr">
+        <is>
+          <t>E 7 Total</t>
+        </is>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>E7 - Consumed Energy - Total</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="inlineStr">
+        <is>
+          <t>VSN700-only</t>
+        </is>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>Energy Counter</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M270" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="N270" s="2" t="inlineStr"/>
+      <c r="O270" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="inlineStr">
+        <is>
+          <t>ETotCharge</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>ETotCharge</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_etotcharge</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="inlineStr"/>
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="inlineStr">
+        <is>
+          <t>E Tot Charge</t>
+        </is>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Total Battery Charge Energy - Total</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="inlineStr">
+        <is>
+          <t>VSN700-only</t>
+        </is>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>Energy Counter</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M271" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="N271" s="2" t="inlineStr"/>
+      <c r="O271" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
           <t>ETotDischarge</t>
         </is>
       </c>
-      <c r="B260" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
         <is>
           <t>ETotDischarge</t>
         </is>
       </c>
-      <c r="D260" s="2" t="inlineStr">
+      <c r="D272" s="2" t="inlineStr">
         <is>
           <t>abb_vsn_etotdischarge</t>
         </is>
       </c>
-      <c r="E260" s="2" t="inlineStr"/>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="inlineStr">
+      <c r="E272" s="2" t="inlineStr"/>
+      <c r="F272" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G272" s="2" t="inlineStr">
         <is>
           <t>E Tot Discharge</t>
         </is>
       </c>
-      <c r="H260" s="2" t="inlineStr">
+      <c r="H272" s="2" t="inlineStr">
         <is>
           <t>Total Battery Discharge Energy - Total</t>
         </is>
       </c>
-      <c r="I260" s="2" t="inlineStr">
+      <c r="I272" s="2" t="inlineStr">
         <is>
           <t>VSN700-only</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
+      <c r="J272" s="2" t="inlineStr">
         <is>
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K260" s="2" t="inlineStr">
+      <c r="K272" s="2" t="inlineStr">
         <is>
           <t>Wh</t>
         </is>
       </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="L272" s="2" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M260" s="2" t="inlineStr">
+      <c r="M272" s="2" t="inlineStr">
         <is>
           <t>energy</t>
         </is>
       </c>
-      <c r="N260" s="2" t="inlineStr">
+      <c r="N272" s="2" t="inlineStr"/>
+      <c r="O272" s="2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr">
+        <is>
+          <t>flash_free</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C273" s="2" t="inlineStr">
+        <is>
+          <t>flash_free</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_flash_free</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="inlineStr"/>
+      <c r="F273" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G273" s="2" t="inlineStr">
+        <is>
+          <t>Flash Free</t>
+        </is>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>flash free</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="inlineStr">
+        <is>
+          <t>VSN700-only</t>
+        </is>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="inlineStr"/>
+      <c r="L273" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M273" s="2" t="inlineStr"/>
+      <c r="N273" s="2" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O273" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t>free_ram</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>free_ram</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_free_ram</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="inlineStr"/>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="inlineStr">
+        <is>
+          <t>Free Ram</t>
+        </is>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>ram free</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="inlineStr">
+        <is>
+          <t>VSN700-only</t>
+        </is>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="inlineStr"/>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M274" s="2" t="inlineStr"/>
+      <c r="N274" s="2" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O274" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="inlineStr">
+        <is>
+          <t>fw_ver</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="inlineStr">
+        <is>
+          <t>fw_ver</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_fw_ver</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="inlineStr"/>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="inlineStr">
+        <is>
+          <t>Fw Ver</t>
+        </is>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="inlineStr">
+        <is>
+          <t>VSN700-only</t>
+        </is>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="inlineStr"/>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M275" s="2" t="inlineStr"/>
+      <c r="N275" s="2" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O275" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>store_size</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>store_size</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_store_size</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="inlineStr"/>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="inlineStr">
+        <is>
+          <t>Store Size</t>
+        </is>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>flash used</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="inlineStr">
+        <is>
+          <t>VSN700-only</t>
+        </is>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="inlineStr"/>
+      <c r="L276" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M276" s="2" t="inlineStr"/>
+      <c r="N276" s="2" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O276" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="inlineStr">
+        <is>
+          <t>sys_load</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C277" s="2" t="inlineStr">
+        <is>
+          <t>sys_load</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_sys_load</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="inlineStr"/>
+      <c r="F277" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G277" s="2" t="inlineStr">
+        <is>
+          <t>Sys Load</t>
+        </is>
+      </c>
+      <c r="H277" s="2" t="inlineStr">
+        <is>
+          <t>system load</t>
+        </is>
+      </c>
+      <c r="I277" s="2" t="inlineStr">
+        <is>
+          <t>VSN700-only</t>
+        </is>
+      </c>
+      <c r="J277" s="2" t="inlineStr">
+        <is>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K277" s="2" t="inlineStr"/>
+      <c r="L277" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M277" s="2" t="inlineStr"/>
+      <c r="N277" s="2" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O277" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>uptime</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>uptime</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="inlineStr">
+        <is>
+          <t>abb_vsn_uptime</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="inlineStr"/>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="inlineStr">
+        <is>
+          <t>Uptime</t>
+        </is>
+      </c>
+      <c r="H278" s="2" t="inlineStr">
+        <is>
+          <t>uptime</t>
+        </is>
+      </c>
+      <c r="I278" s="2" t="inlineStr">
+        <is>
+          <t>VSN700-only</t>
+        </is>
+      </c>
+      <c r="J278" s="2" t="inlineStr">
+        <is>
+          <t>System Monitoring</t>
+        </is>
+      </c>
+      <c r="K278" s="2" t="inlineStr"/>
+      <c r="L278" s="2" t="inlineStr">
+        <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="M278" s="2" t="inlineStr"/>
+      <c r="N278" s="2" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
+      <c r="O278" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N260"/>
+  <autoFilter ref="A1:O278"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -17431,7 +18890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17458,7 +18917,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
@@ -17468,7 +18927,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -17494,40 +18953,50 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>In /livedata</t>
+          <t>Diagnostic entities</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>In /feeds</t>
+          <t>In /livedata</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Points with labels from SunSpec</t>
+          <t>In /feeds</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>259</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
+          <t>Points with labels from SunSpec</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
           <t>Points with generated labels</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -16016,12 +16016,12 @@
       <c r="F236" s="2" t="inlineStr"/>
       <c r="G236" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzA</t>
+          <t>Frequency Phase A</t>
         </is>
       </c>
       <c r="H236" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzA</t>
+          <t>Frequency Phase A</t>
         </is>
       </c>
       <c r="I236" s="2" t="inlineStr">
@@ -16085,12 +16085,12 @@
       <c r="F237" s="2" t="inlineStr"/>
       <c r="G237" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzB</t>
+          <t>Frequency Phase B</t>
         </is>
       </c>
       <c r="H237" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzB</t>
+          <t>Frequency Phase B</t>
         </is>
       </c>
       <c r="I237" s="2" t="inlineStr">
@@ -16154,12 +16154,12 @@
       <c r="F238" s="2" t="inlineStr"/>
       <c r="G238" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzC</t>
+          <t>Frequency Phase C</t>
         </is>
       </c>
       <c r="H238" s="2" t="inlineStr">
         <is>
-          <t>(M103) HzC</t>
+          <t>Frequency Phase C</t>
         </is>
       </c>
       <c r="I238" s="2" t="inlineStr">
@@ -16227,12 +16227,12 @@
       </c>
       <c r="G239" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphAB</t>
+          <t>Phase Voltage AB</t>
         </is>
       </c>
       <c r="H239" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphAB</t>
+          <t>Phase Voltage AB</t>
         </is>
       </c>
       <c r="I239" s="2" t="inlineStr">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="H240" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphB</t>
+          <t>Phase Voltage BN</t>
         </is>
       </c>
       <c r="I240" s="2" t="inlineStr">
@@ -16373,12 +16373,12 @@
       </c>
       <c r="G241" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphBC</t>
+          <t>Phase Voltage BC</t>
         </is>
       </c>
       <c r="H241" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphBC</t>
+          <t>Phase Voltage BC</t>
         </is>
       </c>
       <c r="I241" s="2" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="H242" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphC</t>
+          <t>Phase Voltage CN</t>
         </is>
       </c>
       <c r="I242" s="2" t="inlineStr">
@@ -16519,12 +16519,12 @@
       </c>
       <c r="G243" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphCA</t>
+          <t>Phase Voltage CA</t>
         </is>
       </c>
       <c r="H243" s="2" t="inlineStr">
         <is>
-          <t>(M103) PhVphCA</t>
+          <t>Phase Voltage CA</t>
         </is>
       </c>
       <c r="I243" s="2" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="G244" s="2" t="inlineStr">
         <is>
-          <t>(M103) PowerPeakAbs</t>
+          <t>Peak Power (Absolute)</t>
         </is>
       </c>
       <c r="H244" s="2" t="inlineStr">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="G245" s="2" t="inlineStr">
         <is>
-          <t>(M103) PowerPeakToday</t>
+          <t>Peak Power Today</t>
         </is>
       </c>
       <c r="H245" s="2" t="inlineStr">
@@ -16726,12 +16726,12 @@
       <c r="F246" s="3" t="inlineStr"/>
       <c r="G246" s="3" t="inlineStr">
         <is>
-          <t>(M64061) AlarmSt</t>
+          <t>Alarm State</t>
         </is>
       </c>
       <c r="H246" s="3" t="inlineStr">
         <is>
-          <t>(M64061) AlarmSt</t>
+          <t>Alarm State</t>
         </is>
       </c>
       <c r="I246" s="3" t="inlineStr">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="G247" s="3" t="inlineStr">
         <is>
-          <t>(M64061) Booster_Tmp</t>
+          <t>Boost Converter Temperature</t>
         </is>
       </c>
       <c r="H247" s="3" t="inlineStr">
@@ -16872,12 +16872,12 @@
       </c>
       <c r="G248" s="3" t="inlineStr">
         <is>
-          <t>(M64061) DayWH</t>
+          <t>Daily Energy</t>
         </is>
       </c>
       <c r="H248" s="3" t="inlineStr">
         <is>
-          <t>(M64061) DayWH</t>
+          <t>Daily Energy</t>
         </is>
       </c>
       <c r="I248" s="3" t="inlineStr">
@@ -16941,12 +16941,12 @@
       <c r="F249" s="3" t="inlineStr"/>
       <c r="G249" s="3" t="inlineStr">
         <is>
-          <t>(M64061) DcSt1</t>
+          <t>DC Input 1 State</t>
         </is>
       </c>
       <c r="H249" s="3" t="inlineStr">
         <is>
-          <t>(M64061) DcSt1</t>
+          <t>DC Input 1 State</t>
         </is>
       </c>
       <c r="I249" s="3" t="inlineStr">
@@ -17002,12 +17002,12 @@
       <c r="F250" s="3" t="inlineStr"/>
       <c r="G250" s="3" t="inlineStr">
         <is>
-          <t>(M64061) DcSt2</t>
+          <t>DC Input 2 State</t>
         </is>
       </c>
       <c r="H250" s="3" t="inlineStr">
         <is>
-          <t>(M64061) DcSt2</t>
+          <t>DC Input 2 State</t>
         </is>
       </c>
       <c r="I250" s="3" t="inlineStr">
@@ -17063,12 +17063,12 @@
       <c r="F251" s="3" t="inlineStr"/>
       <c r="G251" s="3" t="inlineStr">
         <is>
-          <t>(M64061) GlobalSt</t>
+          <t>Global State</t>
         </is>
       </c>
       <c r="H251" s="3" t="inlineStr">
         <is>
-          <t>(M64061) GlobalSt</t>
+          <t>Global State</t>
         </is>
       </c>
       <c r="I251" s="3" t="inlineStr">
@@ -17128,12 +17128,12 @@
       </c>
       <c r="G252" s="3" t="inlineStr">
         <is>
-          <t>(M64061) ILeakDcAc</t>
+          <t>Leakage Current DC-AC</t>
         </is>
       </c>
       <c r="H252" s="3" t="inlineStr">
         <is>
-          <t>(M64061) ILeakDcAc</t>
+          <t>Leakage Current DC-AC</t>
         </is>
       </c>
       <c r="I252" s="3" t="inlineStr">
@@ -17201,12 +17201,12 @@
       </c>
       <c r="G253" s="3" t="inlineStr">
         <is>
-          <t>(M64061) ILeakDcDc</t>
+          <t>Leakage Current DC-DC</t>
         </is>
       </c>
       <c r="H253" s="3" t="inlineStr">
         <is>
-          <t>(M64061) ILeakDcDc</t>
+          <t>Leakage Current DC-DC</t>
         </is>
       </c>
       <c r="I253" s="3" t="inlineStr">
@@ -17262,12 +17262,12 @@
       <c r="F254" s="3" t="inlineStr"/>
       <c r="G254" s="3" t="inlineStr">
         <is>
-          <t>(M64061) InverterSt</t>
+          <t>Inverter State</t>
         </is>
       </c>
       <c r="H254" s="3" t="inlineStr">
         <is>
-          <t>(M64061) InverterSt</t>
+          <t>Inverter State</t>
         </is>
       </c>
       <c r="I254" s="3" t="inlineStr">
@@ -17327,12 +17327,12 @@
       </c>
       <c r="G255" s="3" t="inlineStr">
         <is>
-          <t>(M64061) Isolation_Ohm1</t>
+          <t>Isolation Resistance</t>
         </is>
       </c>
       <c r="H255" s="3" t="inlineStr">
         <is>
-          <t>(M64061) Isolation_Ohm1</t>
+          <t>Isolation Resistance</t>
         </is>
       </c>
       <c r="I255" s="3" t="inlineStr">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="G256" s="3" t="inlineStr">
         <is>
-          <t>(M64061) MonthWH</t>
+          <t>Monthly Energy</t>
         </is>
       </c>
       <c r="H256" s="3" t="inlineStr">
@@ -17465,7 +17465,7 @@
       </c>
       <c r="G257" s="3" t="inlineStr">
         <is>
-          <t>(M64061) WeekWH</t>
+          <t>Weekly Energy</t>
         </is>
       </c>
       <c r="H257" s="3" t="inlineStr">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="G258" s="3" t="inlineStr">
         <is>
-          <t>(M64061) YearWH</t>
+          <t>Yearly Energy</t>
         </is>
       </c>
       <c r="H258" s="3" t="inlineStr">

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -466,7 +466,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="34" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
     <col width="31" customWidth="1" min="7" max="7"/>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_c_da</t>
+          <t>abb_da</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_c_md</t>
+          <t>abb_md</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_c_mn</t>
+          <t>abb_mn</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_c_opt</t>
+          <t>abb_opt</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_c_sn</t>
+          <t>abb_sn</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_c_vr</t>
+          <t>abb_vr</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_countrystd</t>
+          <t>abb_country_std</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_1y</t>
+          <t>abb_e0_energy_yearly</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_30d</t>
+          <t>abb_e0_energy_30_day</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -12110,7 +12110,7 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_7d</t>
+          <t>abb_e0_energy_7_day</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_runtime</t>
+          <t>abb_e0_energy_lifetime</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e15_30d</t>
+          <t>abb_e15_energy_30_day</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
@@ -12293,7 +12293,7 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e15_7d</t>
+          <t>abb_e15_energy_7_day</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e15_runtime</t>
+          <t>abb_e15_energy_lifetime</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e1_30d</t>
+          <t>abb_e1_energy_30_day</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
@@ -12476,7 +12476,7 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e1_7d</t>
+          <t>abb_e1_energy_7_day</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e1_runtime</t>
+          <t>abb_e1_energy_lifetime</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e2_30d</t>
+          <t>abb_e2_energy_30_day</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e2_7d</t>
+          <t>abb_e2_energy_7_day</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e2_runtime</t>
+          <t>abb_e2_energy_lifetime</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e3_30d</t>
+          <t>abb_e3_energy_30_day</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -12842,7 +12842,7 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e3_7d</t>
+          <t>abb_e3_energy_7_day</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e3_runtime</t>
+          <t>abb_e3_energy_lifetime</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_30d</t>
+          <t>abb_e6_energy_30_day</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_7d</t>
+          <t>abb_e6_energy_7_day</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_runtime</t>
+          <t>abb_e6_energy_lifetime</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_total</t>
+          <t>abb_e_6_total</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
@@ -13208,7 +13208,7 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_30d</t>
+          <t>abb_e7_energy_30_day</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_7d</t>
+          <t>abb_e7_energy_7_day</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_runtime</t>
+          <t>abb_e7_energy_lifetime</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_total</t>
+          <t>abb_e_7_total</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e8_30d</t>
+          <t>abb_e8_energy_30_day</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -13513,7 +13513,7 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e8_7d</t>
+          <t>abb_e8_energy_7_day</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -13574,7 +13574,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e8_runtime</t>
+          <t>abb_e8_energy_lifetime</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge_30d</t>
+          <t>abb_echarge_energy_30_day</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge_7d</t>
+          <t>abb_echarge_energy_7_day</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge_runtime</t>
+          <t>abb_echarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge_30d</t>
+          <t>abb_edischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
@@ -13879,7 +13879,7 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge_7d</t>
+          <t>abb_edischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
@@ -13940,7 +13940,7 @@
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge_runtime</t>
+          <t>abb_edischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
@@ -14001,7 +14001,7 @@
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_egridexport</t>
+          <t>abb_e_grid_export</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_egridimport</t>
+          <t>abb_e_grid_import</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -14123,7 +14123,7 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge</t>
+          <t>abb_e_tot_charge</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge_30d</t>
+          <t>abb_etotcharge_energy_30_day</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge_7d</t>
+          <t>abb_etotcharge_energy_7_day</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
@@ -14306,7 +14306,7 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge_runtime</t>
+          <t>abb_etotcharge_energy_lifetime</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge</t>
+          <t>abb_e_tot_discharge</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
@@ -14428,7 +14428,7 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge_30d</t>
+          <t>abb_etotdischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
@@ -14489,7 +14489,7 @@
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge_7d</t>
+          <t>abb_etotdischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -14550,7 +14550,7 @@
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge_runtime</t>
+          <t>abb_etotdischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -14611,7 +14611,7 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotal</t>
+          <t>abb_e_total</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr"/>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein</t>
+          <t>abb_input_energy</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr"/>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein_30d</t>
+          <t>abb_ein_energy_30_day</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr"/>
@@ -14794,7 +14794,7 @@
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein_7d</t>
+          <t>abb_ein_energy_7_day</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein_runtime</t>
+          <t>abb_ein_energy_lifetime</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -14916,7 +14916,7 @@
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_housepinverter</t>
+          <t>abb_house_p_inverter</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_housepgrid_tot</t>
+          <t>abb_house_power_grid_tot</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
@@ -15038,7 +15038,7 @@
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_meterpgrid_tot</t>
+          <t>abb_meter_power_grid_tot</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pbat</t>
+          <t>abb_pba_t</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr"/>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pgrid</t>
+          <t>abb_grid_power</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pin</t>
+          <t>abb_input_power</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr"/>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pin1</t>
+          <t>abb_pin_1</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr"/>
@@ -15343,7 +15343,7 @@
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pin2</t>
+          <t>abb_pin_2</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_qgrid</t>
+          <t>abb_grid_reactive_power</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>
@@ -15465,7 +15465,7 @@
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_temp1</t>
+          <t>abb_temp_1</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr"/>
@@ -15526,7 +15526,7 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_cosphi</t>
+          <t>abb_cos_phi</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -15587,7 +15587,7 @@
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_flash_free</t>
+          <t>abb_flash_free</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr">
@@ -15656,7 +15656,7 @@
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_free_ram</t>
+          <t>abb_free_ram</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr">
@@ -15725,7 +15725,7 @@
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_fw_ver</t>
+          <t>abb_fw_ver</t>
         </is>
       </c>
       <c r="E232" s="2" t="inlineStr">
@@ -15794,7 +15794,7 @@
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_apha</t>
+          <t>abb_m103_amps_phasea</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr">
@@ -15859,7 +15859,7 @@
       </c>
       <c r="D234" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_aphb</t>
+          <t>abb_m103_amps_phaseb</t>
         </is>
       </c>
       <c r="E234" s="2" t="inlineStr">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="D235" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_aphc</t>
+          <t>abb_m103_amps_phasec</t>
         </is>
       </c>
       <c r="E235" s="2" t="inlineStr">
@@ -16005,7 +16005,7 @@
       </c>
       <c r="D236" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_hza</t>
+          <t>abb_m103_frequency_phase_a</t>
         </is>
       </c>
       <c r="E236" s="2" t="inlineStr">
@@ -16074,7 +16074,7 @@
       </c>
       <c r="D237" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_hzb</t>
+          <t>abb_m103_frequency_phase_b</t>
         </is>
       </c>
       <c r="E237" s="2" t="inlineStr">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_hzc</t>
+          <t>abb_m103_frequency_phase_c</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="D239" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphab</t>
+          <t>abb_m103_phase_voltage_ab</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="D240" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphb</t>
+          <t>abb_m103_phase_voltage_bn</t>
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphbc</t>
+          <t>abb_m103_phase_voltage_bc</t>
         </is>
       </c>
       <c r="E241" s="2" t="inlineStr">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphc</t>
+          <t>abb_m103_phase_voltage_cn</t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="D243" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvphca</t>
+          <t>abb_m103_phase_voltage_ca</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr">
@@ -16577,7 +16577,7 @@
       </c>
       <c r="D244" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_powerpeakabs</t>
+          <t>abb_m103_peak_power_absolute</t>
         </is>
       </c>
       <c r="E244" s="2" t="inlineStr">
@@ -16650,7 +16650,7 @@
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_powerpeaktoday</t>
+          <t>abb_m103_peak_power_today</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr">
@@ -16715,7 +16715,7 @@
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_alarmst</t>
+          <t>abb_m64061_alarm_state</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
@@ -16784,7 +16784,7 @@
       </c>
       <c r="D247" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_booster_tmp</t>
+          <t>abb_m64061_boost_converter_temperature</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_daywh</t>
+          <t>abb_m64061_daily_energy</t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
@@ -16930,7 +16930,7 @@
       </c>
       <c r="D249" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_dcst1</t>
+          <t>abb_m64061_dc_input_1_state</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -16991,7 +16991,7 @@
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_dcst2</t>
+          <t>abb_m64061_dc_input_2_state</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -17052,7 +17052,7 @@
       </c>
       <c r="D251" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_globalst</t>
+          <t>abb_m64061_global_state</t>
         </is>
       </c>
       <c r="E251" s="3" t="inlineStr">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ileakdcac</t>
+          <t>abb_m64061_leakage_current_dc_ac</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="D253" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ileakdcdc</t>
+          <t>abb_m64061_leakage_current_dc_dc</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
@@ -17251,7 +17251,7 @@
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_inverterst</t>
+          <t>abb_m64061_inverter_state</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr">
@@ -17312,7 +17312,7 @@
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_isolation_ohm1</t>
+          <t>abb_m64061_isolation_resistance</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
@@ -17377,7 +17377,7 @@
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_monthwh</t>
+          <t>abb_m64061_monthly_energy</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_weekwh</t>
+          <t>abb_m64061_weekly_energy</t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_yearwh</t>
+          <t>abb_m64061_yearly_energy</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pn</t>
+          <t>abb_pn</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_sn</t>
+          <t>abb_sn</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr">
@@ -17718,7 +17718,7 @@
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_store_size</t>
+          <t>abb_store_size</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_sys_load</t>
+          <t>abb_sys_load</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr">
@@ -17856,7 +17856,7 @@
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_type</t>
+          <t>abb_type</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr">
@@ -17917,7 +17917,7 @@
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_uptime</t>
+          <t>abb_uptime</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr">
@@ -17986,7 +17986,7 @@
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_wlan0_essid</t>
+          <t>abb_wlan_0_essid</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr">
@@ -18047,7 +18047,7 @@
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_wlan0_ipaddr_local</t>
+          <t>abb_wlan_0_ipaddr_local</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_wlan0_link_quality</t>
+          <t>abb_wlan_0_link_quality</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr">
@@ -18169,7 +18169,7 @@
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_wlan0_mode</t>
+          <t>abb_wlan_0_mode</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr">
@@ -18230,7 +18230,7 @@
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_total</t>
+          <t>abb_e_6_total</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
@@ -18299,7 +18299,7 @@
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_total</t>
+          <t>abb_e_7_total</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge</t>
+          <t>abb_e_tot_charge</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr"/>
@@ -18437,7 +18437,7 @@
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge</t>
+          <t>abb_e_tot_discharge</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_flash_free</t>
+          <t>abb_flash_free</t>
         </is>
       </c>
       <c r="E273" s="2" t="inlineStr"/>
@@ -18571,7 +18571,7 @@
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_free_ram</t>
+          <t>abb_free_ram</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_fw_ver</t>
+          <t>abb_fw_ver</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr"/>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_store_size</t>
+          <t>abb_store_size</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_sys_load</t>
+          <t>abb_sys_load</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr"/>
@@ -18831,7 +18831,7 @@
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_uptime</t>
+          <t>abb_uptime</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr"/>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -4317,7 +4317,7 @@
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e0_1y</t>
+          <t>abb_m64061_e0_energy_yearly</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e0_30d</t>
+          <t>abb_m64061_e0_energy_30_day</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e0_7d</t>
+          <t>abb_m64061_e0_energy_7_day</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e0_runtime</t>
+          <t>abb_m64061_e0_energy_lifetime</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e15_30d</t>
+          <t>abb_m64061_e15_energy_30_day</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e15_7d</t>
+          <t>abb_m64061_e15_energy_7_day</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e15_runtime</t>
+          <t>abb_m64061_e15_energy_lifetime</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e1_30d</t>
+          <t>abb_m64061_e1_energy_30_day</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e1_7d</t>
+          <t>abb_m64061_e1_energy_7_day</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e1_runtime</t>
+          <t>abb_m64061_e1_energy_lifetime</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e2_30d</t>
+          <t>abb_m64061_e2_energy_30_day</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e2_7d</t>
+          <t>abb_m64061_e2_energy_7_day</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e2_runtime</t>
+          <t>abb_m64061_e2_energy_lifetime</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e3_30d</t>
+          <t>abb_m64061_e3_energy_30_day</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e3_7d</t>
+          <t>abb_m64061_e3_energy_7_day</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e3_runtime</t>
+          <t>abb_m64061_e3_energy_lifetime</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e4_30d</t>
+          <t>abb_m64061_e4_energy_30_day</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e4_7d</t>
+          <t>abb_m64061_e4_energy_7_day</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e4_runtime</t>
+          <t>abb_m64061_e4_energy_lifetime</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e5_30d</t>
+          <t>abb_m64061_e5_energy_30_day</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e5_7d</t>
+          <t>abb_m64061_e5_energy_7_day</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e5_runtime</t>
+          <t>abb_m64061_e5_energy_lifetime</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e6_30d</t>
+          <t>abb_m64061_e6_energy_30_day</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e6_7d</t>
+          <t>abb_m64061_e6_energy_7_day</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e6_runtime</t>
+          <t>abb_m64061_e6_energy_lifetime</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e7_30d</t>
+          <t>abb_m64061_e7_energy_30_day</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e7_7d</t>
+          <t>abb_m64061_e7_energy_7_day</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e7_runtime</t>
+          <t>abb_m64061_e7_energy_lifetime</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e8_30d</t>
+          <t>abb_m64061_e8_energy_30_day</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e8_7d</t>
+          <t>abb_m64061_e8_energy_7_day</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e8_runtime</t>
+          <t>abb_m64061_e8_energy_lifetime</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_echarge_30d</t>
+          <t>abb_m64061_echarge_energy_30_day</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_echarge_7d</t>
+          <t>abb_m64061_echarge_energy_7_day</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_echarge_runtime</t>
+          <t>abb_m64061_echarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_edischarge_30d</t>
+          <t>abb_m64061_edischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_edischarge_7d</t>
+          <t>abb_m64061_edischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_edischarge_runtime</t>
+          <t>abb_m64061_edischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotcharge_30d</t>
+          <t>abb_m64061_etotcharge_energy_30_day</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotcharge_7d</t>
+          <t>abb_m64061_etotcharge_energy_7_day</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotcharge_runtime</t>
+          <t>abb_m64061_etotcharge_energy_lifetime</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotdischarge_30d</t>
+          <t>abb_m64061_etotdischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotdischarge_7d</t>
+          <t>abb_m64061_etotdischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotdischarge_runtime</t>
+          <t>abb_m64061_etotdischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ein_30d</t>
+          <t>abb_m64061_ein_energy_30_day</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ein_7d</t>
+          <t>abb_m64061_ein_energy_7_day</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ein_runtime</t>
+          <t>abb_m64061_ein_energy_lifetime</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_alarmstate</t>
+          <t>abb_m64061_alarm_state</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_countrystd</t>
+          <t>abb_m64061_country_std</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_dc1state</t>
+          <t>abb_m64061_dc_1_state</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -7834,7 +7834,7 @@
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_dc2state</t>
+          <t>abb_m64061_dc_2_state</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_globstate</t>
+          <t>abb_m64061_glob_state</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ileakdc</t>
+          <t>abb_m64061_ileak_dc</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ileakinv</t>
+          <t>abb_m64061_ileak_inv</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_invstate</t>
+          <t>abb_m64061_inv_state</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_riso</t>
+          <t>abb_m64061_isolation_resistance</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_systime</t>
+          <t>abb_m64061_sys_time</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_tempbst</t>
+          <t>abb_m64061_boost_temperature</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_vbulk</t>
+          <t>abb_m64061_v_bulk</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_vbulkmid</t>
+          <t>abb_m64061_v_bulk_mid</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>abb_da</t>
+          <t>abb_m1_da</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
@@ -11566,13 +11566,21 @@
           <t>Device Info</t>
         </is>
       </c>
-      <c r="K164" s="2" t="inlineStr"/>
+      <c r="K164" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="L164" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M164" s="2" t="inlineStr"/>
+      <c r="M164" s="2" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
       <c r="N164" s="2" t="inlineStr">
         <is>
           <t>diagnostic</t>
@@ -11602,7 +11610,7 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>abb_md</t>
+          <t>abb_m1_md</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
@@ -11667,7 +11675,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>abb_mn</t>
+          <t>abb_m1_mn</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
@@ -11732,7 +11740,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>abb_opt</t>
+          <t>abb_m1_opt</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -11797,7 +11805,7 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>abb_sn</t>
+          <t>abb_m1_sn</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
@@ -11862,7 +11870,7 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>abb_vr</t>
+          <t>abb_m1_vr</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
@@ -11891,13 +11899,21 @@
           <t>Device Info</t>
         </is>
       </c>
-      <c r="K169" s="2" t="inlineStr"/>
+      <c r="K169" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
       <c r="L169" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M169" s="2" t="inlineStr"/>
+      <c r="M169" s="2" t="inlineStr">
+        <is>
+          <t>voltage</t>
+        </is>
+      </c>
       <c r="N169" s="2" t="inlineStr">
         <is>
           <t>diagnostic</t>
@@ -11927,7 +11943,7 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>abb_country_std</t>
+          <t>abb_vsn_country_std</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -11988,7 +12004,7 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>abb_e0_energy_yearly</t>
+          <t>abb_vsn_e0_energy_yearly</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -12049,7 +12065,7 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>abb_e0_energy_30_day</t>
+          <t>abb_vsn_e0_energy_30_day</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -12110,7 +12126,7 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>abb_e0_energy_7_day</t>
+          <t>abb_vsn_e0_energy_7_day</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
@@ -12171,7 +12187,7 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>abb_e0_energy_lifetime</t>
+          <t>abb_vsn_e0_energy_lifetime</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
@@ -12232,7 +12248,7 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>abb_e15_energy_30_day</t>
+          <t>abb_vsn_e15_energy_30_day</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
@@ -12293,7 +12309,7 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>abb_e15_energy_7_day</t>
+          <t>abb_vsn_e15_energy_7_day</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
@@ -12354,7 +12370,7 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>abb_e15_energy_lifetime</t>
+          <t>abb_vsn_e15_energy_lifetime</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
@@ -12415,7 +12431,7 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>abb_e1_energy_30_day</t>
+          <t>abb_vsn_e1_energy_30_day</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
@@ -12476,7 +12492,7 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>abb_e1_energy_7_day</t>
+          <t>abb_vsn_e1_energy_7_day</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -12537,7 +12553,7 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>abb_e1_energy_lifetime</t>
+          <t>abb_vsn_e1_energy_lifetime</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -12598,7 +12614,7 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>abb_e2_energy_30_day</t>
+          <t>abb_vsn_e2_energy_30_day</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
@@ -12659,7 +12675,7 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>abb_e2_energy_7_day</t>
+          <t>abb_vsn_e2_energy_7_day</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -12720,7 +12736,7 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>abb_e2_energy_lifetime</t>
+          <t>abb_vsn_e2_energy_lifetime</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -12781,7 +12797,7 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>abb_e3_energy_30_day</t>
+          <t>abb_vsn_e3_energy_30_day</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -12842,7 +12858,7 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>abb_e3_energy_7_day</t>
+          <t>abb_vsn_e3_energy_7_day</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -12903,7 +12919,7 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>abb_e3_energy_lifetime</t>
+          <t>abb_vsn_e3_energy_lifetime</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -12964,7 +12980,7 @@
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>abb_e6_energy_30_day</t>
+          <t>abb_vsn_e6_energy_30_day</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
@@ -13025,7 +13041,7 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>abb_e6_energy_7_day</t>
+          <t>abb_vsn_e6_energy_7_day</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
@@ -13086,7 +13102,7 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>abb_e6_energy_lifetime</t>
+          <t>abb_vsn_e6_energy_lifetime</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
@@ -13147,7 +13163,7 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>abb_e_6_total</t>
+          <t>abb_vsn_e_6_total</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
@@ -13208,7 +13224,7 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>abb_e7_energy_30_day</t>
+          <t>abb_vsn_e7_energy_30_day</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -13269,7 +13285,7 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>abb_e7_energy_7_day</t>
+          <t>abb_vsn_e7_energy_7_day</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
@@ -13330,7 +13346,7 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>abb_e7_energy_lifetime</t>
+          <t>abb_vsn_e7_energy_lifetime</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
@@ -13391,7 +13407,7 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>abb_e_7_total</t>
+          <t>abb_vsn_e_7_total</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -13452,7 +13468,7 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>abb_e8_energy_30_day</t>
+          <t>abb_vsn_e8_energy_30_day</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -13513,7 +13529,7 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>abb_e8_energy_7_day</t>
+          <t>abb_vsn_e8_energy_7_day</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -13574,7 +13590,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>abb_e8_energy_lifetime</t>
+          <t>abb_vsn_e8_energy_lifetime</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -13635,7 +13651,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>abb_echarge_energy_30_day</t>
+          <t>abb_vsn_echarge_energy_30_day</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -13696,7 +13712,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>abb_echarge_energy_7_day</t>
+          <t>abb_vsn_echarge_energy_7_day</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -13757,7 +13773,7 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>abb_echarge_energy_lifetime</t>
+          <t>abb_vsn_echarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -13818,7 +13834,7 @@
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>abb_edischarge_energy_30_day</t>
+          <t>abb_vsn_edischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
@@ -13879,7 +13895,7 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>abb_edischarge_energy_7_day</t>
+          <t>abb_vsn_edischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
@@ -13940,7 +13956,7 @@
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>abb_edischarge_energy_lifetime</t>
+          <t>abb_vsn_edischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
@@ -14001,7 +14017,7 @@
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>abb_e_grid_export</t>
+          <t>abb_vsn_e_grid_export</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -14062,7 +14078,7 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>abb_e_grid_import</t>
+          <t>abb_vsn_e_grid_import</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -14123,7 +14139,7 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>abb_e_tot_charge</t>
+          <t>abb_vsn_e_tot_charge</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -14184,7 +14200,7 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>abb_etotcharge_energy_30_day</t>
+          <t>abb_vsn_etotcharge_energy_30_day</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
@@ -14245,7 +14261,7 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>abb_etotcharge_energy_7_day</t>
+          <t>abb_vsn_etotcharge_energy_7_day</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
@@ -14306,7 +14322,7 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>abb_etotcharge_energy_lifetime</t>
+          <t>abb_vsn_etotcharge_energy_lifetime</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
@@ -14367,7 +14383,7 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>abb_e_tot_discharge</t>
+          <t>abb_vsn_e_tot_discharge</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
@@ -14428,7 +14444,7 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>abb_etotdischarge_energy_30_day</t>
+          <t>abb_vsn_etotdischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
@@ -14489,7 +14505,7 @@
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>abb_etotdischarge_energy_7_day</t>
+          <t>abb_vsn_etotdischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -14550,7 +14566,7 @@
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>abb_etotdischarge_energy_lifetime</t>
+          <t>abb_vsn_etotdischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -14611,7 +14627,7 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>abb_e_total</t>
+          <t>abb_vsn_e_total</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr"/>
@@ -14672,7 +14688,7 @@
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>abb_input_energy</t>
+          <t>abb_vsn_input_energy</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr"/>
@@ -14733,7 +14749,7 @@
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>abb_ein_energy_30_day</t>
+          <t>abb_vsn_ein_energy_30_day</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr"/>
@@ -14794,7 +14810,7 @@
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>abb_ein_energy_7_day</t>
+          <t>abb_vsn_ein_energy_7_day</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
@@ -14855,7 +14871,7 @@
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>abb_ein_energy_lifetime</t>
+          <t>abb_vsn_ein_energy_lifetime</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -14916,7 +14932,7 @@
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>abb_house_p_inverter</t>
+          <t>abb_vsn_house_p_inverter</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
@@ -14977,7 +14993,7 @@
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>abb_house_power_grid_tot</t>
+          <t>abb_vsn_house_power_grid_tot</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
@@ -15038,7 +15054,7 @@
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>abb_meter_power_grid_tot</t>
+          <t>abb_vsn_meter_power_grid_tot</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -15099,7 +15115,7 @@
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>abb_pba_t</t>
+          <t>abb_vsn_pba_t</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr"/>
@@ -15160,7 +15176,7 @@
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>abb_grid_power</t>
+          <t>abb_vsn_grid_power</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
@@ -15221,7 +15237,7 @@
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>abb_input_power</t>
+          <t>abb_vsn_input_power</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr"/>
@@ -15282,7 +15298,7 @@
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>abb_pin_1</t>
+          <t>abb_vsn_pin_1</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr"/>
@@ -15343,7 +15359,7 @@
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>abb_pin_2</t>
+          <t>abb_vsn_pin_2</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr"/>
@@ -15404,7 +15420,7 @@
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>abb_grid_reactive_power</t>
+          <t>abb_vsn_grid_reactive_power</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>
@@ -15465,7 +15481,7 @@
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>abb_temp_1</t>
+          <t>abb_vsn_temp_1</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr"/>
@@ -15526,7 +15542,7 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>abb_cos_phi</t>
+          <t>abb_vsn_cos_phi</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -15587,7 +15603,7 @@
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>abb_flash_free</t>
+          <t>abb_vsn_flash_free</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr">
@@ -15656,7 +15672,7 @@
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>abb_free_ram</t>
+          <t>abb_vsn_free_ram</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr">
@@ -15725,7 +15741,7 @@
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>abb_fw_ver</t>
+          <t>abb_vsn_fw_ver</t>
         </is>
       </c>
       <c r="E232" s="2" t="inlineStr">
@@ -17596,7 +17612,7 @@
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>abb_pn</t>
+          <t>abb_vsn_pn</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr">
@@ -17657,7 +17673,7 @@
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>abb_sn</t>
+          <t>abb_vsn_sn</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr">
@@ -17718,7 +17734,7 @@
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>abb_store_size</t>
+          <t>abb_vsn_store_size</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr">
@@ -17787,7 +17803,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>abb_sys_load</t>
+          <t>abb_vsn_sys_load</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr">
@@ -17856,7 +17872,7 @@
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>abb_type</t>
+          <t>abb_vsn_type</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr">
@@ -17917,7 +17933,7 @@
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>abb_uptime</t>
+          <t>abb_vsn_uptime</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr">
@@ -17986,7 +18002,7 @@
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>abb_wlan_0_essid</t>
+          <t>abb_vsn_wlan_0_essid</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr">
@@ -18047,7 +18063,7 @@
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>abb_wlan_0_ipaddr_local</t>
+          <t>abb_vsn_wlan_0_ipaddr_local</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr">
@@ -18108,7 +18124,7 @@
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>abb_wlan_0_link_quality</t>
+          <t>abb_vsn_wlan_0_link_quality</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr">
@@ -18169,7 +18185,7 @@
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>abb_wlan_0_mode</t>
+          <t>abb_vsn_wlan_0_mode</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr">
@@ -18230,7 +18246,7 @@
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>abb_e_6_total</t>
+          <t>abb_vsn_e_6_total</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
@@ -18299,7 +18315,7 @@
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>abb_e_7_total</t>
+          <t>abb_vsn_e_7_total</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
@@ -18368,7 +18384,7 @@
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>abb_e_tot_charge</t>
+          <t>abb_vsn_e_tot_charge</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr"/>
@@ -18437,7 +18453,7 @@
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>abb_e_tot_discharge</t>
+          <t>abb_vsn_e_tot_discharge</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -18506,7 +18522,7 @@
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>abb_flash_free</t>
+          <t>abb_vsn_flash_free</t>
         </is>
       </c>
       <c r="E273" s="2" t="inlineStr"/>
@@ -18571,7 +18587,7 @@
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>abb_free_ram</t>
+          <t>abb_vsn_free_ram</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>
@@ -18636,7 +18652,7 @@
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>abb_fw_ver</t>
+          <t>abb_vsn_fw_ver</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr"/>
@@ -18701,7 +18717,7 @@
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>abb_store_size</t>
+          <t>abb_vsn_store_size</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr"/>
@@ -18766,7 +18782,7 @@
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>abb_sys_load</t>
+          <t>abb_vsn_sys_load</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr"/>
@@ -18831,7 +18847,7 @@
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>abb_uptime</t>
+          <t>abb_vsn_uptime</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr"/>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -15843,13 +15843,21 @@
           <t>Inverter</t>
         </is>
       </c>
-      <c r="K233" s="2" t="inlineStr"/>
+      <c r="K233" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M233" s="2" t="inlineStr"/>
+      <c r="M233" s="2" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
       <c r="N233" s="2" t="inlineStr"/>
       <c r="O233" s="2" t="inlineStr">
         <is>
@@ -16699,13 +16707,21 @@
           <t>Inverter</t>
         </is>
       </c>
-      <c r="K245" s="2" t="inlineStr"/>
+      <c r="K245" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L245" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M245" s="2" t="inlineStr"/>
+      <c r="M245" s="2" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N245" s="2" t="inlineStr"/>
       <c r="O245" s="2" t="inlineStr">
         <is>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -7995,7 +7995,11 @@
           <t>measurement</t>
         </is>
       </c>
-      <c r="M107" s="3" t="inlineStr"/>
+      <c r="M107" s="3" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
       <c r="N107" s="3" t="inlineStr"/>
       <c r="O107" s="3" t="inlineStr">
         <is>
@@ -8060,7 +8064,11 @@
           <t>measurement</t>
         </is>
       </c>
-      <c r="M108" s="3" t="inlineStr"/>
+      <c r="M108" s="3" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
       <c r="N108" s="3" t="inlineStr"/>
       <c r="O108" s="3" t="inlineStr">
         <is>
@@ -8176,13 +8184,21 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="K110" s="3" t="inlineStr"/>
+      <c r="K110" s="3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L110" s="3" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M110" s="3" t="inlineStr"/>
+      <c r="M110" s="3" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N110" s="3" t="inlineStr"/>
       <c r="O110" s="3" t="inlineStr">
         <is>
@@ -8237,7 +8253,11 @@
           <t>Isolation</t>
         </is>
       </c>
-      <c r="K111" s="3" t="inlineStr"/>
+      <c r="K111" s="3" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
       <c r="L111" s="3" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -8359,13 +8379,21 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="K113" s="3" t="inlineStr"/>
+      <c r="K113" s="3" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
       <c r="L113" s="3" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M113" s="3" t="inlineStr"/>
+      <c r="M113" s="3" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
       <c r="N113" s="3" t="inlineStr"/>
       <c r="O113" s="3" t="inlineStr">
         <is>
@@ -8871,7 +8899,11 @@
           <t>Battery Ext</t>
         </is>
       </c>
-      <c r="K121" s="4" t="inlineStr"/>
+      <c r="K121" s="4" t="inlineStr">
+        <is>
+          <t>Ah</t>
+        </is>
+      </c>
       <c r="L121" s="4" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -9298,7 +9330,11 @@
           <t>Battery Ext</t>
         </is>
       </c>
-      <c r="K128" s="4" t="inlineStr"/>
+      <c r="K128" s="4" t="inlineStr">
+        <is>
+          <t>Ah</t>
+        </is>
+      </c>
       <c r="L128" s="4" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -9420,13 +9456,21 @@
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K130" s="4" t="inlineStr"/>
+      <c r="K130" s="4" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L130" s="4" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M130" s="4" t="inlineStr"/>
+      <c r="M130" s="4" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N130" s="4" t="inlineStr"/>
       <c r="O130" s="4" t="inlineStr">
         <is>
@@ -9481,13 +9525,21 @@
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K131" s="4" t="inlineStr"/>
+      <c r="K131" s="4" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L131" s="4" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M131" s="4" t="inlineStr"/>
+      <c r="M131" s="4" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N131" s="4" t="inlineStr"/>
       <c r="O131" s="4" t="inlineStr">
         <is>
@@ -9542,13 +9594,21 @@
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K132" s="4" t="inlineStr"/>
+      <c r="K132" s="4" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L132" s="4" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M132" s="4" t="inlineStr"/>
+      <c r="M132" s="4" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N132" s="4" t="inlineStr"/>
       <c r="O132" s="4" t="inlineStr">
         <is>
@@ -9603,13 +9663,21 @@
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K133" s="4" t="inlineStr"/>
+      <c r="K133" s="4" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L133" s="4" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M133" s="4" t="inlineStr"/>
+      <c r="M133" s="4" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N133" s="4" t="inlineStr"/>
       <c r="O133" s="4" t="inlineStr">
         <is>
@@ -9664,13 +9732,21 @@
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K134" s="4" t="inlineStr"/>
+      <c r="K134" s="4" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L134" s="4" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M134" s="4" t="inlineStr"/>
+      <c r="M134" s="4" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N134" s="4" t="inlineStr"/>
       <c r="O134" s="4" t="inlineStr">
         <is>
@@ -9725,13 +9801,21 @@
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K135" s="4" t="inlineStr"/>
+      <c r="K135" s="4" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L135" s="4" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M135" s="4" t="inlineStr"/>
+      <c r="M135" s="4" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N135" s="4" t="inlineStr"/>
       <c r="O135" s="4" t="inlineStr">
         <is>
@@ -9786,13 +9870,21 @@
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K136" s="4" t="inlineStr"/>
+      <c r="K136" s="4" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L136" s="4" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M136" s="4" t="inlineStr"/>
+      <c r="M136" s="4" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N136" s="4" t="inlineStr"/>
       <c r="O136" s="4" t="inlineStr">
         <is>
@@ -9847,13 +9939,21 @@
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K137" s="4" t="inlineStr"/>
+      <c r="K137" s="4" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L137" s="4" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M137" s="4" t="inlineStr"/>
+      <c r="M137" s="4" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N137" s="4" t="inlineStr"/>
       <c r="O137" s="4" t="inlineStr">
         <is>
@@ -9908,13 +10008,21 @@
           <t>Energy Counter</t>
         </is>
       </c>
-      <c r="K138" s="4" t="inlineStr"/>
+      <c r="K138" s="4" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L138" s="4" t="inlineStr">
         <is>
           <t>total_increasing</t>
         </is>
       </c>
-      <c r="M138" s="4" t="inlineStr"/>
+      <c r="M138" s="4" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N138" s="4" t="inlineStr"/>
       <c r="O138" s="4" t="inlineStr">
         <is>
@@ -9972,7 +10080,7 @@
       <c r="K139" s="4" t="inlineStr"/>
       <c r="L139" s="4" t="inlineStr">
         <is>
-          <t>total_increasing</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="M139" s="4" t="inlineStr"/>
@@ -12033,13 +12141,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K171" s="2" t="inlineStr"/>
+      <c r="K171" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M171" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M171" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N171" s="2" t="inlineStr"/>
       <c r="O171" s="2" t="inlineStr">
         <is>
@@ -12094,13 +12210,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K172" s="2" t="inlineStr"/>
+      <c r="K172" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M172" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M172" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N172" s="2" t="inlineStr"/>
       <c r="O172" s="2" t="inlineStr">
         <is>
@@ -12155,13 +12279,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K173" s="2" t="inlineStr"/>
+      <c r="K173" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M173" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M173" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N173" s="2" t="inlineStr"/>
       <c r="O173" s="2" t="inlineStr">
         <is>
@@ -12216,13 +12348,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K174" s="2" t="inlineStr"/>
+      <c r="K174" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M174" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M174" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N174" s="2" t="inlineStr"/>
       <c r="O174" s="2" t="inlineStr">
         <is>
@@ -12277,13 +12417,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K175" s="2" t="inlineStr"/>
+      <c r="K175" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M175" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M175" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N175" s="2" t="inlineStr"/>
       <c r="O175" s="2" t="inlineStr">
         <is>
@@ -12338,13 +12486,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K176" s="2" t="inlineStr"/>
+      <c r="K176" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M176" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M176" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N176" s="2" t="inlineStr"/>
       <c r="O176" s="2" t="inlineStr">
         <is>
@@ -12399,13 +12555,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K177" s="2" t="inlineStr"/>
+      <c r="K177" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M177" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M177" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N177" s="2" t="inlineStr"/>
       <c r="O177" s="2" t="inlineStr">
         <is>
@@ -12460,13 +12624,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K178" s="2" t="inlineStr"/>
+      <c r="K178" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M178" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M178" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N178" s="2" t="inlineStr"/>
       <c r="O178" s="2" t="inlineStr">
         <is>
@@ -12521,13 +12693,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K179" s="2" t="inlineStr"/>
+      <c r="K179" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M179" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M179" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N179" s="2" t="inlineStr"/>
       <c r="O179" s="2" t="inlineStr">
         <is>
@@ -12582,13 +12762,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K180" s="2" t="inlineStr"/>
+      <c r="K180" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M180" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M180" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N180" s="2" t="inlineStr"/>
       <c r="O180" s="2" t="inlineStr">
         <is>
@@ -12643,7 +12831,11 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr">
+        <is>
+          <t>VAh</t>
+        </is>
+      </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -12704,7 +12896,11 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K182" s="2" t="inlineStr"/>
+      <c r="K182" s="2" t="inlineStr">
+        <is>
+          <t>VAh</t>
+        </is>
+      </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -12765,7 +12961,11 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K183" s="2" t="inlineStr"/>
+      <c r="K183" s="2" t="inlineStr">
+        <is>
+          <t>VAh</t>
+        </is>
+      </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -12826,13 +13026,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K184" s="2" t="inlineStr"/>
+      <c r="K184" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M184" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M184" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N184" s="2" t="inlineStr"/>
       <c r="O184" s="2" t="inlineStr">
         <is>
@@ -12887,13 +13095,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K185" s="2" t="inlineStr"/>
+      <c r="K185" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M185" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M185" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N185" s="2" t="inlineStr"/>
       <c r="O185" s="2" t="inlineStr">
         <is>
@@ -12948,13 +13164,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K186" s="2" t="inlineStr"/>
+      <c r="K186" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M186" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M186" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N186" s="2" t="inlineStr"/>
       <c r="O186" s="2" t="inlineStr">
         <is>
@@ -13009,13 +13233,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K187" s="2" t="inlineStr"/>
+      <c r="K187" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L187" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M187" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M187" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N187" s="2" t="inlineStr"/>
       <c r="O187" s="2" t="inlineStr">
         <is>
@@ -13070,13 +13302,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K188" s="2" t="inlineStr"/>
+      <c r="K188" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L188" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M188" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M188" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N188" s="2" t="inlineStr"/>
       <c r="O188" s="2" t="inlineStr">
         <is>
@@ -13131,13 +13371,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K189" s="2" t="inlineStr"/>
+      <c r="K189" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L189" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M189" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M189" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N189" s="2" t="inlineStr"/>
       <c r="O189" s="2" t="inlineStr">
         <is>
@@ -13192,13 +13440,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K190" s="2" t="inlineStr"/>
+      <c r="K190" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L190" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M190" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M190" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N190" s="2" t="inlineStr"/>
       <c r="O190" s="2" t="inlineStr">
         <is>
@@ -13253,13 +13509,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K191" s="2" t="inlineStr"/>
+      <c r="K191" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L191" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M191" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M191" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N191" s="2" t="inlineStr"/>
       <c r="O191" s="2" t="inlineStr">
         <is>
@@ -13314,13 +13578,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K192" s="2" t="inlineStr"/>
+      <c r="K192" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L192" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M192" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M192" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N192" s="2" t="inlineStr"/>
       <c r="O192" s="2" t="inlineStr">
         <is>
@@ -13375,13 +13647,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K193" s="2" t="inlineStr"/>
+      <c r="K193" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M193" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M193" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N193" s="2" t="inlineStr"/>
       <c r="O193" s="2" t="inlineStr">
         <is>
@@ -13436,13 +13716,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K194" s="2" t="inlineStr"/>
+      <c r="K194" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M194" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M194" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N194" s="2" t="inlineStr"/>
       <c r="O194" s="2" t="inlineStr">
         <is>
@@ -13497,13 +13785,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K195" s="2" t="inlineStr"/>
+      <c r="K195" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M195" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M195" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N195" s="2" t="inlineStr"/>
       <c r="O195" s="2" t="inlineStr">
         <is>
@@ -13558,13 +13854,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K196" s="2" t="inlineStr"/>
+      <c r="K196" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M196" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M196" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N196" s="2" t="inlineStr"/>
       <c r="O196" s="2" t="inlineStr">
         <is>
@@ -13619,13 +13923,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K197" s="2" t="inlineStr"/>
+      <c r="K197" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M197" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M197" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N197" s="2" t="inlineStr"/>
       <c r="O197" s="2" t="inlineStr">
         <is>
@@ -13680,13 +13992,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K198" s="2" t="inlineStr"/>
+      <c r="K198" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M198" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M198" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N198" s="2" t="inlineStr"/>
       <c r="O198" s="2" t="inlineStr">
         <is>
@@ -13741,13 +14061,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K199" s="2" t="inlineStr"/>
+      <c r="K199" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M199" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M199" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N199" s="2" t="inlineStr"/>
       <c r="O199" s="2" t="inlineStr">
         <is>
@@ -13802,13 +14130,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K200" s="2" t="inlineStr"/>
+      <c r="K200" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M200" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M200" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N200" s="2" t="inlineStr"/>
       <c r="O200" s="2" t="inlineStr">
         <is>
@@ -13863,13 +14199,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K201" s="2" t="inlineStr"/>
+      <c r="K201" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L201" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M201" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M201" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N201" s="2" t="inlineStr"/>
       <c r="O201" s="2" t="inlineStr">
         <is>
@@ -13924,13 +14268,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K202" s="2" t="inlineStr"/>
+      <c r="K202" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M202" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M202" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N202" s="2" t="inlineStr"/>
       <c r="O202" s="2" t="inlineStr">
         <is>
@@ -13985,13 +14337,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K203" s="2" t="inlineStr"/>
+      <c r="K203" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L203" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M203" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M203" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N203" s="2" t="inlineStr"/>
       <c r="O203" s="2" t="inlineStr">
         <is>
@@ -14046,13 +14406,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K204" s="2" t="inlineStr"/>
+      <c r="K204" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M204" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M204" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N204" s="2" t="inlineStr"/>
       <c r="O204" s="2" t="inlineStr">
         <is>
@@ -14107,13 +14475,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K205" s="2" t="inlineStr"/>
+      <c r="K205" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M205" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M205" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N205" s="2" t="inlineStr"/>
       <c r="O205" s="2" t="inlineStr">
         <is>
@@ -14168,13 +14544,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K206" s="2" t="inlineStr"/>
+      <c r="K206" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M206" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M206" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N206" s="2" t="inlineStr"/>
       <c r="O206" s="2" t="inlineStr">
         <is>
@@ -14229,13 +14613,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K207" s="2" t="inlineStr"/>
+      <c r="K207" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M207" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M207" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N207" s="2" t="inlineStr"/>
       <c r="O207" s="2" t="inlineStr">
         <is>
@@ -14290,13 +14682,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K208" s="2" t="inlineStr"/>
+      <c r="K208" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M208" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M208" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N208" s="2" t="inlineStr"/>
       <c r="O208" s="2" t="inlineStr">
         <is>
@@ -14351,13 +14751,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K209" s="2" t="inlineStr"/>
+      <c r="K209" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M209" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M209" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N209" s="2" t="inlineStr"/>
       <c r="O209" s="2" t="inlineStr">
         <is>
@@ -14412,13 +14820,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K210" s="2" t="inlineStr"/>
+      <c r="K210" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M210" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M210" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N210" s="2" t="inlineStr"/>
       <c r="O210" s="2" t="inlineStr">
         <is>
@@ -14473,13 +14889,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K211" s="2" t="inlineStr"/>
+      <c r="K211" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M211" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M211" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N211" s="2" t="inlineStr"/>
       <c r="O211" s="2" t="inlineStr">
         <is>
@@ -14534,13 +14958,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K212" s="2" t="inlineStr"/>
+      <c r="K212" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M212" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M212" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N212" s="2" t="inlineStr"/>
       <c r="O212" s="2" t="inlineStr">
         <is>
@@ -14595,13 +15027,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K213" s="2" t="inlineStr"/>
+      <c r="K213" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M213" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M213" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N213" s="2" t="inlineStr"/>
       <c r="O213" s="2" t="inlineStr">
         <is>
@@ -14656,13 +15096,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K214" s="2" t="inlineStr"/>
+      <c r="K214" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M214" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M214" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N214" s="2" t="inlineStr"/>
       <c r="O214" s="2" t="inlineStr">
         <is>
@@ -14717,13 +15165,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K215" s="2" t="inlineStr"/>
+      <c r="K215" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M215" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M215" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N215" s="2" t="inlineStr"/>
       <c r="O215" s="2" t="inlineStr">
         <is>
@@ -14778,13 +15234,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K216" s="2" t="inlineStr"/>
+      <c r="K216" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M216" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M216" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N216" s="2" t="inlineStr"/>
       <c r="O216" s="2" t="inlineStr">
         <is>
@@ -14839,13 +15303,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K217" s="2" t="inlineStr"/>
+      <c r="K217" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M217" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M217" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N217" s="2" t="inlineStr"/>
       <c r="O217" s="2" t="inlineStr">
         <is>
@@ -14900,13 +15372,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K218" s="2" t="inlineStr"/>
+      <c r="K218" s="2" t="inlineStr">
+        <is>
+          <t>Wh</t>
+        </is>
+      </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="M218" s="2" t="inlineStr"/>
+          <t>total_increasing</t>
+        </is>
+      </c>
+      <c r="M218" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
       <c r="N218" s="2" t="inlineStr"/>
       <c r="O218" s="2" t="inlineStr">
         <is>
@@ -14961,13 +15441,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K219" s="2" t="inlineStr"/>
+      <c r="K219" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M219" s="2" t="inlineStr"/>
+      <c r="M219" s="2" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N219" s="2" t="inlineStr"/>
       <c r="O219" s="2" t="inlineStr">
         <is>
@@ -15022,13 +15510,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K220" s="2" t="inlineStr"/>
+      <c r="K220" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M220" s="2" t="inlineStr"/>
+      <c r="M220" s="2" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N220" s="2" t="inlineStr"/>
       <c r="O220" s="2" t="inlineStr">
         <is>
@@ -15083,13 +15579,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K221" s="2" t="inlineStr"/>
+      <c r="K221" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M221" s="2" t="inlineStr"/>
+      <c r="M221" s="2" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N221" s="2" t="inlineStr"/>
       <c r="O221" s="2" t="inlineStr">
         <is>
@@ -15144,13 +15648,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K222" s="2" t="inlineStr"/>
+      <c r="K222" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M222" s="2" t="inlineStr"/>
+      <c r="M222" s="2" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N222" s="2" t="inlineStr"/>
       <c r="O222" s="2" t="inlineStr">
         <is>
@@ -15205,13 +15717,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K223" s="2" t="inlineStr"/>
+      <c r="K223" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M223" s="2" t="inlineStr"/>
+      <c r="M223" s="2" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N223" s="2" t="inlineStr"/>
       <c r="O223" s="2" t="inlineStr">
         <is>
@@ -15266,13 +15786,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K224" s="2" t="inlineStr"/>
+      <c r="K224" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M224" s="2" t="inlineStr"/>
+      <c r="M224" s="2" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N224" s="2" t="inlineStr"/>
       <c r="O224" s="2" t="inlineStr">
         <is>
@@ -15327,13 +15855,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K225" s="2" t="inlineStr"/>
+      <c r="K225" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M225" s="2" t="inlineStr"/>
+      <c r="M225" s="2" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N225" s="2" t="inlineStr"/>
       <c r="O225" s="2" t="inlineStr">
         <is>
@@ -15388,13 +15924,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K226" s="2" t="inlineStr"/>
+      <c r="K226" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M226" s="2" t="inlineStr"/>
+      <c r="M226" s="2" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N226" s="2" t="inlineStr"/>
       <c r="O226" s="2" t="inlineStr">
         <is>
@@ -15449,7 +15993,11 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K227" s="2" t="inlineStr"/>
+      <c r="K227" s="2" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -15510,13 +16058,21 @@
           <t>Unknown</t>
         </is>
       </c>
-      <c r="K228" s="2" t="inlineStr"/>
+      <c r="K228" s="2" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M228" s="2" t="inlineStr"/>
+      <c r="M228" s="2" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
       <c r="N228" s="2" t="inlineStr"/>
       <c r="O228" s="2" t="inlineStr">
         <is>
@@ -15636,7 +16192,11 @@
           <t>System Monitoring</t>
         </is>
       </c>
-      <c r="K230" s="2" t="inlineStr"/>
+      <c r="K230" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="L230" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -15705,7 +16265,11 @@
           <t>System Monitoring</t>
         </is>
       </c>
-      <c r="K231" s="2" t="inlineStr"/>
+      <c r="K231" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -16563,7 +17127,7 @@
       </c>
       <c r="K243" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>V</t>
         </is>
       </c>
       <c r="L243" s="2" t="inlineStr">
@@ -16573,7 +17137,7 @@
       </c>
       <c r="M243" s="2" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>voltage</t>
         </is>
       </c>
       <c r="N243" s="2" t="inlineStr"/>
@@ -16636,7 +17200,7 @@
       </c>
       <c r="K244" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>W</t>
         </is>
       </c>
       <c r="L244" s="2" t="inlineStr">
@@ -16646,7 +17210,7 @@
       </c>
       <c r="M244" s="2" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>power</t>
         </is>
       </c>
       <c r="N244" s="2" t="inlineStr"/>
@@ -17180,7 +17744,7 @@
       </c>
       <c r="K252" s="3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>uA</t>
         </is>
       </c>
       <c r="L252" s="3" t="inlineStr">
@@ -17251,13 +17815,21 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="K253" s="3" t="inlineStr"/>
+      <c r="K253" s="3" t="inlineStr">
+        <is>
+          <t>uA</t>
+        </is>
+      </c>
       <c r="L253" s="3" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M253" s="3" t="inlineStr"/>
+      <c r="M253" s="3" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
       <c r="N253" s="3" t="inlineStr"/>
       <c r="O253" s="3" t="inlineStr">
         <is>
@@ -17377,7 +17949,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="K255" s="3" t="inlineStr"/>
+      <c r="K255" s="3" t="inlineStr">
+        <is>
+          <t>MOhm</t>
+        </is>
+      </c>
       <c r="L255" s="3" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -17783,7 +18359,11 @@
           <t>System Monitoring</t>
         </is>
       </c>
-      <c r="K261" s="2" t="inlineStr"/>
+      <c r="K261" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="L261" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
@@ -17982,13 +18562,21 @@
           <t>System Monitoring</t>
         </is>
       </c>
-      <c r="K264" s="2" t="inlineStr"/>
+      <c r="K264" s="2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="L264" s="2" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M264" s="2" t="inlineStr"/>
+      <c r="M264" s="2" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
       <c r="N264" s="2" t="inlineStr">
         <is>
           <t>diagnostic</t>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -17200,7 +17200,7 @@
       </c>
       <c r="K244" s="2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="L244" s="2" t="inlineStr">
@@ -17273,7 +17273,7 @@
       </c>
       <c r="K245" s="2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="L245" s="2" t="inlineStr">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="K248" s="3" t="inlineStr">
         <is>
-          <t>Wh</t>
+          <t>kWh</t>
         </is>
       </c>
       <c r="L248" s="3" t="inlineStr">
@@ -18020,7 +18020,7 @@
       </c>
       <c r="K256" s="3" t="inlineStr">
         <is>
-          <t>Wh</t>
+          <t>kWh</t>
         </is>
       </c>
       <c r="L256" s="3" t="inlineStr">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="K257" s="3" t="inlineStr">
         <is>
-          <t>Wh</t>
+          <t>kWh</t>
         </is>
       </c>
       <c r="L257" s="3" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="K258" s="3" t="inlineStr">
         <is>
-          <t>Wh</t>
+          <t>kWh</t>
         </is>
       </c>
       <c r="L258" s="3" t="inlineStr">

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -10532,13 +10532,21 @@
           <t>House Meter</t>
         </is>
       </c>
-      <c r="K146" s="4" t="inlineStr"/>
+      <c r="K146" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L146" s="4" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M146" s="4" t="inlineStr"/>
+      <c r="M146" s="4" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N146" s="4" t="inlineStr"/>
       <c r="O146" s="4" t="inlineStr">
         <is>
@@ -11056,13 +11064,21 @@
           <t>Hybrid</t>
         </is>
       </c>
-      <c r="K154" s="4" t="inlineStr"/>
+      <c r="K154" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L154" s="4" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="M154" s="4" t="inlineStr"/>
+      <c r="M154" s="4" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
       <c r="N154" s="4" t="inlineStr"/>
       <c r="O154" s="4" t="inlineStr">
         <is>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -482,7 +482,7 @@
     <col width="17" customWidth="1" min="17" max="17"/>
     <col width="17" customWidth="1" min="18" max="18"/>
     <col width="21" customWidth="1" min="19" max="19"/>
-    <col width="33" customWidth="1" min="20" max="20"/>
+    <col width="40" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15445,12 +15445,12 @@
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>Modbus device address</t>
+          <t>Device Address</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>Modbus device address</t>
+          <t>Device Address</t>
         </is>
       </c>
       <c r="J164" s="2" t="inlineStr">
@@ -15505,7 +15505,7 @@
       </c>
       <c r="T164" s="2" t="inlineStr">
         <is>
-          <t>SunSpec Description (M1)</t>
+          <t>SunSpec Label (M1) - generic description</t>
         </is>
       </c>
     </row>
@@ -15543,12 +15543,12 @@
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>Manufacturer specific value (32 chars)</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>Manufacturer specific value (32 chars)</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="J165" s="2" t="inlineStr">
@@ -15587,7 +15587,7 @@
       </c>
       <c r="T165" s="2" t="inlineStr">
         <is>
-          <t>SunSpec Description (M1)</t>
+          <t>SunSpec Label (M1) - generic description</t>
         </is>
       </c>
     </row>
@@ -15625,12 +15625,12 @@
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>Well known value registered with SunSpec for compliance</t>
+          <t>Manufacturer</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
         <is>
-          <t>Well known value registered with SunSpec for compliance</t>
+          <t>Manufacturer</t>
         </is>
       </c>
       <c r="J166" s="2" t="inlineStr">
@@ -15669,7 +15669,7 @@
       </c>
       <c r="T166" s="2" t="inlineStr">
         <is>
-          <t>SunSpec Description (M1)</t>
+          <t>SunSpec Label (M1) - generic description</t>
         </is>
       </c>
     </row>
@@ -15707,12 +15707,12 @@
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>Manufacturer specific value (16 chars)</t>
+          <t>Options</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
         <is>
-          <t>Manufacturer specific value (16 chars)</t>
+          <t>Options</t>
         </is>
       </c>
       <c r="J167" s="2" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="T167" s="2" t="inlineStr">
         <is>
-          <t>SunSpec Description (M1)</t>
+          <t>SunSpec Label (M1) - generic description</t>
         </is>
       </c>
     </row>
@@ -15789,12 +15789,12 @@
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>Manufacturer specific value (32 chars)</t>
+          <t>Serial Number</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
         <is>
-          <t>Manufacturer specific value (32 chars)</t>
+          <t>Serial Number</t>
         </is>
       </c>
       <c r="J168" s="2" t="inlineStr">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="T168" s="2" t="inlineStr">
         <is>
-          <t>SunSpec Description (M1)</t>
+          <t>SunSpec Label (M1) - generic description</t>
         </is>
       </c>
     </row>
@@ -15871,12 +15871,12 @@
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>Manufacturer specific value (16 chars)</t>
+          <t>Version</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
         <is>
-          <t>Manufacturer specific value (16 chars)</t>
+          <t>Version</t>
         </is>
       </c>
       <c r="J169" s="2" t="inlineStr">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="T169" s="2" t="inlineStr">
         <is>
-          <t>SunSpec Description (M1)</t>
+          <t>SunSpec Label (M1) - generic description</t>
         </is>
       </c>
     </row>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -23629,12 +23629,12 @@
       </c>
       <c r="L252" s="3" t="inlineStr">
         <is>
-          <t>uA</t>
+          <t>mA</t>
         </is>
       </c>
       <c r="M252" s="3" t="inlineStr">
         <is>
-          <t>uA</t>
+          <t>mA</t>
         </is>
       </c>
       <c r="N252" s="3" t="inlineStr">
@@ -23727,12 +23727,12 @@
       </c>
       <c r="L253" s="3" t="inlineStr">
         <is>
-          <t>uA</t>
+          <t>mA</t>
         </is>
       </c>
       <c r="M253" s="3" t="inlineStr">
         <is>
-          <t>uA</t>
+          <t>mA</t>
         </is>
       </c>
       <c r="N253" s="3" t="inlineStr">

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -1769,12 +1769,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>Iin 1</t>
+          <t>DC Current #1</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>Iin 1</t>
+          <t>DC Current #1</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M160)</t>
         </is>
       </c>
     </row>
@@ -1863,12 +1863,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>Vin 1</t>
+          <t>DC Voltage #1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>Vin 1</t>
+          <t>DC Voltage #1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M160)</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1961,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>Pin 1</t>
+          <t>DC Power #1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Pin 1</t>
+          <t>DC Power #1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M160)</t>
         </is>
       </c>
     </row>
@@ -2055,12 +2055,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>Iin 2</t>
+          <t>DC Current #2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Iin 2</t>
+          <t>DC Current #2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M160)</t>
         </is>
       </c>
     </row>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>Vin 2</t>
+          <t>DC Voltage #2</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Vin 2</t>
+          <t>DC Voltage #2</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M160)</t>
         </is>
       </c>
     </row>
@@ -2247,12 +2247,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>Pin 2</t>
+          <t>DC Power #2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Pin 2</t>
+          <t>DC Power #2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M160)</t>
         </is>
       </c>
     </row>
@@ -22113,12 +22113,12 @@
       </c>
       <c r="H236" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Hz A</t>
+          <t>Frequency Phase A</t>
         </is>
       </c>
       <c r="I236" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Hz A</t>
+          <t>Frequency Phase A</t>
         </is>
       </c>
       <c r="J236" s="2" t="inlineStr">
@@ -22169,7 +22169,7 @@
       </c>
       <c r="T236" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M103)</t>
         </is>
       </c>
     </row>
@@ -22207,12 +22207,12 @@
       </c>
       <c r="H237" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Hz B</t>
+          <t>Frequency Phase B</t>
         </is>
       </c>
       <c r="I237" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Hz B</t>
+          <t>Frequency Phase B</t>
         </is>
       </c>
       <c r="J237" s="2" t="inlineStr">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="T237" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M103)</t>
         </is>
       </c>
     </row>
@@ -22301,12 +22301,12 @@
       </c>
       <c r="H238" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Hz C</t>
+          <t>Frequency Phase C</t>
         </is>
       </c>
       <c r="I238" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Hz C</t>
+          <t>Frequency Phase C</t>
         </is>
       </c>
       <c r="J238" s="2" t="inlineStr">
@@ -22357,7 +22357,7 @@
       </c>
       <c r="T238" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M103)</t>
         </is>
       </c>
     </row>
@@ -22399,12 +22399,12 @@
       </c>
       <c r="H239" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Ph Vph Ab</t>
+          <t>Phase Voltage AB</t>
         </is>
       </c>
       <c r="I239" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Ph Vph Ab</t>
+          <t>Phase Voltage AB</t>
         </is>
       </c>
       <c r="J239" s="2" t="inlineStr">
@@ -22455,7 +22455,7 @@
       </c>
       <c r="T239" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M103)</t>
         </is>
       </c>
     </row>
@@ -22595,12 +22595,12 @@
       </c>
       <c r="H241" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Ph Vph Bc</t>
+          <t>Phase Voltage BC</t>
         </is>
       </c>
       <c r="I241" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Ph Vph Bc</t>
+          <t>Phase Voltage BC</t>
         </is>
       </c>
       <c r="J241" s="2" t="inlineStr">
@@ -22651,7 +22651,7 @@
       </c>
       <c r="T241" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M103)</t>
         </is>
       </c>
     </row>
@@ -22791,12 +22791,12 @@
       </c>
       <c r="H243" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Ph Vph Ca</t>
+          <t>Phase Voltage CA</t>
         </is>
       </c>
       <c r="I243" s="2" t="inlineStr">
         <is>
-          <t>M 103 1 Ph Vph Ca</t>
+          <t>Phase Voltage CA</t>
         </is>
       </c>
       <c r="J243" s="2" t="inlineStr">
@@ -22847,7 +22847,7 @@
       </c>
       <c r="T243" s="2" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M103)</t>
         </is>
       </c>
     </row>
@@ -23081,12 +23081,12 @@
       </c>
       <c r="H246" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Alarm St</t>
+          <t>Alarm State</t>
         </is>
       </c>
       <c r="I246" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Alarm St</t>
+          <t>Alarm State</t>
         </is>
       </c>
       <c r="J246" s="3" t="inlineStr">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="T246" s="3" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M64061)</t>
         </is>
       </c>
     </row>
@@ -23277,12 +23277,12 @@
       </c>
       <c r="H248" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Day Wh</t>
+          <t>Daily Energy</t>
         </is>
       </c>
       <c r="I248" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Day Wh</t>
+          <t>Daily Energy</t>
         </is>
       </c>
       <c r="J248" s="3" t="inlineStr">
@@ -23333,7 +23333,7 @@
       </c>
       <c r="T248" s="3" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M64061)</t>
         </is>
       </c>
     </row>
@@ -23371,12 +23371,12 @@
       </c>
       <c r="H249" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 DC St 1</t>
+          <t>DC Input 1 State</t>
         </is>
       </c>
       <c r="I249" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 DC St 1</t>
+          <t>DC Input 1 State</t>
         </is>
       </c>
       <c r="J249" s="3" t="inlineStr">
@@ -23411,7 +23411,7 @@
       </c>
       <c r="T249" s="3" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M64061)</t>
         </is>
       </c>
     </row>
@@ -23449,12 +23449,12 @@
       </c>
       <c r="H250" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 DC St 2</t>
+          <t>DC Input 2 State</t>
         </is>
       </c>
       <c r="I250" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 DC St 2</t>
+          <t>DC Input 2 State</t>
         </is>
       </c>
       <c r="J250" s="3" t="inlineStr">
@@ -23489,7 +23489,7 @@
       </c>
       <c r="T250" s="3" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M64061)</t>
         </is>
       </c>
     </row>
@@ -23527,12 +23527,12 @@
       </c>
       <c r="H251" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Global St</t>
+          <t>Global State</t>
         </is>
       </c>
       <c r="I251" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Global St</t>
+          <t>Global State</t>
         </is>
       </c>
       <c r="J251" s="3" t="inlineStr">
@@ -23567,7 +23567,7 @@
       </c>
       <c r="T251" s="3" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M64061)</t>
         </is>
       </c>
     </row>
@@ -23609,12 +23609,12 @@
       </c>
       <c r="H252" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 I Leak DC AC</t>
+          <t>Leakage Current DC-AC</t>
         </is>
       </c>
       <c r="I252" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 I Leak DC AC</t>
+          <t>Leakage Current DC-AC</t>
         </is>
       </c>
       <c r="J252" s="3" t="inlineStr">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="T252" s="3" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M64061)</t>
         </is>
       </c>
     </row>
@@ -23707,12 +23707,12 @@
       </c>
       <c r="H253" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 I Leak DC DC</t>
+          <t>Leakage Current DC-DC</t>
         </is>
       </c>
       <c r="I253" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 I Leak DC DC</t>
+          <t>Leakage Current DC-DC</t>
         </is>
       </c>
       <c r="J253" s="3" t="inlineStr">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="T253" s="3" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M64061)</t>
         </is>
       </c>
     </row>
@@ -23801,12 +23801,12 @@
       </c>
       <c r="H254" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Inverter St</t>
+          <t>Inverter State</t>
         </is>
       </c>
       <c r="I254" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Inverter St</t>
+          <t>Inverter State</t>
         </is>
       </c>
       <c r="J254" s="3" t="inlineStr">
@@ -23841,7 +23841,7 @@
       </c>
       <c r="T254" s="3" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M64061)</t>
         </is>
       </c>
     </row>
@@ -23883,12 +23883,12 @@
       </c>
       <c r="H255" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Isolation Ohm 1</t>
+          <t>Isolation Resistance</t>
         </is>
       </c>
       <c r="I255" s="3" t="inlineStr">
         <is>
-          <t>M 64061 1 Isolation Ohm 1</t>
+          <t>Isolation Resistance</t>
         </is>
       </c>
       <c r="J255" s="3" t="inlineStr">
@@ -23931,7 +23931,7 @@
       </c>
       <c r="T255" s="3" t="inlineStr">
         <is>
-          <t>Enhanced from point name</t>
+          <t>SunSpec Label (M64061)</t>
         </is>
       </c>
     </row>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -16103,7 +16103,7 @@
       </c>
       <c r="T171" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -16197,7 +16197,7 @@
       </c>
       <c r="T172" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -16291,7 +16291,7 @@
       </c>
       <c r="T173" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="T174" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -16479,7 +16479,7 @@
       </c>
       <c r="T175" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="T176" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -16667,7 +16667,7 @@
       </c>
       <c r="T177" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="T178" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="T179" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="T180" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17035,7 +17035,7 @@
       </c>
       <c r="T181" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
       </c>
       <c r="T182" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17207,7 +17207,7 @@
       </c>
       <c r="T183" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17301,7 +17301,7 @@
       </c>
       <c r="T184" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="T185" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17489,7 +17489,7 @@
       </c>
       <c r="T186" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="T187" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17677,7 +17677,7 @@
       </c>
       <c r="T188" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17771,7 +17771,7 @@
       </c>
       <c r="T189" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -17959,7 +17959,7 @@
       </c>
       <c r="T191" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="T192" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -18147,7 +18147,7 @@
       </c>
       <c r="T193" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -18335,7 +18335,7 @@
       </c>
       <c r="T195" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -18429,7 +18429,7 @@
       </c>
       <c r="T196" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -18523,7 +18523,7 @@
       </c>
       <c r="T197" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18617,7 @@
       </c>
       <c r="T198" s="2" t="inlineStr">
         <is>
-          <t>Both Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - Both Feeds</t>
         </is>
       </c>
     </row>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="T199" s="2" t="inlineStr">
         <is>
-          <t>Both Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - Both Feeds</t>
         </is>
       </c>
     </row>
@@ -18805,7 +18805,7 @@
       </c>
       <c r="T200" s="2" t="inlineStr">
         <is>
-          <t>Both Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - Both Feeds</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       </c>
       <c r="T201" s="2" t="inlineStr">
         <is>
-          <t>Both Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - Both Feeds</t>
         </is>
       </c>
     </row>
@@ -18993,7 +18993,7 @@
       </c>
       <c r="T202" s="2" t="inlineStr">
         <is>
-          <t>Both Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - Both Feeds</t>
         </is>
       </c>
     </row>
@@ -19087,7 +19087,7 @@
       </c>
       <c r="T203" s="2" t="inlineStr">
         <is>
-          <t>Both Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - Both Feeds</t>
         </is>
       </c>
     </row>
@@ -19109,7 +19109,7 @@
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_grid_export</t>
+          <t>abb_vsn_total_watt_hours_exported</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -19120,17 +19120,17 @@
       </c>
       <c r="G204" s="2" t="inlineStr">
         <is>
-          <t>E Grid Export</t>
+          <t>Total Watt-hours Exported</t>
         </is>
       </c>
       <c r="H204" s="2" t="inlineStr">
         <is>
-          <t>E3 - Energy to the Grid - Total</t>
+          <t>Total Real Energy Exported</t>
         </is>
       </c>
       <c r="I204" s="2" t="inlineStr">
         <is>
-          <t>E3 - Energy to the Grid - Total</t>
+          <t>Total Real Energy Exported</t>
         </is>
       </c>
       <c r="J204" s="2" t="inlineStr">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="T204" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M203) - SunSpec Description (M203)</t>
         </is>
       </c>
     </row>
@@ -19203,7 +19203,7 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_grid_import</t>
+          <t>abb_vsn_total_watt_hours_imported</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -19214,17 +19214,17 @@
       </c>
       <c r="G205" s="2" t="inlineStr">
         <is>
-          <t>E Grid Import</t>
+          <t>Total Watt-hours Imported</t>
         </is>
       </c>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>E8 - Energy from the Grid - Total</t>
+          <t>Total Real Energy Imported</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr">
         <is>
-          <t>E8 - Energy from the Grid - Total</t>
+          <t>Total Real Energy Imported</t>
         </is>
       </c>
       <c r="J205" s="2" t="inlineStr">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="T205" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M203) - SunSpec Description (M203)</t>
         </is>
       </c>
     </row>
@@ -19463,7 +19463,7 @@
       </c>
       <c r="T207" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="T208" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -19651,7 +19651,7 @@
       </c>
       <c r="T209" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="T211" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -19933,7 +19933,7 @@
       </c>
       <c r="T212" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="T213" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_total</t>
+          <t>abb_vsn_watthours</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr"/>
@@ -20060,17 +20060,17 @@
       </c>
       <c r="G214" s="2" t="inlineStr">
         <is>
-          <t>E Total</t>
+          <t>WattHours</t>
         </is>
       </c>
       <c r="H214" s="2" t="inlineStr">
         <is>
-          <t>E0 - Inverter Produced Energy - Total</t>
+          <t>AC Energy</t>
         </is>
       </c>
       <c r="I214" s="2" t="inlineStr">
         <is>
-          <t>E0 - Inverter Produced Energy - Total</t>
+          <t>AC Energy</t>
         </is>
       </c>
       <c r="J214" s="2" t="inlineStr">
@@ -20121,7 +20121,7 @@
       </c>
       <c r="T214" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M103) - SunSpec Description (M103)</t>
         </is>
       </c>
     </row>
@@ -20215,7 +20215,7 @@
       </c>
       <c r="T215" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (VSN) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -20309,7 +20309,7 @@
       </c>
       <c r="T216" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -20403,7 +20403,7 @@
       </c>
       <c r="T217" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -20497,7 +20497,7 @@
       </c>
       <c r="T218" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M64061) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="T219" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (ABB Proprietary) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="T220" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (ABB Proprietary) - VSN700 Feeds</t>
         </is>
       </c>
     </row>
@@ -20707,7 +20707,7 @@
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_meter_power_grid_tot</t>
+          <t>abb_vsn_watts</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -20718,17 +20718,17 @@
       </c>
       <c r="G221" s="2" t="inlineStr">
         <is>
-          <t>Meter Power Grid Tot</t>
+          <t>Watts</t>
         </is>
       </c>
       <c r="H221" s="2" t="inlineStr">
         <is>
-          <t>Active Power - total</t>
+          <t>Total Real Power</t>
         </is>
       </c>
       <c r="I221" s="2" t="inlineStr">
         <is>
-          <t>Active Power - total</t>
+          <t>Total Real Power</t>
         </is>
       </c>
       <c r="J221" s="2" t="inlineStr">
@@ -20779,7 +20779,7 @@
       </c>
       <c r="T221" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M203) - SunSpec Description (M203)</t>
         </is>
       </c>
     </row>
@@ -20801,7 +20801,7 @@
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pba_t</t>
+          <t>abb_vsn_inwrte</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr"/>
@@ -20812,17 +20812,17 @@
       </c>
       <c r="G222" s="2" t="inlineStr">
         <is>
-          <t>Pba T</t>
+          <t>InWRte</t>
         </is>
       </c>
       <c r="H222" s="2" t="inlineStr">
         <is>
-          <t>Battery Power - total</t>
+          <t>Percent of max charging rate.</t>
         </is>
       </c>
       <c r="I222" s="2" t="inlineStr">
         <is>
-          <t>Battery Power - total</t>
+          <t>Percent of max charging rate.</t>
         </is>
       </c>
       <c r="J222" s="2" t="inlineStr">
@@ -20873,7 +20873,7 @@
       </c>
       <c r="T222" s="2" t="inlineStr">
         <is>
-          <t>VSN700 Feeds</t>
+          <t>Cross-ref from VSN700 (M124) - SunSpec Description (M124)</t>
         </is>
       </c>
     </row>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_grid_power</t>
+          <t>abb_vsn_watts</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
@@ -20906,17 +20906,17 @@
       </c>
       <c r="G223" s="2" t="inlineStr">
         <is>
-          <t>Grid Power</t>
+          <t>Watts</t>
         </is>
       </c>
       <c r="H223" s="2" t="inlineStr">
         <is>
-          <t>Grid Power</t>
+          <t>AC Power</t>
         </is>
       </c>
       <c r="I223" s="2" t="inlineStr">
         <is>
-          <t>Grid Power</t>
+          <t>AC Power</t>
         </is>
       </c>
       <c r="J223" s="2" t="inlineStr">
@@ -20967,7 +20967,7 @@
       </c>
       <c r="T223" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Cross-ref from VSN700 (M103) - SunSpec Description (M103)</t>
         </is>
       </c>
     </row>
@@ -20989,7 +20989,7 @@
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_input_power</t>
+          <t>abb_vsn_dc_watts</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr"/>
@@ -21000,17 +21000,17 @@
       </c>
       <c r="G224" s="2" t="inlineStr">
         <is>
-          <t>Input Power</t>
+          <t>DC Watts</t>
         </is>
       </c>
       <c r="H224" s="2" t="inlineStr">
         <is>
-          <t>Input Power</t>
+          <t>DC Power</t>
         </is>
       </c>
       <c r="I224" s="2" t="inlineStr">
         <is>
-          <t>Input Power</t>
+          <t>DC Power</t>
         </is>
       </c>
       <c r="J224" s="2" t="inlineStr">
@@ -21061,7 +21061,7 @@
       </c>
       <c r="T224" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Cross-ref from VSN700 (M103) - SunSpec Description (M103)</t>
         </is>
       </c>
     </row>
@@ -21083,7 +21083,7 @@
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pin_1</t>
+          <t>abb_vsn_dc_power_#1</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr"/>
@@ -21094,17 +21094,17 @@
       </c>
       <c r="G225" s="2" t="inlineStr">
         <is>
-          <t>Pin 1</t>
+          <t>DC Power #1</t>
         </is>
       </c>
       <c r="H225" s="2" t="inlineStr">
         <is>
-          <t>Pin 1</t>
+          <t>DC Power #1</t>
         </is>
       </c>
       <c r="I225" s="2" t="inlineStr">
         <is>
-          <t>Pin 1</t>
+          <t>DC Power #1</t>
         </is>
       </c>
       <c r="J225" s="2" t="inlineStr">
@@ -21155,7 +21155,7 @@
       </c>
       <c r="T225" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Cross-ref from VSN700 (M160) - SunSpec Label (M160)</t>
         </is>
       </c>
     </row>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pin_2</t>
+          <t>abb_vsn_dc_power_#2</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr"/>
@@ -21188,17 +21188,17 @@
       </c>
       <c r="G226" s="2" t="inlineStr">
         <is>
-          <t>Pin 2</t>
+          <t>DC Power #2</t>
         </is>
       </c>
       <c r="H226" s="2" t="inlineStr">
         <is>
-          <t>Pin 2</t>
+          <t>DC Power #2</t>
         </is>
       </c>
       <c r="I226" s="2" t="inlineStr">
         <is>
-          <t>Pin 2</t>
+          <t>DC Power #2</t>
         </is>
       </c>
       <c r="J226" s="2" t="inlineStr">
@@ -21249,7 +21249,7 @@
       </c>
       <c r="T226" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Cross-ref from VSN700 (M160) - SunSpec Label (M160)</t>
         </is>
       </c>
     </row>
@@ -21335,7 +21335,7 @@
       </c>
       <c r="T227" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Cross-ref from VSN700 (M103) - SunSpec Label (M103)</t>
         </is>
       </c>
     </row>
@@ -21357,7 +21357,7 @@
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_temp_1</t>
+          <t>abb_vsn_cabinet_temperature</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr"/>
@@ -21368,17 +21368,17 @@
       </c>
       <c r="G228" s="2" t="inlineStr">
         <is>
-          <t>Temp 1</t>
+          <t>Cabinet Temperature</t>
         </is>
       </c>
       <c r="H228" s="2" t="inlineStr">
         <is>
-          <t>Temp 1</t>
+          <t>Cabinet Temperature</t>
         </is>
       </c>
       <c r="I228" s="2" t="inlineStr">
         <is>
-          <t>Temp 1</t>
+          <t>Cabinet Temperature</t>
         </is>
       </c>
       <c r="J228" s="2" t="inlineStr">
@@ -21429,7 +21429,7 @@
       </c>
       <c r="T228" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Cross-ref from VSN700 (M103) - SunSpec Description (M103)</t>
         </is>
       </c>
     </row>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_cos_phi</t>
+          <t>abb_vsn_pf</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -21462,17 +21462,17 @@
       </c>
       <c r="G229" s="2" t="inlineStr">
         <is>
-          <t>Cos Phi</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H229" s="2" t="inlineStr">
         <is>
-          <t>Cos Phi</t>
+          <t>AC Power Factor</t>
         </is>
       </c>
       <c r="I229" s="2" t="inlineStr">
         <is>
-          <t>Cos Phi</t>
+          <t>AC Power Factor</t>
         </is>
       </c>
       <c r="J229" s="2" t="inlineStr">
@@ -21507,7 +21507,7 @@
       </c>
       <c r="T229" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Cross-ref from VSN700 (M103) - SunSpec Description (M103)</t>
         </is>
       </c>
     </row>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -21549,12 +21549,12 @@
       </c>
       <c r="H230" s="2" t="inlineStr">
         <is>
-          <t>flash free</t>
+          <t>Flash Free</t>
         </is>
       </c>
       <c r="I230" s="2" t="inlineStr">
         <is>
-          <t>flash free</t>
+          <t>Flash Free</t>
         </is>
       </c>
       <c r="J230" s="2" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_free_ram</t>
+          <t>abb_vsn_ram_free</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr">
@@ -21638,17 +21638,17 @@
       </c>
       <c r="G231" s="2" t="inlineStr">
         <is>
-          <t>Free Ram</t>
+          <t>RAM Free</t>
         </is>
       </c>
       <c r="H231" s="2" t="inlineStr">
         <is>
-          <t>ram free</t>
+          <t>Ram Free</t>
         </is>
       </c>
       <c r="I231" s="2" t="inlineStr">
         <is>
-          <t>ram free</t>
+          <t>Ram Free</t>
         </is>
       </c>
       <c r="J231" s="2" t="inlineStr">
@@ -24263,12 +24263,12 @@
       </c>
       <c r="H259" s="2" t="inlineStr">
         <is>
-          <t>Pn</t>
+          <t>Product number</t>
         </is>
       </c>
       <c r="I259" s="2" t="inlineStr">
         <is>
-          <t>Pn</t>
+          <t>Product number</t>
         </is>
       </c>
       <c r="J259" s="2" t="inlineStr">
@@ -24303,7 +24303,7 @@
       </c>
       <c r="T259" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Enhanced from point name</t>
         </is>
       </c>
     </row>
@@ -24341,12 +24341,12 @@
       </c>
       <c r="H260" s="2" t="inlineStr">
         <is>
-          <t>Sn</t>
+          <t>Serial number (datalogger)</t>
         </is>
       </c>
       <c r="I260" s="2" t="inlineStr">
         <is>
-          <t>Sn</t>
+          <t>Serial number (datalogger)</t>
         </is>
       </c>
       <c r="J260" s="2" t="inlineStr">
@@ -24381,7 +24381,7 @@
       </c>
       <c r="T260" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Enhanced from point name</t>
         </is>
       </c>
     </row>
@@ -24403,7 +24403,7 @@
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_store_size</t>
+          <t>abb_vsn_flash_used</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr">
@@ -24418,17 +24418,17 @@
       </c>
       <c r="G261" s="2" t="inlineStr">
         <is>
-          <t>Store Size</t>
+          <t>Flash Used</t>
         </is>
       </c>
       <c r="H261" s="2" t="inlineStr">
         <is>
-          <t>flash used</t>
+          <t>Flash Used</t>
         </is>
       </c>
       <c r="I261" s="2" t="inlineStr">
         <is>
-          <t>flash used</t>
+          <t>Flash Used</t>
         </is>
       </c>
       <c r="J261" s="2" t="inlineStr">
@@ -24497,7 +24497,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_sys_load</t>
+          <t>abb_vsn_system_load</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr">
@@ -24512,17 +24512,17 @@
       </c>
       <c r="G262" s="2" t="inlineStr">
         <is>
-          <t>Sys Load</t>
+          <t>System Load</t>
         </is>
       </c>
       <c r="H262" s="2" t="inlineStr">
         <is>
-          <t>system load</t>
+          <t>System Load</t>
         </is>
       </c>
       <c r="I262" s="2" t="inlineStr">
         <is>
-          <t>system load</t>
+          <t>System Load</t>
         </is>
       </c>
       <c r="J262" s="2" t="inlineStr">
@@ -24599,12 +24599,12 @@
       </c>
       <c r="H263" s="2" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Device type</t>
         </is>
       </c>
       <c r="I263" s="2" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Device type</t>
         </is>
       </c>
       <c r="J263" s="2" t="inlineStr">
@@ -24639,7 +24639,7 @@
       </c>
       <c r="T263" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Enhanced from point name</t>
         </is>
       </c>
     </row>
@@ -24681,12 +24681,12 @@
       </c>
       <c r="H264" s="2" t="inlineStr">
         <is>
-          <t>uptime</t>
+          <t>Uptime</t>
         </is>
       </c>
       <c r="I264" s="2" t="inlineStr">
         <is>
-          <t>uptime</t>
+          <t>Uptime</t>
         </is>
       </c>
       <c r="J264" s="2" t="inlineStr">
@@ -24779,12 +24779,12 @@
       </c>
       <c r="H265" s="2" t="inlineStr">
         <is>
-          <t>Wlan 0 Essid</t>
+          <t>WiFi network name (SSID)</t>
         </is>
       </c>
       <c r="I265" s="2" t="inlineStr">
         <is>
-          <t>Wlan 0 Essid</t>
+          <t>WiFi network name (SSID)</t>
         </is>
       </c>
       <c r="J265" s="2" t="inlineStr">
@@ -24819,7 +24819,7 @@
       </c>
       <c r="T265" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Enhanced from point name</t>
         </is>
       </c>
     </row>
@@ -24857,12 +24857,12 @@
       </c>
       <c r="H266" s="2" t="inlineStr">
         <is>
-          <t>Wlan 0 Ipaddr Local</t>
+          <t>WiFi local IP address</t>
         </is>
       </c>
       <c r="I266" s="2" t="inlineStr">
         <is>
-          <t>Wlan 0 Ipaddr Local</t>
+          <t>WiFi local IP address</t>
         </is>
       </c>
       <c r="J266" s="2" t="inlineStr">
@@ -24897,7 +24897,7 @@
       </c>
       <c r="T266" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Enhanced from point name</t>
         </is>
       </c>
     </row>
@@ -24935,12 +24935,12 @@
       </c>
       <c r="H267" s="2" t="inlineStr">
         <is>
-          <t>Wlan 0 Link Quality</t>
+          <t>WiFi signal strength</t>
         </is>
       </c>
       <c r="I267" s="2" t="inlineStr">
         <is>
-          <t>Wlan 0 Link Quality</t>
+          <t>WiFi signal strength</t>
         </is>
       </c>
       <c r="J267" s="2" t="inlineStr">
@@ -24975,7 +24975,7 @@
       </c>
       <c r="T267" s="2" t="inlineStr">
         <is>
-          <t>Generated from point name</t>
+          <t>Enhanced from point name</t>
         </is>
       </c>
     </row>
@@ -25467,12 +25467,12 @@
       </c>
       <c r="H273" s="2" t="inlineStr">
         <is>
-          <t>flash free</t>
+          <t>Flash Free</t>
         </is>
       </c>
       <c r="I273" s="2" t="inlineStr">
         <is>
-          <t>flash free</t>
+          <t>Flash Free</t>
         </is>
       </c>
       <c r="J273" s="2" t="inlineStr">
@@ -25533,7 +25533,7 @@
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_free_ram</t>
+          <t>abb_vsn_ram_free</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>
@@ -25544,17 +25544,17 @@
       </c>
       <c r="G274" s="2" t="inlineStr">
         <is>
-          <t>Free Ram</t>
+          <t>RAM Free</t>
         </is>
       </c>
       <c r="H274" s="2" t="inlineStr">
         <is>
-          <t>ram free</t>
+          <t>Ram Free</t>
         </is>
       </c>
       <c r="I274" s="2" t="inlineStr">
         <is>
-          <t>ram free</t>
+          <t>Ram Free</t>
         </is>
       </c>
       <c r="J274" s="2" t="inlineStr">
@@ -25697,7 +25697,7 @@
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_store_size</t>
+          <t>abb_vsn_flash_used</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr"/>
@@ -25708,17 +25708,17 @@
       </c>
       <c r="G276" s="2" t="inlineStr">
         <is>
-          <t>Store Size</t>
+          <t>Flash Used</t>
         </is>
       </c>
       <c r="H276" s="2" t="inlineStr">
         <is>
-          <t>flash used</t>
+          <t>Flash Used</t>
         </is>
       </c>
       <c r="I276" s="2" t="inlineStr">
         <is>
-          <t>flash used</t>
+          <t>Flash Used</t>
         </is>
       </c>
       <c r="J276" s="2" t="inlineStr">
@@ -25779,7 +25779,7 @@
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_sys_load</t>
+          <t>abb_vsn_system_load</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr"/>
@@ -25790,17 +25790,17 @@
       </c>
       <c r="G277" s="2" t="inlineStr">
         <is>
-          <t>Sys Load</t>
+          <t>System Load</t>
         </is>
       </c>
       <c r="H277" s="2" t="inlineStr">
         <is>
-          <t>system load</t>
+          <t>System Load</t>
         </is>
       </c>
       <c r="I277" s="2" t="inlineStr">
         <is>
-          <t>system load</t>
+          <t>System Load</t>
         </is>
       </c>
       <c r="J277" s="2" t="inlineStr">
@@ -25877,12 +25877,12 @@
       </c>
       <c r="H278" s="2" t="inlineStr">
         <is>
-          <t>uptime</t>
+          <t>Uptime</t>
         </is>
       </c>
       <c r="I278" s="2" t="inlineStr">
         <is>
-          <t>uptime</t>
+          <t>Uptime</t>
         </is>
       </c>
       <c r="J278" s="2" t="inlineStr">

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -466,7 +466,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
     <col width="31" customWidth="1" min="7" max="7"/>
@@ -605,7 +605,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_w</t>
+          <t>watts</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_a</t>
+          <t>amps</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phvpha</t>
+          <t>phase_voltage_an</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_hz</t>
+          <t>hz</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_pf</t>
+          <t>pf</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_var</t>
+          <t>grid_reactive_power</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_dcw</t>
+          <t>dc_watts</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_wh</t>
+          <t>watthours</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein</t>
+          <t>input_energy</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_tmpot</t>
+          <t>other_temperature</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_tmpcab</t>
+          <t>cabinet_temperature</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>abb_m120_wrtg</t>
+          <t>wrtg</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>abb_m160_dca_1</t>
+          <t>dc_current_1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>abb_m160_dcv_1</t>
+          <t>dc_voltage_1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>abb_m160_dcw_1</t>
+          <t>dc_power_1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>abb_m160_dca_2</t>
+          <t>dc_current_2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>abb_m160_dcv_2</t>
+          <t>dc_voltage_2</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>abb_m160_dcw_2</t>
+          <t>dc_power_2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>abb_m124_chastate</t>
+          <t>chastate</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>abb_m124_inwrte</t>
+          <t>inwrte</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_soc</t>
+          <t>state_of_charge</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_soh</t>
+          <t>state_of_health</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_v</t>
+          <t>external_battery_voltage</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_a</t>
+          <t>total_dc_current</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_w</t>
+          <t>total_power</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_tmp</t>
+          <t>battery_temperature</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_ncyc</t>
+          <t>cycle_count</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_cellvmax</t>
+          <t>max_cell_voltage</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_cellvmin</t>
+          <t>min_cell_voltage</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_celltmpmax</t>
+          <t>tc_max</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_celltmpmin</t>
+          <t>tc_min</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_achamax</t>
+          <t>max_charge_current</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_adischamax</t>
+          <t>max_discharge_current</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>abb_m802_ahrtg</t>
+          <t>nameplate_charge_capacity</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>abb_m101_phvpha</t>
+          <t>phase_voltage_an</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>abb_m101_phvphb</t>
+          <t>phase_voltage_bn</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>abb_m101_splitphase</t>
+          <t>split_phase</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_w</t>
+          <t>watts</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_wpha</t>
+          <t>watts_phase_a</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_wphb</t>
+          <t>watts_phase_b</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_wphc</t>
+          <t>watts_phase_c</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_phvpha</t>
+          <t>phase_voltage_an</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_phvphb</t>
+          <t>phase_voltage_bn</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_phvphc</t>
+          <t>phase_voltage_cn</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_apha</t>
+          <t>amps_phasea</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_aphb</t>
+          <t>amps_phaseb</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_aphc</t>
+          <t>amps_phasec</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_var</t>
+          <t>var</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_varpha</t>
+          <t>var_phase_a</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_varphb</t>
+          <t>var_phase_b</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_varphc</t>
+          <t>var_phase_c</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_hz</t>
+          <t>hz</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_totwhimp</t>
+          <t>total_watt_hours_imported</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>abb_m203_totwhexp</t>
+          <t>total_watt_hours_exported</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e0_energy_yearly</t>
+          <t>e0_energy_yearly</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e0_energy_30_day</t>
+          <t>e0_energy_30_day</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e0_energy_7_day</t>
+          <t>e0_energy_7_day</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e0_energy_lifetime</t>
+          <t>e0_energy_lifetime</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e15_energy_30_day</t>
+          <t>e15_energy_30_day</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e15_energy_7_day</t>
+          <t>e15_energy_7_day</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e15_energy_lifetime</t>
+          <t>e15_energy_lifetime</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e1_energy_30_day</t>
+          <t>e1_energy_30_day</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e1_energy_7_day</t>
+          <t>e1_energy_7_day</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e1_energy_lifetime</t>
+          <t>e1_energy_lifetime</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e2_energy_30_day</t>
+          <t>e2_energy_30_day</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e2_energy_7_day</t>
+          <t>e2_energy_7_day</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e2_energy_lifetime</t>
+          <t>e2_energy_lifetime</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e3_energy_30_day</t>
+          <t>e3_energy_30_day</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e3_energy_7_day</t>
+          <t>e3_energy_7_day</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e3_energy_lifetime</t>
+          <t>e3_energy_lifetime</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e4_energy_30_day</t>
+          <t>e4_energy_30_day</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e4_energy_7_day</t>
+          <t>e4_energy_7_day</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e4_energy_lifetime</t>
+          <t>e4_energy_lifetime</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e5_energy_30_day</t>
+          <t>e5_energy_30_day</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e5_energy_7_day</t>
+          <t>e5_energy_7_day</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e5_energy_lifetime</t>
+          <t>e5_energy_lifetime</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e6_energy_30_day</t>
+          <t>e6_energy_30_day</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e6_energy_7_day</t>
+          <t>e6_energy_7_day</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e6_energy_lifetime</t>
+          <t>e6_energy_lifetime</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e7_energy_30_day</t>
+          <t>e7_energy_30_day</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e7_energy_7_day</t>
+          <t>e7_energy_7_day</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e7_energy_lifetime</t>
+          <t>e7_energy_lifetime</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e8_energy_30_day</t>
+          <t>e8_energy_30_day</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e8_energy_7_day</t>
+          <t>e8_energy_7_day</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_e8_energy_lifetime</t>
+          <t>e8_energy_lifetime</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_echarge_energy_30_day</t>
+          <t>echarge_energy_30_day</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_echarge_energy_7_day</t>
+          <t>echarge_energy_7_day</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_echarge_energy_lifetime</t>
+          <t>echarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_edischarge_energy_30_day</t>
+          <t>edischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_edischarge_energy_7_day</t>
+          <t>edischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_edischarge_energy_lifetime</t>
+          <t>edischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotcharge_energy_30_day</t>
+          <t>etotcharge_energy_30_day</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotcharge_energy_7_day</t>
+          <t>etotcharge_energy_7_day</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotcharge_energy_lifetime</t>
+          <t>etotcharge_energy_lifetime</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
@@ -9557,7 +9557,7 @@
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotdischarge_energy_30_day</t>
+          <t>etotdischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotdischarge_energy_7_day</t>
+          <t>etotdischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_etotdischarge_energy_lifetime</t>
+          <t>etotdischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ein_energy_30_day</t>
+          <t>ein_energy_30_day</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ein_energy_7_day</t>
+          <t>ein_energy_7_day</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ein_energy_lifetime</t>
+          <t>ein_energy_lifetime</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_alarm_state</t>
+          <t>alarm_state</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_country_std</t>
+          <t>country_std</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_dc_1_state</t>
+          <t>dc_1_state</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_dc_2_state</t>
+          <t>dc_2_state</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_glob_state</t>
+          <t>glob_state</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ileak_dc</t>
+          <t>ileak_dc</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ileak_inv</t>
+          <t>ileak_inv</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_inv_state</t>
+          <t>inv_state</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_ppeak</t>
+          <t>ppeak</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
@@ -10895,7 +10895,7 @@
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_isolation_resistance</t>
+          <t>isolation_resistance</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_sys_time</t>
+          <t>sys_time</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_boost_temperature</t>
+          <t>boost_temperature</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_v_bulk</t>
+          <t>v_bulk</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
@@ -11247,7 +11247,7 @@
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_v_bulk_mid</t>
+          <t>v_bulk_mid</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_vgnd</t>
+          <t>vgnd</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_battextctrlena</t>
+          <t>batt_ext_ctrl_ena</t>
         </is>
       </c>
       <c r="E117" s="4" t="inlineStr">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_battextctrlstate</t>
+          <t>batt_ext_ctrl_state</t>
         </is>
       </c>
       <c r="E118" s="4" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_battnum</t>
+          <t>batt_num</t>
         </is>
       </c>
       <c r="E119" s="4" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_batterymode</t>
+          <t>battery_mode</t>
         </is>
       </c>
       <c r="E120" s="4" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_chc</t>
+          <t>charge_capacity</t>
         </is>
       </c>
       <c r="E121" s="4" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="D122" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_clockstate</t>
+          <t>clock_state</t>
         </is>
       </c>
       <c r="E122" s="4" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_commissioningfreeze</t>
+          <t>commissioning_freeze</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="D124" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_di0_mode</t>
+          <t>di_0_mode</t>
         </is>
       </c>
       <c r="E124" s="4" t="inlineStr">
@@ -12067,7 +12067,7 @@
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_di1_mode</t>
+          <t>di_1_mode</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_di_status</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E126" s="4" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_detectedbatterynumber</t>
+          <t>detected_battery_number</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_dhc</t>
+          <t>discharge_capacity</t>
         </is>
       </c>
       <c r="E128" s="4" t="inlineStr">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_dynamicfeedinctrl</t>
+          <t>dynamic_feed_in_ctrl</t>
         </is>
       </c>
       <c r="E129" s="4" t="inlineStr">
@@ -12465,7 +12465,7 @@
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_ebackup</t>
+          <t>e_backup</t>
         </is>
       </c>
       <c r="E130" s="4" t="inlineStr">
@@ -12559,7 +12559,7 @@
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge</t>
+          <t>e_charge</t>
         </is>
       </c>
       <c r="E131" s="4" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_ect</t>
+          <t>e_ct</t>
         </is>
       </c>
       <c r="E132" s="4" t="inlineStr">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge</t>
+          <t>e_discharge</t>
         </is>
       </c>
       <c r="E133" s="4" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_edt</t>
+          <t>e_dt</t>
         </is>
       </c>
       <c r="E134" s="4" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_etotalabsorbed</t>
+          <t>e_total_absorbed</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_etotalapparent</t>
+          <t>e_total_apparent</t>
         </is>
       </c>
       <c r="E136" s="4" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_ein1</t>
+          <t>ein_1</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_ein2</t>
+          <t>ein_2</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_energypolicy</t>
+          <t>energy_policy</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
@@ -13389,7 +13389,7 @@
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_frt_state</t>
+          <t>state</t>
         </is>
       </c>
       <c r="E140" s="4" t="inlineStr">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_fan1rpm</t>
+          <t>fan_1_rpm</t>
         </is>
       </c>
       <c r="E141" s="4" t="inlineStr">
@@ -13545,7 +13545,7 @@
       </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_fan2rpm</t>
+          <t>fan_2_rpm</t>
         </is>
       </c>
       <c r="E142" s="4" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_houseigrid_l1</t>
+          <t>house_current_grid_l_1</t>
         </is>
       </c>
       <c r="E143" s="4" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_houseigrid_l2</t>
+          <t>house_current_grid_l_2</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_houseigrid_l3</t>
+          <t>house_current_grid_l_3</t>
         </is>
       </c>
       <c r="E145" s="4" t="inlineStr">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="D146" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_housepinverter</t>
+          <t>house_p_inverter</t>
         </is>
       </c>
       <c r="E146" s="4" t="inlineStr">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_housepgrid_l1</t>
+          <t>house_power_grid_l_1</t>
         </is>
       </c>
       <c r="E147" s="4" t="inlineStr">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_housepgrid_l2</t>
+          <t>house_power_grid_l_2</t>
         </is>
       </c>
       <c r="E148" s="4" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_housepgrid_l3</t>
+          <t>house_power_grid_l_3</t>
         </is>
       </c>
       <c r="E149" s="4" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="D150" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_housepgrid_tot</t>
+          <t>house_power_grid_tot</t>
         </is>
       </c>
       <c r="E150" s="4" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_inputmode</t>
+          <t>input_mode</t>
         </is>
       </c>
       <c r="E151" s="4" t="inlineStr">
@@ -14461,7 +14461,7 @@
       </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_numofmppt</t>
+          <t>num_of_mppt</t>
         </is>
       </c>
       <c r="E152" s="4" t="inlineStr">
@@ -14539,7 +14539,7 @@
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_pacderatingflags</t>
+          <t>pac_derating_flags</t>
         </is>
       </c>
       <c r="E153" s="4" t="inlineStr">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="D154" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_pacstandalone</t>
+          <t>pac_stand_alone</t>
         </is>
       </c>
       <c r="E154" s="4" t="inlineStr">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_pactogrid</t>
+          <t>pac_togrid</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
@@ -14805,7 +14805,7 @@
       </c>
       <c r="D156" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_qacderatingflags</t>
+          <t>qac_derating_flags</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_sacderatingflags</t>
+          <t>sac_derating_flags</t>
         </is>
       </c>
       <c r="E157" s="4" t="inlineStr">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_shu</t>
+          <t>shutdown</t>
         </is>
       </c>
       <c r="E158" s="4" t="inlineStr">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_warningflags</t>
+          <t>warning_flags</t>
         </is>
       </c>
       <c r="E159" s="4" t="inlineStr">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="D160" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_gridextctrlena</t>
+          <t>grid_ext_ctrl_ena</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
@@ -15195,7 +15195,7 @@
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_gridextctrlstate</t>
+          <t>grid_ext_ctrl_state</t>
         </is>
       </c>
       <c r="E161" s="4" t="inlineStr">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="D162" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_m126mod_ena</t>
+          <t>model_126_enable</t>
         </is>
       </c>
       <c r="E162" s="4" t="inlineStr">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>abb_vsn_m132mod_ena</t>
+          <t>model_132_enable</t>
         </is>
       </c>
       <c r="E163" s="4" t="inlineStr">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>abb_m1_device_address</t>
+          <t>device_address</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
@@ -15527,7 +15527,7 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>abb_m1_model</t>
+          <t>model</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
@@ -15609,7 +15609,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>abb_m1_manufacturer</t>
+          <t>manufacturer</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>abb_m1_options</t>
+          <t>options</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
@@ -15773,7 +15773,7 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>abb_m1_serial_number</t>
+          <t>serial_number</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
@@ -15855,7 +15855,7 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>abb_m1_version</t>
+          <t>version</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_country_std</t>
+          <t>country_std</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_energy_yearly</t>
+          <t>e0_energy_yearly</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_energy_30_day</t>
+          <t>e0_energy_30_day</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
@@ -16219,7 +16219,7 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_energy_7_day</t>
+          <t>e0_energy_7_day</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e0_energy_lifetime</t>
+          <t>e0_energy_lifetime</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e15_energy_30_day</t>
+          <t>e15_energy_30_day</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e15_energy_7_day</t>
+          <t>e15_energy_7_day</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr"/>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e15_energy_lifetime</t>
+          <t>e15_energy_lifetime</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr"/>
@@ -16689,7 +16689,7 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e1_energy_30_day</t>
+          <t>e1_energy_30_day</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
@@ -16783,7 +16783,7 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e1_energy_7_day</t>
+          <t>e1_energy_7_day</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -16877,7 +16877,7 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e1_energy_lifetime</t>
+          <t>e1_energy_lifetime</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -16971,7 +16971,7 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e2_energy_30_day</t>
+          <t>e2_energy_30_day</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
@@ -17057,7 +17057,7 @@
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e2_energy_7_day</t>
+          <t>e2_energy_7_day</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -17143,7 +17143,7 @@
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e2_energy_lifetime</t>
+          <t>e2_energy_lifetime</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e3_energy_30_day</t>
+          <t>e3_energy_30_day</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -17323,7 +17323,7 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e3_energy_7_day</t>
+          <t>e3_energy_7_day</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e3_energy_lifetime</t>
+          <t>e3_energy_lifetime</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_energy_30_day</t>
+          <t>e6_energy_30_day</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_energy_7_day</t>
+          <t>e6_energy_7_day</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
@@ -17699,7 +17699,7 @@
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e6_energy_lifetime</t>
+          <t>e6_energy_lifetime</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
@@ -17793,7 +17793,7 @@
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_6_total</t>
+          <t>e_6_total</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_energy_30_day</t>
+          <t>e7_energy_30_day</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_energy_7_day</t>
+          <t>e7_energy_7_day</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
@@ -18075,7 +18075,7 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e7_energy_lifetime</t>
+          <t>e7_energy_lifetime</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_7_total</t>
+          <t>e_7_total</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -18263,7 +18263,7 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e8_energy_30_day</t>
+          <t>e8_energy_30_day</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e8_energy_7_day</t>
+          <t>e8_energy_7_day</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e8_energy_lifetime</t>
+          <t>e8_energy_lifetime</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -18545,7 +18545,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge_energy_30_day</t>
+          <t>echarge_energy_30_day</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -18639,7 +18639,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge_energy_7_day</t>
+          <t>echarge_energy_7_day</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_echarge_energy_lifetime</t>
+          <t>echarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
@@ -18827,7 +18827,7 @@
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge_energy_30_day</t>
+          <t>edischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge_energy_7_day</t>
+          <t>edischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
@@ -19015,7 +19015,7 @@
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_edischarge_energy_lifetime</t>
+          <t>edischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
@@ -19109,7 +19109,7 @@
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_total_watt_hours_exported</t>
+          <t>total_watt_hours_exported</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
@@ -19203,7 +19203,7 @@
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_total_watt_hours_imported</t>
+          <t>total_watt_hours_imported</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_tot_charge</t>
+          <t>e_tot_charge</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -19391,7 +19391,7 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge_energy_30_day</t>
+          <t>etotcharge_energy_30_day</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge_energy_7_day</t>
+          <t>etotcharge_energy_7_day</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
@@ -19579,7 +19579,7 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotcharge_energy_lifetime</t>
+          <t>etotcharge_energy_lifetime</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_tot_discharge</t>
+          <t>e_tot_discharge</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
@@ -19767,7 +19767,7 @@
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge_energy_30_day</t>
+          <t>etotdischarge_energy_30_day</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
@@ -19861,7 +19861,7 @@
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge_energy_7_day</t>
+          <t>etotdischarge_energy_7_day</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_etotdischarge_energy_lifetime</t>
+          <t>etotdischarge_energy_lifetime</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_watthours</t>
+          <t>watthours</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr"/>
@@ -20143,7 +20143,7 @@
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_input_energy</t>
+          <t>input_energy</t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr"/>
@@ -20237,7 +20237,7 @@
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein_energy_30_day</t>
+          <t>ein_energy_30_day</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr"/>
@@ -20331,7 +20331,7 @@
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein_energy_7_day</t>
+          <t>ein_energy_7_day</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ein_energy_lifetime</t>
+          <t>ein_energy_lifetime</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -20519,7 +20519,7 @@
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_house_p_inverter</t>
+          <t>house_p_inverter</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_house_power_grid_tot</t>
+          <t>house_power_grid_tot</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_watts</t>
+          <t>watts</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -20801,7 +20801,7 @@
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_inwrte</t>
+          <t>inwrte</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr"/>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_watts</t>
+          <t>watts</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
@@ -20989,7 +20989,7 @@
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_dc_watts</t>
+          <t>dc_watts</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr"/>
@@ -21083,7 +21083,7 @@
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_dc_power_#1</t>
+          <t>dc_power_1</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr"/>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_dc_power_#2</t>
+          <t>dc_power_2</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr"/>
@@ -21271,7 +21271,7 @@
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_grid_reactive_power</t>
+          <t>grid_reactive_power</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>
@@ -21357,7 +21357,7 @@
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_cabinet_temperature</t>
+          <t>cabinet_temperature</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr"/>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pf</t>
+          <t>pf</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_flash_free</t>
+          <t>flash_free</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ram_free</t>
+          <t>ram_free</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr">
@@ -21717,7 +21717,7 @@
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_fw_ver</t>
+          <t>fw_ver</t>
         </is>
       </c>
       <c r="E232" s="2" t="inlineStr">
@@ -21803,7 +21803,7 @@
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_amps_phasea</t>
+          <t>amps_phasea</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr">
@@ -21901,7 +21901,7 @@
       </c>
       <c r="D234" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_amps_phaseb</t>
+          <t>amps_phaseb</t>
         </is>
       </c>
       <c r="E234" s="2" t="inlineStr">
@@ -21999,7 +21999,7 @@
       </c>
       <c r="D235" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_amps_phasec</t>
+          <t>amps_phasec</t>
         </is>
       </c>
       <c r="E235" s="2" t="inlineStr">
@@ -22097,7 +22097,7 @@
       </c>
       <c r="D236" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_frequency_phase_a</t>
+          <t>frequency_phase_a</t>
         </is>
       </c>
       <c r="E236" s="2" t="inlineStr">
@@ -22191,7 +22191,7 @@
       </c>
       <c r="D237" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_frequency_phase_b</t>
+          <t>frequency_phase_b</t>
         </is>
       </c>
       <c r="E237" s="2" t="inlineStr">
@@ -22285,7 +22285,7 @@
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_frequency_phase_c</t>
+          <t>frequency_phase_c</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D239" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phase_voltage_ab</t>
+          <t>phase_voltage_ab</t>
         </is>
       </c>
       <c r="E239" s="2" t="inlineStr">
@@ -22477,7 +22477,7 @@
       </c>
       <c r="D240" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phase_voltage_bn</t>
+          <t>phase_voltage_bn</t>
         </is>
       </c>
       <c r="E240" s="2" t="inlineStr">
@@ -22575,7 +22575,7 @@
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phase_voltage_bc</t>
+          <t>phase_voltage_bc</t>
         </is>
       </c>
       <c r="E241" s="2" t="inlineStr">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phase_voltage_cn</t>
+          <t>phase_voltage_cn</t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr">
@@ -22771,7 +22771,7 @@
       </c>
       <c r="D243" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_phase_voltage_ca</t>
+          <t>phase_voltage_ca</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr">
@@ -22869,7 +22869,7 @@
       </c>
       <c r="D244" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_peak_power_absolute</t>
+          <t>peak_power_absolute</t>
         </is>
       </c>
       <c r="E244" s="2" t="inlineStr">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>abb_m103_peak_power_today</t>
+          <t>peak_power_today</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr">
@@ -23065,7 +23065,7 @@
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_alarm_state</t>
+          <t>alarm_state</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
@@ -23159,7 +23159,7 @@
       </c>
       <c r="D247" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_boost_converter_temperature</t>
+          <t>boost_converter_temperature</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_daily_energy</t>
+          <t>daily_energy</t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
@@ -23355,7 +23355,7 @@
       </c>
       <c r="D249" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_dc_input_1_state</t>
+          <t>dc_input_1_state</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_dc_input_2_state</t>
+          <t>dc_input_2_state</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr">
@@ -23511,7 +23511,7 @@
       </c>
       <c r="D251" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_global_state</t>
+          <t>global_state</t>
         </is>
       </c>
       <c r="E251" s="3" t="inlineStr">
@@ -23589,7 +23589,7 @@
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_leakage_current_dc_ac</t>
+          <t>leakage_current_dc_ac</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr">
@@ -23687,7 +23687,7 @@
       </c>
       <c r="D253" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_leakage_current_dc_dc</t>
+          <t>leakage_current_dc_dc</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr">
@@ -23785,7 +23785,7 @@
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_inverter_state</t>
+          <t>inverter_state</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr">
@@ -23863,7 +23863,7 @@
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_isolation_resistance</t>
+          <t>isolation_resistance</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
@@ -23953,7 +23953,7 @@
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_monthly_energy</t>
+          <t>monthly_energy</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_weekly_energy</t>
+          <t>weekly_energy</t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>abb_m64061_yearly_energy</t>
+          <t>yearly_energy</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
@@ -24247,7 +24247,7 @@
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_pn</t>
+          <t>pn</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr">
@@ -24325,7 +24325,7 @@
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_sn</t>
+          <t>sn</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_flash_used</t>
+          <t>flash_used</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr">
@@ -24497,7 +24497,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_system_load</t>
+          <t>system_load</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr">
@@ -24583,7 +24583,7 @@
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr">
@@ -24661,7 +24661,7 @@
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_uptime</t>
+          <t>uptime</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_wlan_0_essid</t>
+          <t>wlan_0_essid</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr">
@@ -24841,7 +24841,7 @@
       </c>
       <c r="D266" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_wlan_0_ipaddr_local</t>
+          <t>wlan_0_ipaddr_local</t>
         </is>
       </c>
       <c r="E266" s="2" t="inlineStr">
@@ -24919,7 +24919,7 @@
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_wlan_0_link_quality</t>
+          <t>wlan_0_link_quality</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr">
@@ -24997,7 +24997,7 @@
       </c>
       <c r="D268" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_wlan_0_mode</t>
+          <t>wlan_0_mode</t>
         </is>
       </c>
       <c r="E268" s="2" t="inlineStr">
@@ -25075,7 +25075,7 @@
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_6_total</t>
+          <t>e_6_total</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
@@ -25169,7 +25169,7 @@
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_7_total</t>
+          <t>e_7_total</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
@@ -25263,7 +25263,7 @@
       </c>
       <c r="D271" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_tot_charge</t>
+          <t>e_tot_charge</t>
         </is>
       </c>
       <c r="E271" s="2" t="inlineStr"/>
@@ -25357,7 +25357,7 @@
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_e_tot_discharge</t>
+          <t>e_tot_discharge</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -25451,7 +25451,7 @@
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_flash_free</t>
+          <t>flash_free</t>
         </is>
       </c>
       <c r="E273" s="2" t="inlineStr"/>
@@ -25533,7 +25533,7 @@
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_ram_free</t>
+          <t>ram_free</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>
@@ -25615,7 +25615,7 @@
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_fw_ver</t>
+          <t>fw_ver</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr"/>
@@ -25697,7 +25697,7 @@
       </c>
       <c r="D276" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_flash_used</t>
+          <t>flash_used</t>
         </is>
       </c>
       <c r="E276" s="2" t="inlineStr"/>
@@ -25779,7 +25779,7 @@
       </c>
       <c r="D277" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_system_load</t>
+          <t>system_load</t>
         </is>
       </c>
       <c r="E277" s="2" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
       </c>
       <c r="D278" s="2" t="inlineStr">
         <is>
-          <t>abb_vsn_uptime</t>
+          <t>uptime</t>
         </is>
       </c>
       <c r="E278" s="2" t="inlineStr"/>

--- a/docs/vsn-sunspec-point-mapping.xlsx
+++ b/docs/vsn-sunspec-point-mapping.xlsx
@@ -1265,7 +1265,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Current alarm status of the inverter</t>
+          <t>Alarm status</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Booster stage temperature</t>
+          <t>Booster temperature</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Device Modbus address</t>
+          <t>Modbus address</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3299,19 +3299,9 @@
           <t>Device Info</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="U25" t="inlineStr">
         <is>
           <t>measurement</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>current</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3627,7 +3617,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>DC current measurement for string 1</t>
+          <t>DC current #1</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3744,7 +3734,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DC current measurement for string 2</t>
+          <t>DC current #2</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3861,7 +3851,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>DC voltage measurement for string 1</t>
+          <t>DC voltage #1</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3978,7 +3968,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>DC voltage measurement for string 2</t>
+          <t>DC voltage #2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -16114,7 +16104,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Device model identifier from common model</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -16343,7 +16333,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Manufacturer name from device common model</t>
+          <t>Manufacturer</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -16791,7 +16781,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Device options and features from common model</t>
+          <t>Options</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
@@ -17600,7 +17590,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Phase A to neutral voltage measurement</t>
+          <t>Phase Voltage AN</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -19467,7 +19457,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Device serial number from common model</t>
+          <t>Serial Number</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -20030,6 +20020,16 @@
           <t>measurement</t>
         </is>
       </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t>diagnostic</t>
+        </is>
+      </c>
       <c r="X168" t="inlineStr">
         <is>
           <t>MAYBE</t>
@@ -21548,7 +21548,7 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>DC bulk capacitor voltage</t>
+          <t>DC capacitor voltage</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>DC bulk mid-point voltage</t>
+          <t>DC mid-point voltage</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Firmware version from device common model</t>
+          <t>Firmware Version</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -21907,19 +21907,9 @@
           <t>Device Info</t>
         </is>
       </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
       <c r="U184" t="inlineStr">
         <is>
           <t>measurement</t>
-        </is>
-      </c>
-      <c r="V184" t="inlineStr">
-        <is>
-          <t>voltage</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
@@ -24082,7 +24072,7 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>Serial number (datalogger)</t>
+          <t>Serial Number</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
@@ -24662,7 +24652,7 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>WiFi network name (SSID)</t>
+          <t>WiFi SSID</t>
         </is>
       </c>
       <c r="S208" t="inlineStr">
@@ -24769,7 +24759,7 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>WiFi local IP address</t>
+          <t>IP address</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
@@ -24983,7 +24973,7 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Wlan 0 Mode operating mode</t>
+          <t>Wlan 0 mode</t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
